--- a/Files/Portfolio_Project_Management_Plan.xlsx
+++ b/Files/Portfolio_Project_Management_Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/63d545a1e0281ec1/Documents/GitHub/portfolio/Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B17CD651-1DA0-4825-A800-84DEC560B33D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{B17CD651-1DA0-4825-A800-84DEC560B33D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{402C536C-1CAA-434F-8052-2F6BE8F340F9}"/>
   <bookViews>
     <workbookView xWindow="-51720" yWindow="5355" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{E4979EB6-7DFD-49F6-8272-0B0750FD377D}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="690">
   <si>
     <t>Table of Contents</t>
   </si>
@@ -2143,9 +2143,6 @@
     <t>Back to Table of Contents</t>
   </si>
   <si>
-    <t>WBS Task Completed</t>
-  </si>
-  <si>
     <t>Number of Requirements</t>
   </si>
   <si>
@@ -2174,13 +2171,20 @@
   </si>
   <si>
     <t>% of Requirements Completed</t>
+  </si>
+  <si>
+    <t>% of WBS Task Completed</t>
+  </si>
+  <si>
+    <t>Number of WBS Task</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="55" x14ac:knownFonts="1">
@@ -3403,12 +3407,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="411">
+  <cellXfs count="409">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4166,287 +4171,26 @@
     </xf>
     <xf numFmtId="0" fontId="45" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="47" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="47" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="50" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="50" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="50" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="52" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="50" fillId="13" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4458,6 +4202,50 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="53" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="58" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="50" fillId="13" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="50" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="54" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4470,7 +4258,7 @@
     <xf numFmtId="0" fontId="54" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4485,16 +4273,234 @@
     <xf numFmtId="0" fontId="54" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="58" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="50" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
@@ -6431,15 +6437,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>464821</xdr:colOff>
+      <xdr:colOff>236221</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>27623</xdr:rowOff>
+      <xdr:rowOff>27624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>64771</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6467,15 +6473,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>513397</xdr:colOff>
+      <xdr:colOff>341947</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>86676</xdr:rowOff>
+      <xdr:rowOff>37146</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7084,7 +7090,7 @@
   <dimension ref="A1:AL53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG12" sqref="AG12"/>
+      <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -7175,37 +7181,37 @@
     </row>
     <row r="3" spans="1:38" ht="46.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1"/>
-      <c r="B3" s="398" t="s">
-        <v>685</v>
-      </c>
-      <c r="C3" s="399"/>
-      <c r="D3" s="399"/>
-      <c r="E3" s="399"/>
-      <c r="F3" s="399"/>
-      <c r="G3" s="399"/>
-      <c r="H3" s="399"/>
-      <c r="I3" s="399"/>
-      <c r="J3" s="399"/>
-      <c r="K3" s="399"/>
-      <c r="L3" s="399"/>
-      <c r="M3" s="399"/>
-      <c r="N3" s="399"/>
-      <c r="O3" s="399"/>
-      <c r="P3" s="399"/>
-      <c r="Q3" s="399"/>
-      <c r="R3" s="399"/>
-      <c r="S3" s="400"/>
-      <c r="T3" s="371"/>
-      <c r="U3" s="371"/>
-      <c r="V3" s="371"/>
-      <c r="W3" s="371"/>
-      <c r="X3" s="371"/>
-      <c r="Y3" s="371"/>
-      <c r="Z3" s="371"/>
-      <c r="AA3" s="371"/>
-      <c r="AB3" s="371"/>
-      <c r="AC3" s="371"/>
-      <c r="AD3" s="371"/>
+      <c r="B3" s="325" t="s">
+        <v>684</v>
+      </c>
+      <c r="C3" s="326"/>
+      <c r="D3" s="326"/>
+      <c r="E3" s="326"/>
+      <c r="F3" s="326"/>
+      <c r="G3" s="326"/>
+      <c r="H3" s="326"/>
+      <c r="I3" s="326"/>
+      <c r="J3" s="326"/>
+      <c r="K3" s="326"/>
+      <c r="L3" s="326"/>
+      <c r="M3" s="326"/>
+      <c r="N3" s="326"/>
+      <c r="O3" s="326"/>
+      <c r="P3" s="326"/>
+      <c r="Q3" s="326"/>
+      <c r="R3" s="326"/>
+      <c r="S3" s="327"/>
+      <c r="T3" s="296"/>
+      <c r="U3" s="296"/>
+      <c r="V3" s="296"/>
+      <c r="W3" s="296"/>
+      <c r="X3" s="296"/>
+      <c r="Y3" s="296"/>
+      <c r="Z3" s="296"/>
+      <c r="AA3" s="296"/>
+      <c r="AB3" s="296"/>
+      <c r="AC3" s="296"/>
+      <c r="AD3" s="296"/>
       <c r="AE3" s="1"/>
       <c r="AF3" s="1"/>
       <c r="AG3" s="1"/>
@@ -7217,35 +7223,35 @@
     </row>
     <row r="4" spans="1:38" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1"/>
-      <c r="B4" s="401"/>
-      <c r="C4" s="402"/>
-      <c r="D4" s="402"/>
-      <c r="E4" s="402"/>
-      <c r="F4" s="402"/>
-      <c r="G4" s="402"/>
-      <c r="H4" s="402"/>
-      <c r="I4" s="402"/>
-      <c r="J4" s="402"/>
-      <c r="K4" s="402"/>
-      <c r="L4" s="402"/>
-      <c r="M4" s="402"/>
-      <c r="N4" s="402"/>
-      <c r="O4" s="402"/>
-      <c r="P4" s="402"/>
-      <c r="Q4" s="402"/>
-      <c r="R4" s="402"/>
-      <c r="S4" s="403"/>
-      <c r="T4" s="371"/>
-      <c r="U4" s="371"/>
-      <c r="V4" s="371"/>
-      <c r="W4" s="371"/>
-      <c r="X4" s="371"/>
-      <c r="Y4" s="371"/>
-      <c r="Z4" s="371"/>
-      <c r="AA4" s="371"/>
-      <c r="AB4" s="371"/>
-      <c r="AC4" s="371"/>
-      <c r="AD4" s="371"/>
+      <c r="B4" s="328"/>
+      <c r="C4" s="329"/>
+      <c r="D4" s="329"/>
+      <c r="E4" s="329"/>
+      <c r="F4" s="329"/>
+      <c r="G4" s="329"/>
+      <c r="H4" s="329"/>
+      <c r="I4" s="329"/>
+      <c r="J4" s="329"/>
+      <c r="K4" s="329"/>
+      <c r="L4" s="329"/>
+      <c r="M4" s="329"/>
+      <c r="N4" s="329"/>
+      <c r="O4" s="329"/>
+      <c r="P4" s="329"/>
+      <c r="Q4" s="329"/>
+      <c r="R4" s="329"/>
+      <c r="S4" s="330"/>
+      <c r="T4" s="296"/>
+      <c r="U4" s="296"/>
+      <c r="V4" s="296"/>
+      <c r="W4" s="296"/>
+      <c r="X4" s="296"/>
+      <c r="Y4" s="296"/>
+      <c r="Z4" s="296"/>
+      <c r="AA4" s="296"/>
+      <c r="AB4" s="296"/>
+      <c r="AC4" s="296"/>
+      <c r="AD4" s="296"/>
       <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
       <c r="AG4" s="1"/>
@@ -7257,35 +7263,35 @@
     </row>
     <row r="5" spans="1:38" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1"/>
-      <c r="B5" s="404"/>
-      <c r="C5" s="405"/>
-      <c r="D5" s="405"/>
-      <c r="E5" s="405"/>
-      <c r="F5" s="405"/>
-      <c r="G5" s="405"/>
-      <c r="H5" s="405"/>
-      <c r="I5" s="405"/>
-      <c r="J5" s="405"/>
-      <c r="K5" s="405"/>
-      <c r="L5" s="405"/>
-      <c r="M5" s="405"/>
-      <c r="N5" s="405"/>
-      <c r="O5" s="405"/>
-      <c r="P5" s="405"/>
-      <c r="Q5" s="405"/>
-      <c r="R5" s="405"/>
-      <c r="S5" s="406"/>
-      <c r="T5" s="371"/>
-      <c r="U5" s="371"/>
-      <c r="V5" s="371"/>
-      <c r="W5" s="371"/>
-      <c r="X5" s="371"/>
-      <c r="Y5" s="371"/>
-      <c r="Z5" s="371"/>
-      <c r="AA5" s="371"/>
-      <c r="AB5" s="371"/>
-      <c r="AC5" s="371"/>
-      <c r="AD5" s="371"/>
+      <c r="B5" s="331"/>
+      <c r="C5" s="332"/>
+      <c r="D5" s="332"/>
+      <c r="E5" s="332"/>
+      <c r="F5" s="332"/>
+      <c r="G5" s="332"/>
+      <c r="H5" s="332"/>
+      <c r="I5" s="332"/>
+      <c r="J5" s="332"/>
+      <c r="K5" s="332"/>
+      <c r="L5" s="332"/>
+      <c r="M5" s="332"/>
+      <c r="N5" s="332"/>
+      <c r="O5" s="332"/>
+      <c r="P5" s="332"/>
+      <c r="Q5" s="332"/>
+      <c r="R5" s="332"/>
+      <c r="S5" s="333"/>
+      <c r="T5" s="296"/>
+      <c r="U5" s="296"/>
+      <c r="V5" s="296"/>
+      <c r="W5" s="296"/>
+      <c r="X5" s="296"/>
+      <c r="Y5" s="296"/>
+      <c r="Z5" s="296"/>
+      <c r="AA5" s="296"/>
+      <c r="AB5" s="296"/>
+      <c r="AC5" s="296"/>
+      <c r="AD5" s="296"/>
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
       <c r="AG5" s="1"/>
@@ -7297,36 +7303,36 @@
     </row>
     <row r="6" spans="1:38" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1"/>
-      <c r="B6" s="393"/>
-      <c r="C6" s="371"/>
-      <c r="D6" s="371"/>
-      <c r="E6" s="371"/>
-      <c r="F6" s="371"/>
-      <c r="G6" s="371"/>
-      <c r="H6" s="371"/>
-      <c r="I6" s="371"/>
-      <c r="J6" s="407"/>
-      <c r="K6" s="371"/>
-      <c r="L6" s="371"/>
-      <c r="M6" s="371"/>
-      <c r="N6" s="371"/>
-      <c r="O6" s="371"/>
-      <c r="P6" s="371"/>
-      <c r="Q6" s="371"/>
-      <c r="R6" s="371"/>
-      <c r="S6" s="392"/>
-      <c r="T6" s="371"/>
-      <c r="U6" s="371"/>
-      <c r="V6" s="371"/>
-      <c r="W6" s="371"/>
-      <c r="X6" s="371"/>
-      <c r="Y6" s="371"/>
-      <c r="Z6" s="371"/>
-      <c r="AA6" s="371"/>
-      <c r="AB6" s="371"/>
-      <c r="AC6" s="371"/>
-      <c r="AD6" s="371"/>
-      <c r="AE6" s="374"/>
+      <c r="B6" s="304"/>
+      <c r="C6" s="296"/>
+      <c r="D6" s="296"/>
+      <c r="E6" s="296"/>
+      <c r="F6" s="296"/>
+      <c r="G6" s="296"/>
+      <c r="H6" s="296"/>
+      <c r="I6" s="296"/>
+      <c r="J6" s="309"/>
+      <c r="K6" s="296"/>
+      <c r="L6" s="296"/>
+      <c r="M6" s="296"/>
+      <c r="N6" s="296"/>
+      <c r="O6" s="296"/>
+      <c r="P6" s="296"/>
+      <c r="Q6" s="296"/>
+      <c r="R6" s="296"/>
+      <c r="S6" s="303"/>
+      <c r="T6" s="296"/>
+      <c r="U6" s="296"/>
+      <c r="V6" s="296"/>
+      <c r="W6" s="296"/>
+      <c r="X6" s="296"/>
+      <c r="Y6" s="296"/>
+      <c r="Z6" s="296"/>
+      <c r="AA6" s="296"/>
+      <c r="AB6" s="296"/>
+      <c r="AC6" s="296"/>
+      <c r="AD6" s="296"/>
+      <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
       <c r="AG6" s="1"/>
       <c r="AH6" s="1"/>
@@ -7337,36 +7343,36 @@
     </row>
     <row r="7" spans="1:38" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1"/>
-      <c r="B7" s="393"/>
-      <c r="C7" s="371"/>
-      <c r="D7" s="371"/>
-      <c r="E7" s="371"/>
-      <c r="F7" s="371"/>
-      <c r="G7" s="371"/>
-      <c r="H7" s="371"/>
-      <c r="I7" s="371"/>
-      <c r="J7" s="408"/>
-      <c r="K7" s="371"/>
-      <c r="L7" s="371"/>
-      <c r="M7" s="371"/>
-      <c r="N7" s="371"/>
-      <c r="O7" s="371"/>
-      <c r="P7" s="371"/>
-      <c r="Q7" s="371"/>
-      <c r="R7" s="371"/>
-      <c r="S7" s="392"/>
-      <c r="T7" s="371"/>
-      <c r="U7" s="371"/>
-      <c r="V7" s="371"/>
-      <c r="W7" s="371"/>
-      <c r="X7" s="371"/>
-      <c r="Y7" s="371"/>
-      <c r="Z7" s="371"/>
-      <c r="AA7" s="371"/>
-      <c r="AB7" s="371"/>
-      <c r="AC7" s="371"/>
-      <c r="AD7" s="371"/>
-      <c r="AE7" s="374"/>
+      <c r="B7" s="304"/>
+      <c r="C7" s="296"/>
+      <c r="D7" s="296"/>
+      <c r="E7" s="296"/>
+      <c r="F7" s="296"/>
+      <c r="G7" s="296"/>
+      <c r="H7" s="296"/>
+      <c r="I7" s="296"/>
+      <c r="J7" s="310"/>
+      <c r="K7" s="296"/>
+      <c r="L7" s="296"/>
+      <c r="M7" s="296"/>
+      <c r="N7" s="296"/>
+      <c r="O7" s="296"/>
+      <c r="P7" s="296"/>
+      <c r="Q7" s="296"/>
+      <c r="R7" s="296"/>
+      <c r="S7" s="303"/>
+      <c r="T7" s="296"/>
+      <c r="U7" s="296"/>
+      <c r="V7" s="296"/>
+      <c r="W7" s="296"/>
+      <c r="X7" s="296"/>
+      <c r="Y7" s="296"/>
+      <c r="Z7" s="296"/>
+      <c r="AA7" s="296"/>
+      <c r="AB7" s="296"/>
+      <c r="AC7" s="296"/>
+      <c r="AD7" s="296"/>
+      <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
       <c r="AH7" s="1"/>
@@ -7377,46 +7383,46 @@
     </row>
     <row r="8" spans="1:38" ht="23.7" x14ac:dyDescent="0.9">
       <c r="A8" s="1"/>
-      <c r="B8" s="394"/>
-      <c r="C8" s="374" t="s">
-        <v>684</v>
-      </c>
-      <c r="D8" s="374" t="s">
+      <c r="B8" s="305"/>
+      <c r="C8" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="E8" s="374"/>
-      <c r="F8" s="374"/>
-      <c r="G8" s="374"/>
-      <c r="H8" s="374"/>
-      <c r="I8" s="374"/>
-      <c r="J8" s="409"/>
-      <c r="K8" s="372" t="s">
+      <c r="D8" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="311"/>
+      <c r="K8" s="321" t="s">
+        <v>689</v>
+      </c>
+      <c r="L8" s="321"/>
+      <c r="M8" s="294"/>
+      <c r="N8" s="324" t="s">
+        <v>679</v>
+      </c>
+      <c r="O8" s="324"/>
+      <c r="P8" s="298"/>
+      <c r="Q8" s="314" t="s">
         <v>678</v>
       </c>
-      <c r="L8" s="372"/>
-      <c r="M8" s="369"/>
-      <c r="N8" s="376" t="s">
-        <v>680</v>
-      </c>
-      <c r="O8" s="376"/>
-      <c r="P8" s="377"/>
-      <c r="Q8" s="378" t="s">
-        <v>679</v>
-      </c>
-      <c r="R8" s="378"/>
-      <c r="S8" s="395"/>
-      <c r="T8" s="374"/>
-      <c r="U8" s="374"/>
-      <c r="V8" s="374"/>
-      <c r="W8" s="374"/>
-      <c r="X8" s="374"/>
-      <c r="Y8" s="374"/>
-      <c r="Z8" s="374"/>
-      <c r="AA8" s="374"/>
-      <c r="AB8" s="374"/>
-      <c r="AC8" s="374"/>
-      <c r="AD8" s="374"/>
-      <c r="AE8" s="374"/>
+      <c r="R8" s="314"/>
+      <c r="S8" s="306"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
       <c r="AF8" s="1"/>
       <c r="AG8" s="1"/>
       <c r="AH8" s="1"/>
@@ -7426,40 +7432,40 @@
       <c r="AL8" s="1"/>
     </row>
     <row r="9" spans="1:38" ht="67.8" customHeight="1" x14ac:dyDescent="1.75">
-      <c r="A9" s="374"/>
-      <c r="B9" s="394"/>
-      <c r="C9" s="379">
+      <c r="A9" s="1"/>
+      <c r="B9" s="305"/>
+      <c r="C9" s="299">
         <f>COUNTIF('WBS &amp; Schedule &amp; Gantt '!$U$14:$U$136,100)/COUNT('WBS &amp; Schedule &amp; Gantt '!$U$9:$U$136)</f>
         <v>0.83838383838383834</v>
       </c>
-      <c r="D9" s="380">
+      <c r="D9" s="300">
         <f>1-C9</f>
         <v>0.16161616161616166</v>
       </c>
-      <c r="E9" s="374"/>
-      <c r="F9" s="374"/>
-      <c r="G9" s="374"/>
-      <c r="H9" s="374"/>
-      <c r="I9" s="374"/>
-      <c r="J9" s="409"/>
-      <c r="K9" s="381">
-        <f>COUNTIF('WBS &amp; Schedule &amp; Gantt '!$U$14:$U$136,100)/COUNT('WBS &amp; Schedule &amp; Gantt '!$U$9:$U$136)</f>
-        <v>0.83838383838383834</v>
-      </c>
-      <c r="L9" s="381"/>
-      <c r="M9" s="370"/>
-      <c r="N9" s="382">
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="311"/>
+      <c r="K9" s="408">
+        <f>COUNT('WBS &amp; Schedule &amp; Gantt '!U12:U136)</f>
+        <v>99</v>
+      </c>
+      <c r="L9" s="408"/>
+      <c r="M9" s="295"/>
+      <c r="N9" s="313">
         <f>COUNTA('Risk Register'!B17:B29)</f>
         <v>13</v>
       </c>
-      <c r="O9" s="382"/>
-      <c r="P9" s="383"/>
-      <c r="Q9" s="384">
+      <c r="O9" s="313"/>
+      <c r="P9" s="301"/>
+      <c r="Q9" s="315">
         <f>COUNTA(Requirements!B8:B28)</f>
         <v>21</v>
       </c>
-      <c r="R9" s="384"/>
-      <c r="S9" s="395"/>
+      <c r="R9" s="315"/>
+      <c r="S9" s="306"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
@@ -7480,25 +7486,25 @@
       <c r="AK9" s="1"/>
     </row>
     <row r="10" spans="1:38" ht="12.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="374"/>
-      <c r="B10" s="394"/>
-      <c r="C10" s="374"/>
-      <c r="D10" s="374"/>
-      <c r="E10" s="374"/>
-      <c r="F10" s="374"/>
-      <c r="G10" s="374"/>
-      <c r="H10" s="374"/>
-      <c r="I10" s="374"/>
-      <c r="J10" s="409"/>
-      <c r="K10" s="374"/>
-      <c r="L10" s="374"/>
-      <c r="M10" s="374"/>
-      <c r="N10" s="385"/>
-      <c r="O10" s="385"/>
-      <c r="P10" s="385"/>
-      <c r="Q10" s="374"/>
-      <c r="R10" s="374"/>
-      <c r="S10" s="395"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="305"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="311"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="302"/>
+      <c r="O10" s="302"/>
+      <c r="P10" s="302"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="306"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
@@ -7519,36 +7525,36 @@
       <c r="AK10" s="1"/>
     </row>
     <row r="11" spans="1:38" ht="44.1" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A11" s="374"/>
-      <c r="B11" s="394"/>
-      <c r="C11" s="374"/>
-      <c r="D11" s="374"/>
-      <c r="E11" s="374"/>
-      <c r="F11" s="374"/>
-      <c r="G11" s="374"/>
-      <c r="H11" s="374"/>
-      <c r="I11" s="374"/>
-      <c r="J11" s="409"/>
-      <c r="K11" s="386" t="s">
-        <v>682</v>
-      </c>
-      <c r="L11" s="386"/>
-      <c r="M11" s="387"/>
-      <c r="N11" s="388" t="s">
-        <v>681</v>
-      </c>
-      <c r="O11" s="388"/>
-      <c r="P11" s="385"/>
-      <c r="Q11" s="378" t="s">
+      <c r="A11" s="1"/>
+      <c r="B11" s="305"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="311"/>
+      <c r="K11" s="321" t="s">
         <v>688</v>
       </c>
-      <c r="R11" s="378"/>
-      <c r="S11" s="395"/>
+      <c r="L11" s="321"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="318" t="s">
+        <v>680</v>
+      </c>
+      <c r="O11" s="318"/>
+      <c r="P11" s="302"/>
+      <c r="Q11" s="314" t="s">
+        <v>687</v>
+      </c>
+      <c r="R11" s="314"/>
+      <c r="S11" s="306"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
-      <c r="W11" s="368"/>
-      <c r="X11" s="368"/>
+      <c r="W11" s="323"/>
+      <c r="X11" s="323"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
@@ -7564,34 +7570,33 @@
       <c r="AK11" s="1"/>
     </row>
     <row r="12" spans="1:38" ht="64.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="374"/>
-      <c r="B12" s="394"/>
-      <c r="C12" s="374"/>
-      <c r="D12" s="374"/>
-      <c r="E12" s="374"/>
-      <c r="F12" s="374"/>
-      <c r="G12" s="374"/>
-      <c r="H12" s="374"/>
-      <c r="I12" s="374"/>
-      <c r="J12" s="409"/>
-      <c r="K12" s="389">
-        <f>COUNTA('Stakeholder Register'!B10:B30)</f>
-        <v>5</v>
-      </c>
-      <c r="L12" s="389"/>
-      <c r="M12" s="374"/>
-      <c r="N12" s="390">
+      <c r="A12" s="1"/>
+      <c r="B12" s="305"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="311"/>
+      <c r="K12" s="322">
+        <f>COUNTIF('WBS &amp; Schedule &amp; Gantt '!$U$14:$U$136,100)/COUNT('WBS &amp; Schedule &amp; Gantt '!$U$9:$U$136)</f>
+        <v>0.83838383838383834</v>
+      </c>
+      <c r="L12" s="322"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="319">
         <f>COUNTA('Assumption Log'!B9:B40)</f>
         <v>14</v>
       </c>
-      <c r="O12" s="390"/>
-      <c r="P12" s="374"/>
-      <c r="Q12" s="391">
+      <c r="O12" s="319"/>
+      <c r="Q12" s="320">
         <f>COUNTIF(Requirements!Q8:Q40,100)/COUNTA(Requirements!B8:B40)</f>
         <v>0.95238095238095233</v>
       </c>
-      <c r="R12" s="391"/>
-      <c r="S12" s="395"/>
+      <c r="R12" s="320"/>
+      <c r="S12" s="306"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
@@ -7612,25 +7617,24 @@
       <c r="AK12" s="1"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="374"/>
-      <c r="B13" s="394"/>
-      <c r="C13" s="374"/>
-      <c r="D13" s="374"/>
-      <c r="E13" s="374"/>
-      <c r="F13" s="374"/>
-      <c r="G13" s="374"/>
-      <c r="H13" s="374"/>
-      <c r="I13" s="374"/>
-      <c r="J13" s="409"/>
-      <c r="K13" s="374"/>
-      <c r="L13" s="374"/>
-      <c r="M13" s="374"/>
-      <c r="N13" s="374"/>
-      <c r="O13" s="374"/>
-      <c r="P13" s="374"/>
-      <c r="Q13" s="374"/>
-      <c r="R13" s="374"/>
-      <c r="S13" s="395"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="305"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="311"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="306"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
@@ -7650,26 +7654,27 @@
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1"/>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="374"/>
-      <c r="B14" s="394"/>
-      <c r="C14" s="374"/>
-      <c r="D14" s="374"/>
-      <c r="E14" s="374"/>
-      <c r="F14" s="374"/>
-      <c r="G14" s="374"/>
-      <c r="H14" s="374"/>
-      <c r="I14" s="374"/>
-      <c r="J14" s="409"/>
-      <c r="K14" s="374"/>
-      <c r="L14" s="374"/>
-      <c r="M14" s="374"/>
-      <c r="N14" s="374"/>
-      <c r="O14" s="374"/>
-      <c r="P14" s="374"/>
-      <c r="Q14" s="374"/>
-      <c r="R14" s="374"/>
-      <c r="S14" s="395"/>
+    <row r="14" spans="1:38" ht="23.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="1"/>
+      <c r="B14" s="305"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="311"/>
+      <c r="K14" s="316" t="s">
+        <v>681</v>
+      </c>
+      <c r="L14" s="316"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="306"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
@@ -7689,26 +7694,28 @@
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1"/>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="374"/>
-      <c r="B15" s="394"/>
-      <c r="C15" s="374"/>
-      <c r="D15" s="374"/>
-      <c r="E15" s="374"/>
-      <c r="F15" s="374"/>
-      <c r="G15" s="374"/>
-      <c r="H15" s="374"/>
-      <c r="I15" s="374"/>
-      <c r="J15" s="409"/>
-      <c r="K15" s="374"/>
-      <c r="L15" s="374"/>
-      <c r="M15" s="374"/>
-      <c r="N15" s="374"/>
-      <c r="O15" s="374"/>
-      <c r="P15" s="374"/>
-      <c r="Q15" s="374"/>
-      <c r="R15" s="374"/>
-      <c r="S15" s="395"/>
+    <row r="15" spans="1:38" ht="66.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="1"/>
+      <c r="B15" s="305"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="311"/>
+      <c r="K15" s="317">
+        <f>COUNTA('Stakeholder Register'!B10:B30)</f>
+        <v>5</v>
+      </c>
+      <c r="L15" s="317"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="306"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
@@ -7729,25 +7736,24 @@
       <c r="AK15" s="1"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="374"/>
-      <c r="B16" s="394"/>
-      <c r="C16" s="374"/>
-      <c r="D16" s="374"/>
-      <c r="E16" s="374"/>
-      <c r="F16" s="374"/>
-      <c r="G16" s="374"/>
-      <c r="H16" s="374"/>
-      <c r="I16" s="374"/>
-      <c r="J16" s="409"/>
-      <c r="K16" s="374"/>
-      <c r="L16" s="374"/>
-      <c r="M16" s="374"/>
-      <c r="N16" s="374"/>
-      <c r="O16" s="374"/>
-      <c r="P16" s="374"/>
-      <c r="Q16" s="374"/>
-      <c r="R16" s="374"/>
-      <c r="S16" s="395"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="305"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="311"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="306"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
@@ -7768,25 +7774,24 @@
       <c r="AK16" s="1"/>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="374"/>
-      <c r="B17" s="394"/>
-      <c r="C17" s="374"/>
-      <c r="D17" s="374"/>
-      <c r="E17" s="374"/>
-      <c r="F17" s="374"/>
-      <c r="G17" s="374"/>
-      <c r="H17" s="374"/>
-      <c r="I17" s="374"/>
-      <c r="J17" s="409"/>
-      <c r="K17" s="374"/>
-      <c r="L17" s="374"/>
-      <c r="M17" s="374"/>
-      <c r="N17" s="374"/>
-      <c r="O17" s="374"/>
-      <c r="P17" s="374"/>
-      <c r="Q17" s="374"/>
-      <c r="R17" s="374"/>
-      <c r="S17" s="395"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="305"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="311"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="306"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
@@ -7807,25 +7812,24 @@
       <c r="AK17" s="1"/>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="374"/>
-      <c r="B18" s="394"/>
-      <c r="C18" s="374"/>
-      <c r="D18" s="374"/>
-      <c r="E18" s="374"/>
-      <c r="F18" s="374"/>
-      <c r="G18" s="374"/>
-      <c r="H18" s="374"/>
-      <c r="I18" s="374"/>
-      <c r="J18" s="409"/>
-      <c r="K18" s="374"/>
-      <c r="L18" s="374"/>
-      <c r="M18" s="374"/>
-      <c r="N18" s="374"/>
-      <c r="O18" s="374"/>
-      <c r="P18" s="374"/>
-      <c r="Q18" s="374"/>
-      <c r="R18" s="374"/>
-      <c r="S18" s="395"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="305"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="311"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="306"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
@@ -7846,25 +7850,24 @@
       <c r="AK18" s="1"/>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="374"/>
-      <c r="B19" s="394"/>
-      <c r="C19" s="374"/>
-      <c r="D19" s="374"/>
-      <c r="E19" s="374"/>
-      <c r="F19" s="374"/>
-      <c r="G19" s="374"/>
-      <c r="H19" s="374"/>
-      <c r="I19" s="374"/>
-      <c r="J19" s="409"/>
-      <c r="K19" s="374"/>
-      <c r="L19" s="374"/>
-      <c r="M19" s="374"/>
-      <c r="N19" s="374"/>
-      <c r="O19" s="374"/>
-      <c r="P19" s="374"/>
-      <c r="Q19" s="374"/>
-      <c r="R19" s="374"/>
-      <c r="S19" s="395"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="305"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="311"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="306"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
@@ -7885,25 +7888,24 @@
       <c r="AK19" s="1"/>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="374"/>
-      <c r="B20" s="394"/>
-      <c r="C20" s="374"/>
-      <c r="D20" s="374"/>
-      <c r="E20" s="374"/>
-      <c r="F20" s="374"/>
-      <c r="G20" s="374"/>
-      <c r="H20" s="374"/>
-      <c r="I20" s="374"/>
-      <c r="J20" s="409"/>
-      <c r="K20" s="374"/>
-      <c r="L20" s="374"/>
-      <c r="M20" s="374"/>
-      <c r="N20" s="374"/>
-      <c r="O20" s="374"/>
-      <c r="P20" s="374"/>
-      <c r="Q20" s="374"/>
-      <c r="R20" s="374"/>
-      <c r="S20" s="395"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="305"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="311"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="306"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
@@ -7924,25 +7926,24 @@
       <c r="AK20" s="1"/>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="374"/>
-      <c r="B21" s="394"/>
-      <c r="C21" s="374"/>
-      <c r="D21" s="374"/>
-      <c r="E21" s="374"/>
-      <c r="F21" s="374"/>
-      <c r="G21" s="374"/>
-      <c r="H21" s="374"/>
-      <c r="I21" s="374"/>
-      <c r="J21" s="409"/>
-      <c r="K21" s="374"/>
-      <c r="L21" s="374"/>
-      <c r="M21" s="374"/>
-      <c r="N21" s="374"/>
-      <c r="O21" s="374"/>
-      <c r="P21" s="374"/>
-      <c r="Q21" s="374"/>
-      <c r="R21" s="374"/>
-      <c r="S21" s="395"/>
+      <c r="A21" s="1"/>
+      <c r="B21" s="305"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="311"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="306"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
@@ -7963,25 +7964,24 @@
       <c r="AK21" s="1"/>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="374"/>
-      <c r="B22" s="394"/>
-      <c r="C22" s="374"/>
-      <c r="D22" s="374"/>
-      <c r="E22" s="374"/>
-      <c r="F22" s="374"/>
-      <c r="G22" s="374"/>
-      <c r="H22" s="374"/>
-      <c r="I22" s="374"/>
-      <c r="J22" s="409"/>
-      <c r="K22" s="374"/>
-      <c r="L22" s="374"/>
-      <c r="M22" s="374"/>
-      <c r="N22" s="374"/>
-      <c r="O22" s="374"/>
-      <c r="P22" s="374"/>
-      <c r="Q22" s="374"/>
-      <c r="R22" s="374"/>
-      <c r="S22" s="395"/>
+      <c r="A22" s="1"/>
+      <c r="B22" s="305"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="311"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="306"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
@@ -8002,29 +8002,28 @@
       <c r="AK22" s="1"/>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="374"/>
-      <c r="B23" s="394"/>
-      <c r="C23" s="374" t="s">
+      <c r="A23" s="1"/>
+      <c r="B23" s="305"/>
+      <c r="C23" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="D23" s="374" t="s">
-        <v>687</v>
-      </c>
-      <c r="E23" s="374"/>
-      <c r="F23" s="374"/>
-      <c r="G23" s="374"/>
-      <c r="H23" s="374"/>
-      <c r="I23" s="374"/>
-      <c r="J23" s="409"/>
-      <c r="K23" s="374"/>
-      <c r="L23" s="374"/>
-      <c r="M23" s="374"/>
-      <c r="N23" s="374"/>
-      <c r="O23" s="374"/>
-      <c r="P23" s="374"/>
-      <c r="Q23" s="374"/>
-      <c r="R23" s="374"/>
-      <c r="S23" s="395"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="311"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="306"/>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
@@ -8045,31 +8044,30 @@
       <c r="AK23" s="1"/>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="374"/>
-      <c r="B24" s="394"/>
-      <c r="C24" s="379">
+      <c r="A24" s="1"/>
+      <c r="B24" s="305"/>
+      <c r="C24" s="299">
         <f>COUNTIF(Requirements!$Q$8:$Q$28,100)/COUNTA(Requirements!$B$8:$B$28)</f>
         <v>0.95238095238095233</v>
       </c>
-      <c r="D24" s="380">
+      <c r="D24" s="300">
         <f>1-C24</f>
         <v>4.7619047619047672E-2</v>
       </c>
-      <c r="E24" s="374"/>
-      <c r="F24" s="374"/>
-      <c r="G24" s="374"/>
-      <c r="H24" s="374"/>
-      <c r="I24" s="374"/>
-      <c r="J24" s="409"/>
-      <c r="K24" s="374"/>
-      <c r="L24" s="374"/>
-      <c r="M24" s="374"/>
-      <c r="N24" s="374"/>
-      <c r="O24" s="374"/>
-      <c r="P24" s="374"/>
-      <c r="Q24" s="374"/>
-      <c r="R24" s="374"/>
-      <c r="S24" s="395"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="311"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="306"/>
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
@@ -8090,25 +8088,24 @@
       <c r="AK24" s="1"/>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="374"/>
-      <c r="B25" s="394"/>
-      <c r="C25" s="374"/>
-      <c r="D25" s="374"/>
-      <c r="E25" s="374"/>
-      <c r="F25" s="374"/>
-      <c r="G25" s="374"/>
-      <c r="H25" s="374"/>
-      <c r="I25" s="374"/>
-      <c r="J25" s="409"/>
-      <c r="K25" s="374"/>
-      <c r="L25" s="374"/>
-      <c r="M25" s="374"/>
-      <c r="N25" s="374"/>
-      <c r="O25" s="374"/>
-      <c r="P25" s="374"/>
-      <c r="Q25" s="374"/>
-      <c r="R25" s="374"/>
-      <c r="S25" s="395"/>
+      <c r="A25" s="1"/>
+      <c r="B25" s="305"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="311"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="306"/>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
@@ -8129,25 +8126,24 @@
       <c r="AK25" s="1"/>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="374"/>
-      <c r="B26" s="394"/>
-      <c r="C26" s="374"/>
-      <c r="D26" s="374"/>
-      <c r="E26" s="374"/>
-      <c r="F26" s="374"/>
-      <c r="G26" s="374"/>
-      <c r="H26" s="374"/>
-      <c r="I26" s="374"/>
-      <c r="J26" s="409"/>
-      <c r="K26" s="374"/>
-      <c r="L26" s="374"/>
-      <c r="M26" s="374"/>
-      <c r="N26" s="374"/>
-      <c r="O26" s="374"/>
-      <c r="P26" s="374"/>
-      <c r="Q26" s="374"/>
-      <c r="R26" s="374"/>
-      <c r="S26" s="395"/>
+      <c r="A26" s="1"/>
+      <c r="B26" s="305"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="311"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="306"/>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
@@ -8168,25 +8164,24 @@
       <c r="AK26" s="1"/>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="374"/>
-      <c r="B27" s="394"/>
-      <c r="C27" s="374"/>
-      <c r="D27" s="374"/>
-      <c r="E27" s="374"/>
-      <c r="F27" s="374"/>
-      <c r="G27" s="374"/>
-      <c r="H27" s="374"/>
-      <c r="I27" s="374"/>
-      <c r="J27" s="409"/>
-      <c r="K27" s="374"/>
-      <c r="L27" s="374"/>
-      <c r="M27" s="374"/>
-      <c r="N27" s="374"/>
-      <c r="O27" s="374"/>
-      <c r="P27" s="374"/>
-      <c r="Q27" s="374"/>
-      <c r="R27" s="374"/>
-      <c r="S27" s="395"/>
+      <c r="A27" s="1"/>
+      <c r="B27" s="305"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="311"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="306"/>
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
@@ -8207,25 +8202,24 @@
       <c r="AK27" s="1"/>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="374"/>
-      <c r="B28" s="394"/>
-      <c r="C28" s="374"/>
-      <c r="D28" s="374"/>
-      <c r="E28" s="374"/>
-      <c r="F28" s="374"/>
-      <c r="G28" s="374"/>
-      <c r="H28" s="374"/>
-      <c r="I28" s="374"/>
-      <c r="J28" s="409"/>
-      <c r="K28" s="374"/>
-      <c r="L28" s="374"/>
-      <c r="M28" s="374"/>
-      <c r="N28" s="374"/>
-      <c r="O28" s="374"/>
-      <c r="P28" s="374"/>
-      <c r="Q28" s="374"/>
-      <c r="R28" s="374"/>
-      <c r="S28" s="395"/>
+      <c r="A28" s="1"/>
+      <c r="B28" s="305"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="311"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="306"/>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
@@ -8246,25 +8240,23 @@
       <c r="AK28" s="1"/>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="375"/>
-      <c r="B29" s="394"/>
-      <c r="C29" s="374"/>
-      <c r="D29" s="374"/>
-      <c r="E29" s="374"/>
-      <c r="F29" s="374"/>
-      <c r="G29" s="374"/>
-      <c r="H29" s="374"/>
-      <c r="I29" s="374"/>
-      <c r="J29" s="409"/>
-      <c r="K29" s="374"/>
-      <c r="L29" s="374"/>
-      <c r="M29" s="374"/>
-      <c r="N29" s="374"/>
-      <c r="O29" s="374"/>
-      <c r="P29" s="374"/>
-      <c r="Q29" s="374"/>
-      <c r="R29" s="374"/>
-      <c r="S29" s="395"/>
+      <c r="B29" s="305"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="311"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="306"/>
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
@@ -8285,25 +8277,23 @@
       <c r="AK29" s="1"/>
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="375"/>
-      <c r="B30" s="394"/>
-      <c r="C30" s="374"/>
-      <c r="D30" s="374"/>
-      <c r="E30" s="374"/>
-      <c r="F30" s="374"/>
-      <c r="G30" s="374"/>
-      <c r="H30" s="374"/>
-      <c r="I30" s="374"/>
-      <c r="J30" s="409"/>
-      <c r="K30" s="374"/>
-      <c r="L30" s="374"/>
-      <c r="M30" s="374"/>
-      <c r="N30" s="374"/>
-      <c r="O30" s="374"/>
-      <c r="P30" s="374"/>
-      <c r="Q30" s="374"/>
-      <c r="R30" s="374"/>
-      <c r="S30" s="395"/>
+      <c r="B30" s="305"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="311"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="306"/>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
@@ -8324,25 +8314,23 @@
       <c r="AK30" s="1"/>
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="375"/>
-      <c r="B31" s="394"/>
-      <c r="C31" s="374"/>
-      <c r="D31" s="374"/>
-      <c r="E31" s="374"/>
-      <c r="F31" s="374"/>
-      <c r="G31" s="374"/>
-      <c r="H31" s="374"/>
-      <c r="I31" s="374"/>
-      <c r="J31" s="409"/>
-      <c r="K31" s="374"/>
-      <c r="L31" s="374"/>
-      <c r="M31" s="374"/>
-      <c r="N31" s="374"/>
-      <c r="O31" s="374"/>
-      <c r="P31" s="374"/>
-      <c r="Q31" s="374"/>
-      <c r="R31" s="374"/>
-      <c r="S31" s="395"/>
+      <c r="B31" s="305"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="311"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="306"/>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
@@ -8363,24 +8351,19 @@
       <c r="AK31" s="1"/>
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="394"/>
-      <c r="C32" s="375"/>
-      <c r="D32" s="375"/>
-      <c r="E32" s="375"/>
-      <c r="F32" s="375"/>
-      <c r="G32" s="374"/>
-      <c r="H32" s="374"/>
-      <c r="I32" s="374"/>
-      <c r="J32" s="409"/>
-      <c r="K32" s="374"/>
-      <c r="L32" s="374"/>
-      <c r="M32" s="374"/>
-      <c r="N32" s="374"/>
-      <c r="O32" s="374"/>
-      <c r="P32" s="374"/>
-      <c r="Q32" s="374"/>
-      <c r="R32" s="374"/>
-      <c r="S32" s="395"/>
+      <c r="B32" s="305"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="311"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="306"/>
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
@@ -8401,24 +8384,19 @@
       <c r="AK32" s="1"/>
     </row>
     <row r="33" spans="2:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="394"/>
-      <c r="C33" s="375"/>
-      <c r="D33" s="375"/>
-      <c r="E33" s="375"/>
-      <c r="F33" s="375"/>
-      <c r="G33" s="374"/>
-      <c r="H33" s="374"/>
-      <c r="I33" s="374"/>
-      <c r="J33" s="409"/>
-      <c r="K33" s="374"/>
-      <c r="L33" s="374"/>
-      <c r="M33" s="374"/>
-      <c r="N33" s="374"/>
-      <c r="O33" s="374"/>
-      <c r="P33" s="374"/>
-      <c r="Q33" s="374"/>
-      <c r="R33" s="374"/>
-      <c r="S33" s="395"/>
+      <c r="B33" s="305"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="311"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="306"/>
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
@@ -8439,24 +8417,19 @@
       <c r="AK33" s="1"/>
     </row>
     <row r="34" spans="2:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="394"/>
-      <c r="C34" s="375"/>
-      <c r="D34" s="375"/>
-      <c r="E34" s="375"/>
-      <c r="F34" s="375"/>
-      <c r="G34" s="374"/>
-      <c r="H34" s="374"/>
-      <c r="I34" s="374"/>
-      <c r="J34" s="409"/>
-      <c r="K34" s="374"/>
-      <c r="L34" s="374"/>
-      <c r="M34" s="374"/>
-      <c r="N34" s="374"/>
-      <c r="O34" s="374"/>
-      <c r="P34" s="374"/>
-      <c r="Q34" s="374"/>
-      <c r="R34" s="374"/>
-      <c r="S34" s="395"/>
+      <c r="B34" s="305"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="311"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="306"/>
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
@@ -8477,24 +8450,19 @@
       <c r="AK34" s="1"/>
     </row>
     <row r="35" spans="2:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="394"/>
-      <c r="C35" s="375"/>
-      <c r="D35" s="375"/>
-      <c r="E35" s="375"/>
-      <c r="F35" s="375"/>
-      <c r="G35" s="374"/>
-      <c r="H35" s="374"/>
-      <c r="I35" s="374"/>
-      <c r="J35" s="409"/>
-      <c r="K35" s="374"/>
-      <c r="L35" s="374"/>
-      <c r="M35" s="374"/>
-      <c r="N35" s="374"/>
-      <c r="O35" s="374"/>
-      <c r="P35" s="374"/>
-      <c r="Q35" s="374"/>
-      <c r="R35" s="374"/>
-      <c r="S35" s="395"/>
+      <c r="B35" s="305"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="311"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="306"/>
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
@@ -8515,24 +8483,19 @@
       <c r="AK35" s="1"/>
     </row>
     <row r="36" spans="2:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="394"/>
-      <c r="C36" s="375"/>
-      <c r="D36" s="375"/>
-      <c r="E36" s="375"/>
-      <c r="F36" s="375"/>
-      <c r="G36" s="374"/>
-      <c r="H36" s="374"/>
-      <c r="I36" s="374"/>
-      <c r="J36" s="409"/>
-      <c r="K36" s="374"/>
-      <c r="L36" s="374"/>
-      <c r="M36" s="374"/>
-      <c r="N36" s="374"/>
-      <c r="O36" s="374"/>
-      <c r="P36" s="374"/>
-      <c r="Q36" s="374"/>
-      <c r="R36" s="374"/>
-      <c r="S36" s="395"/>
+      <c r="B36" s="305"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="311"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="306"/>
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
@@ -8553,24 +8516,23 @@
       <c r="AK36" s="1"/>
     </row>
     <row r="37" spans="2:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" s="394"/>
-      <c r="C37" s="374"/>
-      <c r="D37" s="374"/>
-      <c r="E37" s="374"/>
-      <c r="F37" s="374"/>
-      <c r="G37" s="374"/>
-      <c r="H37" s="374"/>
-      <c r="I37" s="374"/>
-      <c r="J37" s="409"/>
-      <c r="K37" s="374"/>
-      <c r="L37" s="374"/>
-      <c r="M37" s="374"/>
-      <c r="N37" s="374"/>
-      <c r="O37" s="374"/>
-      <c r="P37" s="374"/>
-      <c r="Q37" s="374"/>
-      <c r="R37" s="374"/>
-      <c r="S37" s="395"/>
+      <c r="B37" s="305"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="311"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="306"/>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
@@ -8591,24 +8553,23 @@
       <c r="AK37" s="1"/>
     </row>
     <row r="38" spans="2:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="B38" s="394"/>
-      <c r="C38" s="374"/>
-      <c r="D38" s="374"/>
-      <c r="E38" s="374"/>
-      <c r="F38" s="374"/>
-      <c r="G38" s="374"/>
-      <c r="H38" s="374"/>
-      <c r="I38" s="374"/>
-      <c r="J38" s="409"/>
-      <c r="K38" s="374"/>
-      <c r="L38" s="374"/>
-      <c r="M38" s="374"/>
-      <c r="N38" s="374"/>
-      <c r="O38" s="374"/>
-      <c r="P38" s="374"/>
-      <c r="Q38" s="374"/>
-      <c r="R38" s="374"/>
-      <c r="S38" s="395"/>
+      <c r="B38" s="305"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="311"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="306"/>
       <c r="T38" s="1"/>
       <c r="U38" s="1"/>
       <c r="V38" s="1"/>
@@ -8629,24 +8590,23 @@
       <c r="AK38" s="1"/>
     </row>
     <row r="39" spans="2:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="B39" s="394"/>
-      <c r="C39" s="374"/>
-      <c r="D39" s="374"/>
-      <c r="E39" s="374"/>
-      <c r="F39" s="374"/>
-      <c r="G39" s="374"/>
-      <c r="H39" s="374"/>
-      <c r="I39" s="374"/>
-      <c r="J39" s="409"/>
-      <c r="K39" s="374"/>
-      <c r="L39" s="374"/>
-      <c r="M39" s="374"/>
-      <c r="N39" s="374"/>
-      <c r="O39" s="374"/>
-      <c r="P39" s="374"/>
-      <c r="Q39" s="374"/>
-      <c r="R39" s="374"/>
-      <c r="S39" s="395"/>
+      <c r="B39" s="305"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="311"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="306"/>
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
@@ -8667,24 +8627,23 @@
       <c r="AK39" s="1"/>
     </row>
     <row r="40" spans="2:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" s="394"/>
-      <c r="C40" s="374"/>
-      <c r="D40" s="374"/>
-      <c r="E40" s="374"/>
-      <c r="F40" s="374"/>
-      <c r="G40" s="374"/>
-      <c r="H40" s="374"/>
-      <c r="I40" s="374"/>
-      <c r="J40" s="409"/>
-      <c r="K40" s="374"/>
-      <c r="L40" s="374"/>
-      <c r="M40" s="374"/>
-      <c r="N40" s="374"/>
-      <c r="O40" s="374"/>
-      <c r="P40" s="374"/>
-      <c r="Q40" s="374"/>
-      <c r="R40" s="374"/>
-      <c r="S40" s="395"/>
+      <c r="B40" s="305"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="311"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="306"/>
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
@@ -8705,24 +8664,23 @@
       <c r="AK40" s="1"/>
     </row>
     <row r="41" spans="2:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="B41" s="394"/>
-      <c r="C41" s="374"/>
-      <c r="D41" s="374"/>
-      <c r="E41" s="374"/>
-      <c r="F41" s="374"/>
-      <c r="G41" s="374"/>
-      <c r="H41" s="374"/>
-      <c r="I41" s="374"/>
-      <c r="J41" s="409"/>
-      <c r="K41" s="374"/>
-      <c r="L41" s="374"/>
-      <c r="M41" s="374"/>
-      <c r="N41" s="374"/>
-      <c r="O41" s="374"/>
-      <c r="P41" s="374"/>
-      <c r="Q41" s="374"/>
-      <c r="R41" s="374"/>
-      <c r="S41" s="395"/>
+      <c r="B41" s="305"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="311"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="306"/>
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
       <c r="V41" s="1"/>
@@ -8743,24 +8701,23 @@
       <c r="AK41" s="1"/>
     </row>
     <row r="42" spans="2:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="B42" s="394"/>
-      <c r="C42" s="374"/>
-      <c r="D42" s="374"/>
-      <c r="E42" s="374"/>
-      <c r="F42" s="374"/>
-      <c r="G42" s="374"/>
-      <c r="H42" s="374"/>
-      <c r="I42" s="374"/>
-      <c r="J42" s="409"/>
-      <c r="K42" s="374"/>
-      <c r="L42" s="374"/>
-      <c r="M42" s="374"/>
-      <c r="N42" s="374"/>
-      <c r="O42" s="374"/>
-      <c r="P42" s="374"/>
-      <c r="Q42" s="374"/>
-      <c r="R42" s="374"/>
-      <c r="S42" s="395"/>
+      <c r="B42" s="305"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="311"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="306"/>
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
       <c r="V42" s="1"/>
@@ -8781,24 +8738,24 @@
       <c r="AK42" s="1"/>
     </row>
     <row r="43" spans="2:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="B43" s="396"/>
-      <c r="C43" s="373"/>
-      <c r="D43" s="373"/>
-      <c r="E43" s="373"/>
-      <c r="F43" s="373"/>
-      <c r="G43" s="373"/>
-      <c r="H43" s="373"/>
-      <c r="I43" s="373"/>
-      <c r="J43" s="410"/>
-      <c r="K43" s="373"/>
-      <c r="L43" s="373"/>
-      <c r="M43" s="373"/>
-      <c r="N43" s="373"/>
-      <c r="O43" s="373"/>
-      <c r="P43" s="373"/>
-      <c r="Q43" s="373"/>
-      <c r="R43" s="373"/>
-      <c r="S43" s="397"/>
+      <c r="B43" s="307"/>
+      <c r="C43" s="297"/>
+      <c r="D43" s="297"/>
+      <c r="E43" s="297"/>
+      <c r="F43" s="297"/>
+      <c r="G43" s="297"/>
+      <c r="H43" s="297"/>
+      <c r="I43" s="297"/>
+      <c r="J43" s="312"/>
+      <c r="K43" s="297"/>
+      <c r="L43" s="297"/>
+      <c r="M43" s="297"/>
+      <c r="N43" s="297"/>
+      <c r="O43" s="297"/>
+      <c r="P43" s="297"/>
+      <c r="Q43" s="297"/>
+      <c r="R43" s="297"/>
+      <c r="S43" s="308"/>
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
       <c r="V43" s="1"/>
@@ -9189,21 +9146,23 @@
       <c r="AK53" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="16">
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="B3:S5"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="Q8:R8"/>
     <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
     <mergeCell ref="N11:O11"/>
     <mergeCell ref="N12:O12"/>
     <mergeCell ref="Q12:R12"/>
     <mergeCell ref="Q11:R11"/>
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="K9:L9"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="B3:S5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9228,11 +9187,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="1.1000000000000001">
-      <c r="A1" s="294" t="s">
+      <c r="A1" s="334" t="s">
         <v>677</v>
       </c>
-      <c r="B1" s="294"/>
-      <c r="C1" s="294"/>
+      <c r="B1" s="334"/>
+      <c r="C1" s="334"/>
       <c r="D1" s="293"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -9243,13 +9202,13 @@
     </row>
     <row r="2" spans="1:10" ht="62.7" x14ac:dyDescent="2.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="296" t="s">
+      <c r="B2" s="336" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="296"/>
-      <c r="D2" s="296"/>
-      <c r="E2" s="296"/>
-      <c r="F2" s="296"/>
+      <c r="C2" s="336"/>
+      <c r="D2" s="336"/>
+      <c r="E2" s="336"/>
+      <c r="F2" s="336"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -9257,13 +9216,13 @@
     </row>
     <row r="3" spans="1:10" ht="36.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1"/>
-      <c r="B3" s="295" t="s">
+      <c r="B3" s="335" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="295"/>
-      <c r="D3" s="295"/>
-      <c r="E3" s="295"/>
-      <c r="F3" s="295"/>
+      <c r="C3" s="335"/>
+      <c r="D3" s="335"/>
+      <c r="E3" s="335"/>
+      <c r="F3" s="335"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -9271,11 +9230,11 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1"/>
-      <c r="B4" s="295"/>
-      <c r="C4" s="295"/>
-      <c r="D4" s="295"/>
-      <c r="E4" s="295"/>
-      <c r="F4" s="295"/>
+      <c r="B4" s="335"/>
+      <c r="C4" s="335"/>
+      <c r="D4" s="335"/>
+      <c r="E4" s="335"/>
+      <c r="F4" s="335"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -9439,13 +9398,13 @@
     </row>
     <row r="13" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1"/>
-      <c r="B13" s="295" t="s">
+      <c r="B13" s="335" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="295"/>
-      <c r="D13" s="295"/>
-      <c r="E13" s="295"/>
-      <c r="F13" s="295"/>
+      <c r="C13" s="335"/>
+      <c r="D13" s="335"/>
+      <c r="E13" s="335"/>
+      <c r="F13" s="335"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -9453,11 +9412,11 @@
     </row>
     <row r="14" spans="1:10" ht="36.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1"/>
-      <c r="B14" s="295"/>
-      <c r="C14" s="295"/>
-      <c r="D14" s="295"/>
-      <c r="E14" s="295"/>
-      <c r="F14" s="295"/>
+      <c r="B14" s="335"/>
+      <c r="C14" s="335"/>
+      <c r="D14" s="335"/>
+      <c r="E14" s="335"/>
+      <c r="F14" s="335"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -9611,13 +9570,13 @@
     </row>
     <row r="23" spans="1:10" ht="43.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1"/>
-      <c r="B23" s="295" t="s">
+      <c r="B23" s="335" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="295"/>
-      <c r="D23" s="295"/>
-      <c r="E23" s="295"/>
-      <c r="F23" s="295"/>
+      <c r="C23" s="335"/>
+      <c r="D23" s="335"/>
+      <c r="E23" s="335"/>
+      <c r="F23" s="335"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -9625,11 +9584,11 @@
     </row>
     <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1"/>
-      <c r="B24" s="295"/>
-      <c r="C24" s="295"/>
-      <c r="D24" s="295"/>
-      <c r="E24" s="295"/>
-      <c r="F24" s="295"/>
+      <c r="B24" s="335"/>
+      <c r="C24" s="335"/>
+      <c r="D24" s="335"/>
+      <c r="E24" s="335"/>
+      <c r="F24" s="335"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -9717,13 +9676,13 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1"/>
-      <c r="B30" s="295" t="s">
+      <c r="B30" s="335" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="295"/>
-      <c r="D30" s="295"/>
-      <c r="E30" s="295"/>
-      <c r="F30" s="295"/>
+      <c r="C30" s="335"/>
+      <c r="D30" s="335"/>
+      <c r="E30" s="335"/>
+      <c r="F30" s="335"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -9731,11 +9690,11 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1"/>
-      <c r="B31" s="295"/>
-      <c r="C31" s="295"/>
-      <c r="D31" s="295"/>
-      <c r="E31" s="295"/>
-      <c r="F31" s="295"/>
+      <c r="B31" s="335"/>
+      <c r="C31" s="335"/>
+      <c r="D31" s="335"/>
+      <c r="E31" s="335"/>
+      <c r="F31" s="335"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -9823,13 +9782,13 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1"/>
-      <c r="B37" s="295" t="s">
+      <c r="B37" s="335" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="295"/>
-      <c r="D37" s="295"/>
-      <c r="E37" s="295"/>
-      <c r="F37" s="295"/>
+      <c r="C37" s="335"/>
+      <c r="D37" s="335"/>
+      <c r="E37" s="335"/>
+      <c r="F37" s="335"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -9837,11 +9796,11 @@
     </row>
     <row r="38" spans="1:10" ht="41.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1"/>
-      <c r="B38" s="295"/>
-      <c r="C38" s="295"/>
-      <c r="D38" s="295"/>
-      <c r="E38" s="295"/>
-      <c r="F38" s="295"/>
+      <c r="B38" s="335"/>
+      <c r="C38" s="335"/>
+      <c r="D38" s="335"/>
+      <c r="E38" s="335"/>
+      <c r="F38" s="335"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -9972,7 +9931,7 @@
   <dimension ref="A1:BG146"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="11" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Q9" sqref="Q9:U136"/>
     </sheetView>
   </sheetViews>
@@ -10023,36 +9982,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="30.3" customHeight="1" x14ac:dyDescent="1.3">
-      <c r="A1" s="297" t="s">
+      <c r="A1" s="337" t="s">
         <v>677</v>
       </c>
-      <c r="B1" s="297"/>
-      <c r="C1" s="297"/>
-      <c r="D1" s="297"/>
-      <c r="E1" s="297"/>
-      <c r="F1" s="297"/>
+      <c r="B1" s="337"/>
+      <c r="C1" s="337"/>
+      <c r="D1" s="337"/>
+      <c r="E1" s="337"/>
+      <c r="F1" s="337"/>
     </row>
     <row r="2" spans="1:59" ht="16.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="304"/>
-      <c r="C2" s="304"/>
-      <c r="D2" s="304"/>
-      <c r="E2" s="304"/>
-      <c r="F2" s="304"/>
-      <c r="G2" s="304"/>
-      <c r="H2" s="304"/>
-      <c r="I2" s="304"/>
-      <c r="J2" s="304"/>
-      <c r="K2" s="304"/>
-      <c r="L2" s="304"/>
+      <c r="B2" s="344"/>
+      <c r="C2" s="344"/>
+      <c r="D2" s="344"/>
+      <c r="E2" s="344"/>
+      <c r="F2" s="344"/>
+      <c r="G2" s="344"/>
+      <c r="H2" s="344"/>
+      <c r="I2" s="344"/>
+      <c r="J2" s="344"/>
+      <c r="K2" s="344"/>
+      <c r="L2" s="344"/>
       <c r="M2" s="210"/>
       <c r="N2" s="213"/>
-      <c r="O2" s="305"/>
-      <c r="P2" s="305"/>
-      <c r="Q2" s="305"/>
-      <c r="R2" s="305"/>
-      <c r="S2" s="305"/>
-      <c r="T2" s="305"/>
-      <c r="U2" s="305"/>
+      <c r="O2" s="345"/>
+      <c r="P2" s="345"/>
+      <c r="Q2" s="345"/>
+      <c r="R2" s="345"/>
+      <c r="S2" s="345"/>
+      <c r="T2" s="345"/>
+      <c r="U2" s="345"/>
       <c r="AS2" s="1"/>
       <c r="AT2" s="1"/>
       <c r="AU2" s="1"/>
@@ -10070,53 +10029,53 @@
       <c r="BG2" s="1"/>
     </row>
     <row r="3" spans="1:59" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="306" t="s">
+      <c r="B3" s="346" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="306"/>
-      <c r="D3" s="306"/>
-      <c r="E3" s="306"/>
-      <c r="F3" s="306"/>
-      <c r="G3" s="306"/>
-      <c r="H3" s="306"/>
-      <c r="I3" s="306"/>
-      <c r="J3" s="306"/>
-      <c r="K3" s="306"/>
-      <c r="L3" s="306"/>
+      <c r="C3" s="346"/>
+      <c r="D3" s="346"/>
+      <c r="E3" s="346"/>
+      <c r="F3" s="346"/>
+      <c r="G3" s="346"/>
+      <c r="H3" s="346"/>
+      <c r="I3" s="346"/>
+      <c r="J3" s="346"/>
+      <c r="K3" s="346"/>
+      <c r="L3" s="346"/>
       <c r="M3" s="212"/>
       <c r="N3" s="212"/>
-      <c r="O3" s="307" t="s">
+      <c r="O3" s="347" t="s">
         <v>32</v>
       </c>
-      <c r="P3" s="307"/>
-      <c r="Q3" s="307"/>
-      <c r="R3" s="307"/>
-      <c r="S3" s="307"/>
-      <c r="T3" s="307"/>
-      <c r="U3" s="307"/>
-      <c r="X3" s="307" t="s">
+      <c r="P3" s="347"/>
+      <c r="Q3" s="347"/>
+      <c r="R3" s="347"/>
+      <c r="S3" s="347"/>
+      <c r="T3" s="347"/>
+      <c r="U3" s="347"/>
+      <c r="X3" s="347" t="s">
         <v>170</v>
       </c>
-      <c r="Y3" s="307"/>
-      <c r="Z3" s="307"/>
-      <c r="AA3" s="307"/>
-      <c r="AB3" s="307"/>
-      <c r="AC3" s="307"/>
-      <c r="AD3" s="307"/>
-      <c r="AE3" s="307"/>
-      <c r="AF3" s="307"/>
-      <c r="AG3" s="307"/>
-      <c r="AH3" s="307"/>
-      <c r="AI3" s="307"/>
-      <c r="AJ3" s="307"/>
-      <c r="AK3" s="307"/>
-      <c r="AL3" s="307"/>
-      <c r="AM3" s="307"/>
-      <c r="AN3" s="307"/>
-      <c r="AO3" s="307"/>
-      <c r="AP3" s="307"/>
-      <c r="AQ3" s="307"/>
-      <c r="AR3" s="307"/>
+      <c r="Y3" s="347"/>
+      <c r="Z3" s="347"/>
+      <c r="AA3" s="347"/>
+      <c r="AB3" s="347"/>
+      <c r="AC3" s="347"/>
+      <c r="AD3" s="347"/>
+      <c r="AE3" s="347"/>
+      <c r="AF3" s="347"/>
+      <c r="AG3" s="347"/>
+      <c r="AH3" s="347"/>
+      <c r="AI3" s="347"/>
+      <c r="AJ3" s="347"/>
+      <c r="AK3" s="347"/>
+      <c r="AL3" s="347"/>
+      <c r="AM3" s="347"/>
+      <c r="AN3" s="347"/>
+      <c r="AO3" s="347"/>
+      <c r="AP3" s="347"/>
+      <c r="AQ3" s="347"/>
+      <c r="AR3" s="347"/>
       <c r="AS3" s="1"/>
       <c r="AT3" s="1"/>
       <c r="AU3" s="1"/>
@@ -10197,7 +10156,7 @@
       <c r="S5" s="211"/>
       <c r="T5" s="211"/>
       <c r="U5" s="211"/>
-      <c r="X5" s="308" t="s">
+      <c r="X5" s="348" t="s">
         <v>528</v>
       </c>
       <c r="Y5" s="216"/>
@@ -10205,11 +10164,11 @@
       <c r="AA5" s="218" t="s">
         <v>529</v>
       </c>
-      <c r="AB5" s="310" t="s">
+      <c r="AB5" s="350" t="s">
         <v>530</v>
       </c>
-      <c r="AC5" s="310"/>
-      <c r="AD5" s="310"/>
+      <c r="AC5" s="350"/>
+      <c r="AD5" s="350"/>
       <c r="AE5" s="219"/>
       <c r="AF5" s="219"/>
       <c r="AG5" s="219"/>
@@ -10261,17 +10220,17 @@
       <c r="S6" s="214"/>
       <c r="T6" s="214"/>
       <c r="U6" s="214"/>
-      <c r="X6" s="309"/>
+      <c r="X6" s="349"/>
       <c r="Y6" s="220"/>
       <c r="Z6" s="221"/>
       <c r="AA6" s="218" t="s">
         <v>529</v>
       </c>
-      <c r="AB6" s="311" t="s">
+      <c r="AB6" s="351" t="s">
         <v>531</v>
       </c>
-      <c r="AC6" s="311"/>
-      <c r="AD6" s="311"/>
+      <c r="AC6" s="351"/>
+      <c r="AD6" s="351"/>
       <c r="AE6" s="219"/>
       <c r="AF6" s="219"/>
       <c r="AG6" s="219"/>
@@ -10365,33 +10324,33 @@
       <c r="S8" s="226"/>
       <c r="T8" s="225"/>
       <c r="U8" s="229"/>
-      <c r="X8" s="298" t="s">
+      <c r="X8" s="338" t="s">
         <v>171</v>
       </c>
-      <c r="Y8" s="298"/>
-      <c r="Z8" s="298"/>
-      <c r="AA8" s="298"/>
-      <c r="AB8" s="298"/>
-      <c r="AC8" s="298"/>
-      <c r="AD8" s="298"/>
-      <c r="AE8" s="298" t="s">
+      <c r="Y8" s="338"/>
+      <c r="Z8" s="338"/>
+      <c r="AA8" s="338"/>
+      <c r="AB8" s="338"/>
+      <c r="AC8" s="338"/>
+      <c r="AD8" s="338"/>
+      <c r="AE8" s="338" t="s">
         <v>172</v>
       </c>
-      <c r="AF8" s="298"/>
-      <c r="AG8" s="298"/>
-      <c r="AH8" s="298"/>
-      <c r="AI8" s="298"/>
-      <c r="AJ8" s="298"/>
-      <c r="AK8" s="299"/>
-      <c r="AL8" s="300" t="s">
+      <c r="AF8" s="338"/>
+      <c r="AG8" s="338"/>
+      <c r="AH8" s="338"/>
+      <c r="AI8" s="338"/>
+      <c r="AJ8" s="338"/>
+      <c r="AK8" s="339"/>
+      <c r="AL8" s="340" t="s">
         <v>173</v>
       </c>
-      <c r="AM8" s="300"/>
-      <c r="AN8" s="300"/>
-      <c r="AO8" s="300"/>
-      <c r="AP8" s="300"/>
-      <c r="AQ8" s="300"/>
-      <c r="AR8" s="300"/>
+      <c r="AM8" s="340"/>
+      <c r="AN8" s="340"/>
+      <c r="AO8" s="340"/>
+      <c r="AP8" s="340"/>
+      <c r="AQ8" s="340"/>
+      <c r="AR8" s="340"/>
       <c r="AS8" s="1"/>
       <c r="AT8" s="1"/>
       <c r="AU8" s="1"/>
@@ -10768,7 +10727,7 @@
       <c r="AN13" s="135"/>
       <c r="AO13" s="135"/>
       <c r="AP13" s="136"/>
-      <c r="AQ13" s="301" t="s">
+      <c r="AQ13" s="341" t="s">
         <v>192</v>
       </c>
       <c r="AR13" s="136"/>
@@ -10851,7 +10810,7 @@
       <c r="AN14" s="135"/>
       <c r="AO14" s="135"/>
       <c r="AP14" s="136"/>
-      <c r="AQ14" s="302"/>
+      <c r="AQ14" s="342"/>
       <c r="AR14" s="136"/>
       <c r="AS14" s="1"/>
       <c r="AT14" s="1"/>
@@ -10932,7 +10891,7 @@
       <c r="AN15" s="135"/>
       <c r="AO15" s="135"/>
       <c r="AP15" s="136"/>
-      <c r="AQ15" s="302"/>
+      <c r="AQ15" s="342"/>
       <c r="AR15" s="136"/>
       <c r="AS15" s="1"/>
       <c r="AT15" s="1"/>
@@ -11000,7 +10959,7 @@
       <c r="AN16" s="135"/>
       <c r="AO16" s="135"/>
       <c r="AP16" s="136"/>
-      <c r="AQ16" s="302"/>
+      <c r="AQ16" s="342"/>
       <c r="AR16" s="136"/>
       <c r="AS16" s="1"/>
       <c r="AT16" s="1"/>
@@ -11078,7 +11037,7 @@
       <c r="AN17" s="135"/>
       <c r="AO17" s="135"/>
       <c r="AP17" s="136"/>
-      <c r="AQ17" s="302"/>
+      <c r="AQ17" s="342"/>
       <c r="AR17" s="136"/>
       <c r="AS17" s="1"/>
       <c r="AT17" s="1"/>
@@ -11155,7 +11114,7 @@
       <c r="AN18" s="135"/>
       <c r="AO18" s="135"/>
       <c r="AP18" s="136"/>
-      <c r="AQ18" s="302"/>
+      <c r="AQ18" s="342"/>
       <c r="AR18" s="136"/>
       <c r="AS18" s="1"/>
       <c r="AT18" s="1"/>
@@ -11235,7 +11194,7 @@
       <c r="AN19" s="135"/>
       <c r="AO19" s="135"/>
       <c r="AP19" s="136"/>
-      <c r="AQ19" s="302"/>
+      <c r="AQ19" s="342"/>
       <c r="AR19" s="136"/>
       <c r="AS19" s="1"/>
       <c r="AT19" s="1"/>
@@ -11313,7 +11272,7 @@
       <c r="AN20" s="234"/>
       <c r="AO20" s="234"/>
       <c r="AP20" s="236"/>
-      <c r="AQ20" s="302"/>
+      <c r="AQ20" s="342"/>
       <c r="AR20" s="136"/>
       <c r="AS20" s="1"/>
       <c r="AT20" s="1"/>
@@ -11391,7 +11350,7 @@
       <c r="AN21" s="135"/>
       <c r="AO21" s="135"/>
       <c r="AP21" s="136"/>
-      <c r="AQ21" s="302"/>
+      <c r="AQ21" s="342"/>
       <c r="AR21" s="136"/>
       <c r="AS21" s="1"/>
       <c r="AT21" s="1"/>
@@ -11469,7 +11428,7 @@
       <c r="AN22" s="135"/>
       <c r="AO22" s="135"/>
       <c r="AP22" s="136"/>
-      <c r="AQ22" s="302"/>
+      <c r="AQ22" s="342"/>
       <c r="AR22" s="136"/>
       <c r="AS22" s="1"/>
       <c r="AT22" s="1"/>
@@ -11547,7 +11506,7 @@
       <c r="AN23" s="135"/>
       <c r="AO23" s="135"/>
       <c r="AP23" s="136"/>
-      <c r="AQ23" s="302"/>
+      <c r="AQ23" s="342"/>
       <c r="AR23" s="136"/>
       <c r="AS23" s="1"/>
       <c r="AT23" s="1"/>
@@ -11625,7 +11584,7 @@
       <c r="AN24" s="135"/>
       <c r="AO24" s="135"/>
       <c r="AP24" s="136"/>
-      <c r="AQ24" s="302"/>
+      <c r="AQ24" s="342"/>
       <c r="AR24" s="136"/>
       <c r="AS24" s="1"/>
       <c r="AT24" s="1"/>
@@ -11693,7 +11652,7 @@
       <c r="AN25" s="135"/>
       <c r="AO25" s="135"/>
       <c r="AP25" s="136"/>
-      <c r="AQ25" s="302"/>
+      <c r="AQ25" s="342"/>
       <c r="AR25" s="136"/>
       <c r="AS25" s="1"/>
       <c r="AT25" s="1"/>
@@ -11770,7 +11729,7 @@
       <c r="AN26" s="145"/>
       <c r="AO26" s="145"/>
       <c r="AP26" s="148"/>
-      <c r="AQ26" s="302"/>
+      <c r="AQ26" s="342"/>
       <c r="AR26" s="136"/>
       <c r="AS26" s="1"/>
       <c r="AT26" s="1"/>
@@ -11847,7 +11806,7 @@
       <c r="AN27" s="145"/>
       <c r="AO27" s="145"/>
       <c r="AP27" s="148"/>
-      <c r="AQ27" s="302"/>
+      <c r="AQ27" s="342"/>
       <c r="AR27" s="136"/>
       <c r="AS27" s="1"/>
       <c r="AT27" s="1"/>
@@ -11924,7 +11883,7 @@
       <c r="AN28" s="145"/>
       <c r="AO28" s="145"/>
       <c r="AP28" s="148"/>
-      <c r="AQ28" s="302"/>
+      <c r="AQ28" s="342"/>
       <c r="AR28" s="136"/>
       <c r="AS28" s="1"/>
       <c r="AT28" s="1"/>
@@ -12001,7 +11960,7 @@
       <c r="AN29" s="145"/>
       <c r="AO29" s="145"/>
       <c r="AP29" s="148"/>
-      <c r="AQ29" s="302"/>
+      <c r="AQ29" s="342"/>
       <c r="AR29" s="136"/>
       <c r="AS29" s="1"/>
       <c r="AT29" s="1"/>
@@ -12069,7 +12028,7 @@
       <c r="AN30" s="135"/>
       <c r="AO30" s="135"/>
       <c r="AP30" s="136"/>
-      <c r="AQ30" s="302"/>
+      <c r="AQ30" s="342"/>
       <c r="AR30" s="136"/>
       <c r="AS30" s="1"/>
       <c r="AT30" s="1"/>
@@ -12146,7 +12105,7 @@
       <c r="AN31" s="135"/>
       <c r="AO31" s="234"/>
       <c r="AP31" s="236"/>
-      <c r="AQ31" s="302"/>
+      <c r="AQ31" s="342"/>
       <c r="AR31" s="136"/>
       <c r="AS31" s="1"/>
       <c r="AT31" s="1"/>
@@ -12223,7 +12182,7 @@
       <c r="AN32" s="145"/>
       <c r="AO32" s="145"/>
       <c r="AP32" s="148"/>
-      <c r="AQ32" s="302"/>
+      <c r="AQ32" s="342"/>
       <c r="AR32" s="136"/>
       <c r="AS32" s="1"/>
       <c r="AT32" s="1"/>
@@ -12300,7 +12259,7 @@
       <c r="AN33" s="135"/>
       <c r="AO33" s="234"/>
       <c r="AP33" s="236"/>
-      <c r="AQ33" s="302"/>
+      <c r="AQ33" s="342"/>
       <c r="AR33" s="136"/>
       <c r="AS33" s="1"/>
       <c r="AT33" s="1"/>
@@ -12371,7 +12330,7 @@
       <c r="AN34" s="159"/>
       <c r="AO34" s="159"/>
       <c r="AP34" s="160"/>
-      <c r="AQ34" s="302"/>
+      <c r="AQ34" s="342"/>
       <c r="AR34" s="161"/>
       <c r="AS34" s="158"/>
       <c r="AT34" s="158"/>
@@ -12439,7 +12398,7 @@
       <c r="AN35" s="135"/>
       <c r="AO35" s="135"/>
       <c r="AP35" s="136"/>
-      <c r="AQ35" s="302"/>
+      <c r="AQ35" s="342"/>
       <c r="AR35" s="136"/>
       <c r="AS35" s="1"/>
       <c r="AT35" s="1"/>
@@ -12516,7 +12475,7 @@
       <c r="AN36" s="135"/>
       <c r="AO36" s="135"/>
       <c r="AP36" s="136"/>
-      <c r="AQ36" s="302"/>
+      <c r="AQ36" s="342"/>
       <c r="AR36" s="136"/>
       <c r="AS36" s="1"/>
       <c r="AT36" s="1"/>
@@ -12593,7 +12552,7 @@
       <c r="AN37" s="135"/>
       <c r="AO37" s="135"/>
       <c r="AP37" s="136"/>
-      <c r="AQ37" s="302"/>
+      <c r="AQ37" s="342"/>
       <c r="AR37" s="136"/>
       <c r="AS37" s="1"/>
       <c r="AT37" s="1"/>
@@ -12670,7 +12629,7 @@
       <c r="AN38" s="135"/>
       <c r="AO38" s="135"/>
       <c r="AP38" s="136"/>
-      <c r="AQ38" s="302"/>
+      <c r="AQ38" s="342"/>
       <c r="AR38" s="136"/>
       <c r="AS38" s="1"/>
       <c r="AT38" s="1"/>
@@ -12738,7 +12697,7 @@
       <c r="AN39" s="135"/>
       <c r="AO39" s="135"/>
       <c r="AP39" s="136"/>
-      <c r="AQ39" s="302"/>
+      <c r="AQ39" s="342"/>
       <c r="AR39" s="136"/>
       <c r="AS39" s="1"/>
       <c r="AT39" s="1"/>
@@ -12815,7 +12774,7 @@
       <c r="AN40" s="135"/>
       <c r="AO40" s="135"/>
       <c r="AP40" s="136"/>
-      <c r="AQ40" s="302"/>
+      <c r="AQ40" s="342"/>
       <c r="AR40" s="136"/>
       <c r="AS40" s="1"/>
       <c r="AT40" s="1"/>
@@ -12892,7 +12851,7 @@
       <c r="AN41" s="135"/>
       <c r="AO41" s="135"/>
       <c r="AP41" s="136"/>
-      <c r="AQ41" s="302"/>
+      <c r="AQ41" s="342"/>
       <c r="AR41" s="136"/>
       <c r="AS41" s="1"/>
       <c r="AT41" s="1"/>
@@ -12969,7 +12928,7 @@
       <c r="AN42" s="135"/>
       <c r="AO42" s="135"/>
       <c r="AP42" s="136"/>
-      <c r="AQ42" s="302"/>
+      <c r="AQ42" s="342"/>
       <c r="AR42" s="136"/>
       <c r="AS42" s="1"/>
       <c r="AT42" s="1"/>
@@ -13046,7 +13005,7 @@
       <c r="AN43" s="135"/>
       <c r="AO43" s="135"/>
       <c r="AP43" s="136"/>
-      <c r="AQ43" s="302"/>
+      <c r="AQ43" s="342"/>
       <c r="AR43" s="136"/>
       <c r="AS43" s="1"/>
       <c r="AT43" s="1"/>
@@ -13123,7 +13082,7 @@
       <c r="AN44" s="135"/>
       <c r="AO44" s="135"/>
       <c r="AP44" s="136"/>
-      <c r="AQ44" s="302"/>
+      <c r="AQ44" s="342"/>
       <c r="AR44" s="136"/>
       <c r="AS44" s="1"/>
       <c r="AT44" s="1"/>
@@ -13200,7 +13159,7 @@
       <c r="AN45" s="135"/>
       <c r="AO45" s="135"/>
       <c r="AP45" s="136"/>
-      <c r="AQ45" s="302"/>
+      <c r="AQ45" s="342"/>
       <c r="AR45" s="136"/>
       <c r="AS45" s="1"/>
       <c r="AT45" s="1"/>
@@ -13277,7 +13236,7 @@
       <c r="AN46" s="135"/>
       <c r="AO46" s="135"/>
       <c r="AP46" s="136"/>
-      <c r="AQ46" s="302"/>
+      <c r="AQ46" s="342"/>
       <c r="AR46" s="136"/>
       <c r="AS46" s="1"/>
       <c r="AT46" s="1"/>
@@ -13345,7 +13304,7 @@
       <c r="AN47" s="135"/>
       <c r="AO47" s="135"/>
       <c r="AP47" s="136"/>
-      <c r="AQ47" s="302"/>
+      <c r="AQ47" s="342"/>
       <c r="AR47" s="136"/>
       <c r="AS47" s="1"/>
       <c r="AT47" s="1"/>
@@ -13422,7 +13381,7 @@
       <c r="AN48" s="135"/>
       <c r="AO48" s="135"/>
       <c r="AP48" s="136"/>
-      <c r="AQ48" s="302"/>
+      <c r="AQ48" s="342"/>
       <c r="AR48" s="136"/>
       <c r="AS48" s="1"/>
       <c r="AT48" s="1"/>
@@ -13499,7 +13458,7 @@
       <c r="AN49" s="135"/>
       <c r="AO49" s="135"/>
       <c r="AP49" s="136"/>
-      <c r="AQ49" s="302"/>
+      <c r="AQ49" s="342"/>
       <c r="AR49" s="136"/>
       <c r="AS49" s="1"/>
       <c r="AT49" s="1"/>
@@ -13564,7 +13523,7 @@
       <c r="AN50" s="135"/>
       <c r="AO50" s="135"/>
       <c r="AP50" s="136"/>
-      <c r="AQ50" s="302"/>
+      <c r="AQ50" s="342"/>
       <c r="AR50" s="136"/>
       <c r="AS50" s="1"/>
       <c r="AT50" s="1"/>
@@ -13641,7 +13600,7 @@
       <c r="AN51" s="135"/>
       <c r="AO51" s="135"/>
       <c r="AP51" s="136"/>
-      <c r="AQ51" s="302"/>
+      <c r="AQ51" s="342"/>
       <c r="AR51" s="136"/>
       <c r="AS51" s="1"/>
       <c r="AT51" s="1"/>
@@ -13718,7 +13677,7 @@
       <c r="AN52" s="135"/>
       <c r="AO52" s="135"/>
       <c r="AP52" s="136"/>
-      <c r="AQ52" s="302"/>
+      <c r="AQ52" s="342"/>
       <c r="AR52" s="136"/>
       <c r="AS52" s="1"/>
       <c r="AT52" s="1"/>
@@ -13795,7 +13754,7 @@
       <c r="AN53" s="135"/>
       <c r="AO53" s="135"/>
       <c r="AP53" s="136"/>
-      <c r="AQ53" s="302"/>
+      <c r="AQ53" s="342"/>
       <c r="AR53" s="136"/>
       <c r="AS53" s="1"/>
       <c r="AT53" s="1"/>
@@ -13866,7 +13825,7 @@
       <c r="AN54" s="159"/>
       <c r="AO54" s="159"/>
       <c r="AP54" s="160"/>
-      <c r="AQ54" s="302"/>
+      <c r="AQ54" s="342"/>
       <c r="AR54" s="161"/>
       <c r="AS54" s="158"/>
       <c r="AT54" s="158"/>
@@ -13934,7 +13893,7 @@
       <c r="AN55" s="135"/>
       <c r="AO55" s="135"/>
       <c r="AP55" s="136"/>
-      <c r="AQ55" s="302"/>
+      <c r="AQ55" s="342"/>
       <c r="AR55" s="136"/>
       <c r="AS55" s="1"/>
       <c r="AT55" s="1"/>
@@ -14011,7 +13970,7 @@
       <c r="AN56" s="135"/>
       <c r="AO56" s="135"/>
       <c r="AP56" s="136"/>
-      <c r="AQ56" s="302"/>
+      <c r="AQ56" s="342"/>
       <c r="AR56" s="136"/>
       <c r="AS56" s="1"/>
       <c r="AT56" s="1"/>
@@ -14088,7 +14047,7 @@
       <c r="AN57" s="135"/>
       <c r="AO57" s="135"/>
       <c r="AP57" s="136"/>
-      <c r="AQ57" s="302"/>
+      <c r="AQ57" s="342"/>
       <c r="AR57" s="136"/>
       <c r="AS57" s="1"/>
       <c r="AT57" s="1"/>
@@ -14165,7 +14124,7 @@
       <c r="AN58" s="135"/>
       <c r="AO58" s="135"/>
       <c r="AP58" s="136"/>
-      <c r="AQ58" s="302"/>
+      <c r="AQ58" s="342"/>
       <c r="AR58" s="136"/>
       <c r="AS58" s="1"/>
       <c r="AT58" s="1"/>
@@ -14242,7 +14201,7 @@
       <c r="AN59" s="135"/>
       <c r="AO59" s="135"/>
       <c r="AP59" s="136"/>
-      <c r="AQ59" s="302"/>
+      <c r="AQ59" s="342"/>
       <c r="AR59" s="136"/>
       <c r="AS59" s="1"/>
       <c r="AT59" s="1"/>
@@ -14310,7 +14269,7 @@
       <c r="AN60" s="135"/>
       <c r="AO60" s="135"/>
       <c r="AP60" s="136"/>
-      <c r="AQ60" s="302"/>
+      <c r="AQ60" s="342"/>
       <c r="AR60" s="136"/>
       <c r="AS60" s="1"/>
       <c r="AT60" s="1"/>
@@ -14387,7 +14346,7 @@
       <c r="AN61" s="135"/>
       <c r="AO61" s="135"/>
       <c r="AP61" s="136"/>
-      <c r="AQ61" s="302"/>
+      <c r="AQ61" s="342"/>
       <c r="AR61" s="136"/>
       <c r="AS61" s="1"/>
       <c r="AT61" s="1"/>
@@ -14464,7 +14423,7 @@
       <c r="AN62" s="135"/>
       <c r="AO62" s="135"/>
       <c r="AP62" s="136"/>
-      <c r="AQ62" s="302"/>
+      <c r="AQ62" s="342"/>
       <c r="AR62" s="136"/>
       <c r="AS62" s="1"/>
       <c r="AT62" s="1"/>
@@ -14541,7 +14500,7 @@
       <c r="AN63" s="135"/>
       <c r="AO63" s="135"/>
       <c r="AP63" s="136"/>
-      <c r="AQ63" s="302"/>
+      <c r="AQ63" s="342"/>
       <c r="AR63" s="136"/>
       <c r="AS63" s="1"/>
       <c r="AT63" s="1"/>
@@ -14618,7 +14577,7 @@
       <c r="AN64" s="135"/>
       <c r="AO64" s="135"/>
       <c r="AP64" s="136"/>
-      <c r="AQ64" s="302"/>
+      <c r="AQ64" s="342"/>
       <c r="AR64" s="136"/>
       <c r="AS64" s="1"/>
       <c r="AT64" s="1"/>
@@ -14686,7 +14645,7 @@
       <c r="AN65" s="135"/>
       <c r="AO65" s="135"/>
       <c r="AP65" s="136"/>
-      <c r="AQ65" s="302"/>
+      <c r="AQ65" s="342"/>
       <c r="AR65" s="136"/>
       <c r="AS65" s="1"/>
       <c r="AT65" s="1"/>
@@ -14763,7 +14722,7 @@
       <c r="AN66" s="135"/>
       <c r="AO66" s="135"/>
       <c r="AP66" s="136"/>
-      <c r="AQ66" s="302"/>
+      <c r="AQ66" s="342"/>
       <c r="AR66" s="136"/>
       <c r="AS66" s="1"/>
       <c r="AT66" s="1"/>
@@ -14840,7 +14799,7 @@
       <c r="AN67" s="135"/>
       <c r="AO67" s="135"/>
       <c r="AP67" s="136"/>
-      <c r="AQ67" s="302"/>
+      <c r="AQ67" s="342"/>
       <c r="AR67" s="136"/>
       <c r="AS67" s="1"/>
       <c r="AT67" s="1"/>
@@ -14917,7 +14876,7 @@
       <c r="AN68" s="135"/>
       <c r="AO68" s="135"/>
       <c r="AP68" s="136"/>
-      <c r="AQ68" s="302"/>
+      <c r="AQ68" s="342"/>
       <c r="AR68" s="136"/>
       <c r="AS68" s="1"/>
       <c r="AT68" s="1"/>
@@ -14994,7 +14953,7 @@
       <c r="AN69" s="135"/>
       <c r="AO69" s="135"/>
       <c r="AP69" s="136"/>
-      <c r="AQ69" s="302"/>
+      <c r="AQ69" s="342"/>
       <c r="AR69" s="136"/>
       <c r="AS69" s="1"/>
       <c r="AT69" s="1"/>
@@ -15071,7 +15030,7 @@
       <c r="AN70" s="135"/>
       <c r="AO70" s="135"/>
       <c r="AP70" s="136"/>
-      <c r="AQ70" s="302"/>
+      <c r="AQ70" s="342"/>
       <c r="AR70" s="136"/>
       <c r="AS70" s="1"/>
       <c r="AT70" s="1"/>
@@ -15148,7 +15107,7 @@
       <c r="AN71" s="135"/>
       <c r="AO71" s="135"/>
       <c r="AP71" s="136"/>
-      <c r="AQ71" s="302"/>
+      <c r="AQ71" s="342"/>
       <c r="AR71" s="136"/>
       <c r="AS71" s="1"/>
       <c r="AT71" s="1"/>
@@ -15216,7 +15175,7 @@
       <c r="AN72" s="135"/>
       <c r="AO72" s="135"/>
       <c r="AP72" s="136"/>
-      <c r="AQ72" s="302"/>
+      <c r="AQ72" s="342"/>
       <c r="AR72" s="136"/>
       <c r="AS72" s="1"/>
       <c r="AT72" s="1"/>
@@ -15293,7 +15252,7 @@
       <c r="AN73" s="135"/>
       <c r="AO73" s="135"/>
       <c r="AP73" s="136"/>
-      <c r="AQ73" s="302"/>
+      <c r="AQ73" s="342"/>
       <c r="AR73" s="136"/>
       <c r="AS73" s="1"/>
       <c r="AT73" s="1"/>
@@ -15370,7 +15329,7 @@
       <c r="AN74" s="135"/>
       <c r="AO74" s="135"/>
       <c r="AP74" s="136"/>
-      <c r="AQ74" s="302"/>
+      <c r="AQ74" s="342"/>
       <c r="AR74" s="136"/>
       <c r="AS74" s="1"/>
       <c r="AT74" s="1"/>
@@ -15447,7 +15406,7 @@
       <c r="AN75" s="135"/>
       <c r="AO75" s="135"/>
       <c r="AP75" s="136"/>
-      <c r="AQ75" s="302"/>
+      <c r="AQ75" s="342"/>
       <c r="AR75" s="136"/>
       <c r="AS75" s="1"/>
       <c r="AT75" s="1"/>
@@ -15524,7 +15483,7 @@
       <c r="AN76" s="135"/>
       <c r="AO76" s="135"/>
       <c r="AP76" s="136"/>
-      <c r="AQ76" s="302"/>
+      <c r="AQ76" s="342"/>
       <c r="AR76" s="136"/>
       <c r="AS76" s="1"/>
       <c r="AT76" s="1"/>
@@ -15601,7 +15560,7 @@
       <c r="AN77" s="135"/>
       <c r="AO77" s="135"/>
       <c r="AP77" s="136"/>
-      <c r="AQ77" s="302"/>
+      <c r="AQ77" s="342"/>
       <c r="AR77" s="136"/>
       <c r="AS77" s="1"/>
       <c r="AT77" s="1"/>
@@ -15669,7 +15628,7 @@
       <c r="AN78" s="135"/>
       <c r="AO78" s="135"/>
       <c r="AP78" s="136"/>
-      <c r="AQ78" s="302"/>
+      <c r="AQ78" s="342"/>
       <c r="AR78" s="136"/>
       <c r="AS78" s="1"/>
       <c r="AT78" s="1"/>
@@ -15746,7 +15705,7 @@
       <c r="AN79" s="135"/>
       <c r="AO79" s="135"/>
       <c r="AP79" s="136"/>
-      <c r="AQ79" s="302"/>
+      <c r="AQ79" s="342"/>
       <c r="AR79" s="136"/>
       <c r="AS79" s="1"/>
       <c r="AT79" s="1"/>
@@ -15823,7 +15782,7 @@
       <c r="AN80" s="135"/>
       <c r="AO80" s="135"/>
       <c r="AP80" s="136"/>
-      <c r="AQ80" s="302"/>
+      <c r="AQ80" s="342"/>
       <c r="AR80" s="136"/>
       <c r="AS80" s="1"/>
       <c r="AT80" s="1"/>
@@ -15900,7 +15859,7 @@
       <c r="AN81" s="135"/>
       <c r="AO81" s="135"/>
       <c r="AP81" s="136"/>
-      <c r="AQ81" s="302"/>
+      <c r="AQ81" s="342"/>
       <c r="AR81" s="136"/>
       <c r="AS81" s="1"/>
       <c r="AT81" s="1"/>
@@ -15977,7 +15936,7 @@
       <c r="AN82" s="135"/>
       <c r="AO82" s="135"/>
       <c r="AP82" s="136"/>
-      <c r="AQ82" s="302"/>
+      <c r="AQ82" s="342"/>
       <c r="AR82" s="136"/>
       <c r="AS82" s="1"/>
       <c r="AT82" s="1"/>
@@ -16054,7 +16013,7 @@
       <c r="AN83" s="135"/>
       <c r="AO83" s="135"/>
       <c r="AP83" s="136"/>
-      <c r="AQ83" s="302"/>
+      <c r="AQ83" s="342"/>
       <c r="AR83" s="136"/>
       <c r="AS83" s="1"/>
       <c r="AT83" s="1"/>
@@ -16122,7 +16081,7 @@
       <c r="AN84" s="135"/>
       <c r="AO84" s="135"/>
       <c r="AP84" s="136"/>
-      <c r="AQ84" s="302"/>
+      <c r="AQ84" s="342"/>
       <c r="AR84" s="136"/>
       <c r="AS84" s="1"/>
       <c r="AT84" s="1"/>
@@ -16199,7 +16158,7 @@
       <c r="AN85" s="135"/>
       <c r="AO85" s="135"/>
       <c r="AP85" s="136"/>
-      <c r="AQ85" s="302"/>
+      <c r="AQ85" s="342"/>
       <c r="AR85" s="136"/>
       <c r="AS85" s="1"/>
       <c r="AT85" s="1"/>
@@ -16276,7 +16235,7 @@
       <c r="AN86" s="135"/>
       <c r="AO86" s="135"/>
       <c r="AP86" s="136"/>
-      <c r="AQ86" s="302"/>
+      <c r="AQ86" s="342"/>
       <c r="AR86" s="136"/>
       <c r="AS86" s="1"/>
       <c r="AT86" s="1"/>
@@ -16353,7 +16312,7 @@
       <c r="AN87" s="135"/>
       <c r="AO87" s="135"/>
       <c r="AP87" s="136"/>
-      <c r="AQ87" s="302"/>
+      <c r="AQ87" s="342"/>
       <c r="AR87" s="136"/>
       <c r="AS87" s="1"/>
       <c r="AT87" s="1"/>
@@ -16430,7 +16389,7 @@
       <c r="AN88" s="135"/>
       <c r="AO88" s="135"/>
       <c r="AP88" s="136"/>
-      <c r="AQ88" s="302"/>
+      <c r="AQ88" s="342"/>
       <c r="AR88" s="136"/>
       <c r="AS88" s="1"/>
       <c r="AT88" s="1"/>
@@ -16507,7 +16466,7 @@
       <c r="AN89" s="135"/>
       <c r="AO89" s="135"/>
       <c r="AP89" s="136"/>
-      <c r="AQ89" s="302"/>
+      <c r="AQ89" s="342"/>
       <c r="AR89" s="136"/>
       <c r="AS89" s="1"/>
       <c r="AT89" s="1"/>
@@ -16584,7 +16543,7 @@
       <c r="AN90" s="135"/>
       <c r="AO90" s="135"/>
       <c r="AP90" s="136"/>
-      <c r="AQ90" s="302"/>
+      <c r="AQ90" s="342"/>
       <c r="AR90" s="136"/>
       <c r="AS90" s="1"/>
       <c r="AT90" s="1"/>
@@ -16655,7 +16614,7 @@
       <c r="AN91" s="159"/>
       <c r="AO91" s="159"/>
       <c r="AP91" s="160"/>
-      <c r="AQ91" s="302"/>
+      <c r="AQ91" s="342"/>
       <c r="AR91" s="161"/>
       <c r="AS91" s="158"/>
       <c r="AT91" s="158"/>
@@ -16723,7 +16682,7 @@
       <c r="AN92" s="135"/>
       <c r="AO92" s="135"/>
       <c r="AP92" s="136"/>
-      <c r="AQ92" s="302"/>
+      <c r="AQ92" s="342"/>
       <c r="AR92" s="136"/>
       <c r="AS92" s="1"/>
       <c r="AT92" s="1"/>
@@ -16800,7 +16759,7 @@
       <c r="AN93" s="135"/>
       <c r="AO93" s="135"/>
       <c r="AP93" s="136"/>
-      <c r="AQ93" s="302"/>
+      <c r="AQ93" s="342"/>
       <c r="AR93" s="136"/>
       <c r="AS93" s="1"/>
       <c r="AT93" s="1"/>
@@ -16877,7 +16836,7 @@
       <c r="AN94" s="135"/>
       <c r="AO94" s="135"/>
       <c r="AP94" s="136"/>
-      <c r="AQ94" s="302"/>
+      <c r="AQ94" s="342"/>
       <c r="AR94" s="136"/>
       <c r="AS94" s="1"/>
       <c r="AT94" s="1"/>
@@ -16954,7 +16913,7 @@
       <c r="AN95" s="135"/>
       <c r="AO95" s="135"/>
       <c r="AP95" s="136"/>
-      <c r="AQ95" s="302"/>
+      <c r="AQ95" s="342"/>
       <c r="AR95" s="136"/>
       <c r="AS95" s="1"/>
       <c r="AT95" s="1"/>
@@ -17031,7 +16990,7 @@
       <c r="AN96" s="135"/>
       <c r="AO96" s="135"/>
       <c r="AP96" s="136"/>
-      <c r="AQ96" s="302"/>
+      <c r="AQ96" s="342"/>
       <c r="AR96" s="136"/>
       <c r="AS96" s="1"/>
       <c r="AT96" s="1"/>
@@ -17108,7 +17067,7 @@
       <c r="AN97" s="135"/>
       <c r="AO97" s="135"/>
       <c r="AP97" s="136"/>
-      <c r="AQ97" s="302"/>
+      <c r="AQ97" s="342"/>
       <c r="AR97" s="136"/>
       <c r="AS97" s="1"/>
       <c r="AT97" s="1"/>
@@ -17185,7 +17144,7 @@
       <c r="AN98" s="135"/>
       <c r="AO98" s="135"/>
       <c r="AP98" s="136"/>
-      <c r="AQ98" s="302"/>
+      <c r="AQ98" s="342"/>
       <c r="AR98" s="136"/>
       <c r="AS98" s="1"/>
       <c r="AT98" s="1"/>
@@ -17262,7 +17221,7 @@
       <c r="AN99" s="135"/>
       <c r="AO99" s="135"/>
       <c r="AP99" s="136"/>
-      <c r="AQ99" s="302"/>
+      <c r="AQ99" s="342"/>
       <c r="AR99" s="136"/>
       <c r="AS99" s="1"/>
       <c r="AT99" s="1"/>
@@ -17330,7 +17289,7 @@
       <c r="AN100" s="135"/>
       <c r="AO100" s="135"/>
       <c r="AP100" s="136"/>
-      <c r="AQ100" s="302"/>
+      <c r="AQ100" s="342"/>
       <c r="AR100" s="136"/>
       <c r="AS100" s="1"/>
       <c r="AT100" s="1"/>
@@ -17407,7 +17366,7 @@
       <c r="AN101" s="135"/>
       <c r="AO101" s="135"/>
       <c r="AP101" s="136"/>
-      <c r="AQ101" s="302"/>
+      <c r="AQ101" s="342"/>
       <c r="AR101" s="136"/>
       <c r="AS101" s="1"/>
       <c r="AT101" s="1"/>
@@ -17484,7 +17443,7 @@
       <c r="AN102" s="135"/>
       <c r="AO102" s="135"/>
       <c r="AP102" s="136"/>
-      <c r="AQ102" s="302"/>
+      <c r="AQ102" s="342"/>
       <c r="AR102" s="136"/>
       <c r="AS102" s="1"/>
       <c r="AT102" s="1"/>
@@ -17561,7 +17520,7 @@
       <c r="AN103" s="135"/>
       <c r="AO103" s="135"/>
       <c r="AP103" s="136"/>
-      <c r="AQ103" s="302"/>
+      <c r="AQ103" s="342"/>
       <c r="AR103" s="136"/>
       <c r="AS103" s="1"/>
       <c r="AT103" s="1"/>
@@ -17631,7 +17590,7 @@
       <c r="AN104" s="135"/>
       <c r="AO104" s="135"/>
       <c r="AP104" s="136"/>
-      <c r="AQ104" s="302"/>
+      <c r="AQ104" s="342"/>
       <c r="AR104" s="136"/>
       <c r="AS104" s="1"/>
       <c r="AT104" s="1"/>
@@ -17708,7 +17667,7 @@
       <c r="AN105" s="145"/>
       <c r="AO105" s="135"/>
       <c r="AP105" s="136"/>
-      <c r="AQ105" s="302"/>
+      <c r="AQ105" s="342"/>
       <c r="AR105" s="136"/>
       <c r="AS105" s="1"/>
       <c r="AT105" s="1"/>
@@ -17785,7 +17744,7 @@
       <c r="AN106" s="145"/>
       <c r="AO106" s="135"/>
       <c r="AP106" s="136"/>
-      <c r="AQ106" s="302"/>
+      <c r="AQ106" s="342"/>
       <c r="AR106" s="136"/>
       <c r="AS106" s="1"/>
       <c r="AT106" s="1"/>
@@ -17862,7 +17821,7 @@
       <c r="AN107" s="234"/>
       <c r="AO107" s="135"/>
       <c r="AP107" s="136"/>
-      <c r="AQ107" s="302"/>
+      <c r="AQ107" s="342"/>
       <c r="AR107" s="136"/>
       <c r="AS107" s="1"/>
       <c r="AT107" s="1"/>
@@ -17939,7 +17898,7 @@
       <c r="AN108" s="234"/>
       <c r="AO108" s="135"/>
       <c r="AP108" s="136"/>
-      <c r="AQ108" s="302"/>
+      <c r="AQ108" s="342"/>
       <c r="AR108" s="136"/>
       <c r="AS108" s="1"/>
       <c r="AT108" s="1"/>
@@ -18006,7 +17965,7 @@
       <c r="AN109" s="135"/>
       <c r="AO109" s="135"/>
       <c r="AP109" s="136"/>
-      <c r="AQ109" s="302"/>
+      <c r="AQ109" s="342"/>
       <c r="AR109" s="136"/>
       <c r="AS109" s="1"/>
       <c r="AT109" s="1"/>
@@ -18083,7 +18042,7 @@
       <c r="AN110" s="234"/>
       <c r="AO110" s="135"/>
       <c r="AP110" s="136"/>
-      <c r="AQ110" s="302"/>
+      <c r="AQ110" s="342"/>
       <c r="AR110" s="136"/>
       <c r="AS110" s="1"/>
       <c r="AT110" s="1"/>
@@ -18160,7 +18119,7 @@
       <c r="AN111" s="234"/>
       <c r="AO111" s="135"/>
       <c r="AP111" s="136"/>
-      <c r="AQ111" s="302"/>
+      <c r="AQ111" s="342"/>
       <c r="AR111" s="136"/>
       <c r="AS111" s="1"/>
       <c r="AT111" s="1"/>
@@ -18237,7 +18196,7 @@
       <c r="AN112" s="234"/>
       <c r="AO112" s="135"/>
       <c r="AP112" s="136"/>
-      <c r="AQ112" s="302"/>
+      <c r="AQ112" s="342"/>
       <c r="AR112" s="136"/>
       <c r="AS112" s="1"/>
       <c r="AT112" s="1"/>
@@ -18314,7 +18273,7 @@
       <c r="AN113" s="135"/>
       <c r="AO113" s="234"/>
       <c r="AP113" s="136"/>
-      <c r="AQ113" s="302"/>
+      <c r="AQ113" s="342"/>
       <c r="AR113" s="136"/>
       <c r="AS113" s="1"/>
       <c r="AT113" s="1"/>
@@ -18385,7 +18344,7 @@
       <c r="AN114" s="159"/>
       <c r="AO114" s="159"/>
       <c r="AP114" s="160"/>
-      <c r="AQ114" s="302"/>
+      <c r="AQ114" s="342"/>
       <c r="AR114" s="161"/>
       <c r="AS114" s="158"/>
       <c r="AT114" s="158"/>
@@ -18453,7 +18412,7 @@
       <c r="AN115" s="135"/>
       <c r="AO115" s="135"/>
       <c r="AP115" s="136"/>
-      <c r="AQ115" s="302"/>
+      <c r="AQ115" s="342"/>
       <c r="AR115" s="136"/>
       <c r="AS115" s="1"/>
       <c r="AT115" s="1"/>
@@ -18530,7 +18489,7 @@
       <c r="AN116" s="234"/>
       <c r="AO116" s="135"/>
       <c r="AP116" s="136"/>
-      <c r="AQ116" s="302"/>
+      <c r="AQ116" s="342"/>
       <c r="AR116" s="136"/>
       <c r="AS116" s="1"/>
       <c r="AT116" s="1"/>
@@ -18607,7 +18566,7 @@
       <c r="AN117" s="234"/>
       <c r="AO117" s="135"/>
       <c r="AP117" s="136"/>
-      <c r="AQ117" s="302"/>
+      <c r="AQ117" s="342"/>
       <c r="AR117" s="136"/>
       <c r="AS117" s="1"/>
       <c r="AT117" s="1"/>
@@ -18684,7 +18643,7 @@
       <c r="AN118" s="234"/>
       <c r="AO118" s="135"/>
       <c r="AP118" s="136"/>
-      <c r="AQ118" s="302"/>
+      <c r="AQ118" s="342"/>
       <c r="AR118" s="136"/>
       <c r="AS118" s="1"/>
       <c r="AT118" s="1"/>
@@ -18761,7 +18720,7 @@
       <c r="AN119" s="234"/>
       <c r="AO119" s="135"/>
       <c r="AP119" s="136"/>
-      <c r="AQ119" s="302"/>
+      <c r="AQ119" s="342"/>
       <c r="AR119" s="136"/>
       <c r="AS119" s="1"/>
       <c r="AT119" s="1"/>
@@ -18838,7 +18797,7 @@
       <c r="AN120" s="234"/>
       <c r="AO120" s="135"/>
       <c r="AP120" s="136"/>
-      <c r="AQ120" s="302"/>
+      <c r="AQ120" s="342"/>
       <c r="AR120" s="136"/>
       <c r="AS120" s="1"/>
       <c r="AT120" s="1"/>
@@ -18906,7 +18865,7 @@
       <c r="AN121" s="135"/>
       <c r="AO121" s="135"/>
       <c r="AP121" s="136"/>
-      <c r="AQ121" s="302"/>
+      <c r="AQ121" s="342"/>
       <c r="AR121" s="136"/>
       <c r="AS121" s="1"/>
       <c r="AT121" s="1"/>
@@ -18983,7 +18942,7 @@
       <c r="AN122" s="234"/>
       <c r="AO122" s="135"/>
       <c r="AP122" s="136"/>
-      <c r="AQ122" s="302"/>
+      <c r="AQ122" s="342"/>
       <c r="AR122" s="136"/>
       <c r="AS122" s="1"/>
       <c r="AT122" s="1"/>
@@ -19060,7 +19019,7 @@
       <c r="AN123" s="234"/>
       <c r="AO123" s="234"/>
       <c r="AP123" s="136"/>
-      <c r="AQ123" s="302"/>
+      <c r="AQ123" s="342"/>
       <c r="AR123" s="136"/>
       <c r="AS123" s="1"/>
       <c r="AT123" s="1"/>
@@ -19137,7 +19096,7 @@
       <c r="AN124" s="234"/>
       <c r="AO124" s="234"/>
       <c r="AP124" s="136"/>
-      <c r="AQ124" s="302"/>
+      <c r="AQ124" s="342"/>
       <c r="AR124" s="136"/>
       <c r="AS124" s="1"/>
       <c r="AT124" s="1"/>
@@ -19214,7 +19173,7 @@
       <c r="AN125" s="234"/>
       <c r="AO125" s="234"/>
       <c r="AP125" s="136"/>
-      <c r="AQ125" s="302"/>
+      <c r="AQ125" s="342"/>
       <c r="AR125" s="136"/>
       <c r="AS125" s="1"/>
       <c r="AT125" s="1"/>
@@ -19291,7 +19250,7 @@
       <c r="AN126" s="234"/>
       <c r="AO126" s="234"/>
       <c r="AP126" s="136"/>
-      <c r="AQ126" s="302"/>
+      <c r="AQ126" s="342"/>
       <c r="AR126" s="136"/>
       <c r="AS126" s="1"/>
       <c r="AT126" s="1"/>
@@ -19359,7 +19318,7 @@
       <c r="AN127" s="135"/>
       <c r="AO127" s="135"/>
       <c r="AP127" s="136"/>
-      <c r="AQ127" s="302"/>
+      <c r="AQ127" s="342"/>
       <c r="AR127" s="136"/>
       <c r="AS127" s="1"/>
       <c r="AT127" s="1"/>
@@ -19436,7 +19395,7 @@
       <c r="AN128" s="135"/>
       <c r="AO128" s="135"/>
       <c r="AP128" s="148"/>
-      <c r="AQ128" s="302"/>
+      <c r="AQ128" s="342"/>
       <c r="AR128" s="148"/>
       <c r="AS128" s="1"/>
       <c r="AT128" s="1"/>
@@ -19513,7 +19472,7 @@
       <c r="AN129" s="135"/>
       <c r="AO129" s="135"/>
       <c r="AP129" s="148"/>
-      <c r="AQ129" s="302"/>
+      <c r="AQ129" s="342"/>
       <c r="AR129" s="148"/>
       <c r="AS129" s="1"/>
       <c r="AT129" s="1"/>
@@ -19590,7 +19549,7 @@
       <c r="AN130" s="135"/>
       <c r="AO130" s="135"/>
       <c r="AP130" s="148"/>
-      <c r="AQ130" s="302"/>
+      <c r="AQ130" s="342"/>
       <c r="AR130" s="148"/>
       <c r="AS130" s="1"/>
       <c r="AT130" s="1"/>
@@ -19667,7 +19626,7 @@
       <c r="AN131" s="135"/>
       <c r="AO131" s="135"/>
       <c r="AP131" s="148"/>
-      <c r="AQ131" s="302"/>
+      <c r="AQ131" s="342"/>
       <c r="AR131" s="148"/>
       <c r="AS131" s="1"/>
       <c r="AT131" s="1"/>
@@ -19735,7 +19694,7 @@
       <c r="AN132" s="135"/>
       <c r="AO132" s="135"/>
       <c r="AP132" s="136"/>
-      <c r="AQ132" s="302"/>
+      <c r="AQ132" s="342"/>
       <c r="AR132" s="136"/>
       <c r="AS132" s="1"/>
       <c r="AT132" s="1"/>
@@ -19812,7 +19771,7 @@
       <c r="AN133" s="135"/>
       <c r="AO133" s="135"/>
       <c r="AP133" s="148"/>
-      <c r="AQ133" s="302"/>
+      <c r="AQ133" s="342"/>
       <c r="AR133" s="148"/>
       <c r="AS133" s="1"/>
       <c r="AT133" s="1"/>
@@ -19889,7 +19848,7 @@
       <c r="AN134" s="135"/>
       <c r="AO134" s="135"/>
       <c r="AP134" s="148"/>
-      <c r="AQ134" s="302"/>
+      <c r="AQ134" s="342"/>
       <c r="AR134" s="148"/>
       <c r="AS134" s="1"/>
       <c r="AT134" s="1"/>
@@ -19966,7 +19925,7 @@
       <c r="AN135" s="135"/>
       <c r="AO135" s="135"/>
       <c r="AP135" s="148"/>
-      <c r="AQ135" s="302"/>
+      <c r="AQ135" s="342"/>
       <c r="AR135" s="148"/>
       <c r="AS135" s="1"/>
       <c r="AT135" s="1"/>
@@ -20043,7 +20002,7 @@
       <c r="AN136" s="135"/>
       <c r="AO136" s="135"/>
       <c r="AP136" s="148"/>
-      <c r="AQ136" s="303"/>
+      <c r="AQ136" s="343"/>
       <c r="AR136" s="148"/>
       <c r="AS136" s="1"/>
       <c r="AT136" s="1"/>
@@ -20710,50 +20669,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="34.200000000000003" x14ac:dyDescent="1.3">
-      <c r="A1" s="297" t="s">
+      <c r="A1" s="337" t="s">
         <v>677</v>
       </c>
-      <c r="B1" s="297"/>
-      <c r="C1" s="297"/>
-      <c r="D1" s="297"/>
-      <c r="E1" s="297"/>
-      <c r="F1" s="297"/>
+      <c r="B1" s="337"/>
+      <c r="C1" s="337"/>
+      <c r="D1" s="337"/>
+      <c r="E1" s="337"/>
+      <c r="F1" s="337"/>
     </row>
     <row r="2" spans="1:39" s="18" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="15"/>
       <c r="C2" s="15"/>
-      <c r="D2" s="330" t="s">
+      <c r="D2" s="352" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="330"/>
-      <c r="F2" s="330"/>
-      <c r="G2" s="330"/>
-      <c r="H2" s="330"/>
-      <c r="I2" s="330"/>
-      <c r="J2" s="330"/>
-      <c r="K2" s="330"/>
-      <c r="L2" s="330"/>
-      <c r="M2" s="330"/>
-      <c r="N2" s="330"/>
-      <c r="O2" s="330"/>
-      <c r="P2" s="330"/>
-      <c r="Q2" s="330"/>
-      <c r="R2" s="330"/>
-      <c r="S2" s="330"/>
-      <c r="T2" s="330"/>
-      <c r="U2" s="330"/>
-      <c r="V2" s="330"/>
-      <c r="W2" s="330"/>
-      <c r="X2" s="330"/>
-      <c r="Y2" s="330"/>
-      <c r="Z2" s="330"/>
-      <c r="AA2" s="330"/>
-      <c r="AB2" s="330"/>
-      <c r="AC2" s="330"/>
-      <c r="AD2" s="330"/>
-      <c r="AE2" s="330"/>
-      <c r="AF2" s="330"/>
-      <c r="AG2" s="330"/>
+      <c r="E2" s="352"/>
+      <c r="F2" s="352"/>
+      <c r="G2" s="352"/>
+      <c r="H2" s="352"/>
+      <c r="I2" s="352"/>
+      <c r="J2" s="352"/>
+      <c r="K2" s="352"/>
+      <c r="L2" s="352"/>
+      <c r="M2" s="352"/>
+      <c r="N2" s="352"/>
+      <c r="O2" s="352"/>
+      <c r="P2" s="352"/>
+      <c r="Q2" s="352"/>
+      <c r="R2" s="352"/>
+      <c r="S2" s="352"/>
+      <c r="T2" s="352"/>
+      <c r="U2" s="352"/>
+      <c r="V2" s="352"/>
+      <c r="W2" s="352"/>
+      <c r="X2" s="352"/>
+      <c r="Y2" s="352"/>
+      <c r="Z2" s="352"/>
+      <c r="AA2" s="352"/>
+      <c r="AB2" s="352"/>
+      <c r="AC2" s="352"/>
+      <c r="AD2" s="352"/>
+      <c r="AE2" s="352"/>
+      <c r="AF2" s="352"/>
+      <c r="AG2" s="352"/>
       <c r="AH2" s="19"/>
       <c r="AI2" s="19"/>
       <c r="AJ2" s="19"/>
@@ -20814,32 +20773,32 @@
       <c r="K4" s="19"/>
       <c r="L4" s="19"/>
       <c r="M4" s="19"/>
-      <c r="N4" s="331" t="s">
+      <c r="N4" s="353" t="s">
         <v>535</v>
       </c>
-      <c r="O4" s="331"/>
-      <c r="P4" s="331"/>
-      <c r="Q4" s="331"/>
-      <c r="R4" s="331"/>
-      <c r="S4" s="331"/>
-      <c r="T4" s="331"/>
-      <c r="U4" s="331"/>
-      <c r="V4" s="331"/>
-      <c r="W4" s="331"/>
-      <c r="X4" s="331"/>
-      <c r="Y4" s="331"/>
-      <c r="Z4" s="331"/>
-      <c r="AA4" s="331"/>
-      <c r="AB4" s="331"/>
-      <c r="AC4" s="331"/>
-      <c r="AD4" s="331"/>
-      <c r="AE4" s="331"/>
-      <c r="AF4" s="331"/>
-      <c r="AG4" s="331"/>
-      <c r="AH4" s="331"/>
-      <c r="AI4" s="331"/>
-      <c r="AJ4" s="331"/>
-      <c r="AK4" s="331"/>
+      <c r="O4" s="353"/>
+      <c r="P4" s="353"/>
+      <c r="Q4" s="353"/>
+      <c r="R4" s="353"/>
+      <c r="S4" s="353"/>
+      <c r="T4" s="353"/>
+      <c r="U4" s="353"/>
+      <c r="V4" s="353"/>
+      <c r="W4" s="353"/>
+      <c r="X4" s="353"/>
+      <c r="Y4" s="353"/>
+      <c r="Z4" s="353"/>
+      <c r="AA4" s="353"/>
+      <c r="AB4" s="353"/>
+      <c r="AC4" s="353"/>
+      <c r="AD4" s="353"/>
+      <c r="AE4" s="353"/>
+      <c r="AF4" s="353"/>
+      <c r="AG4" s="353"/>
+      <c r="AH4" s="353"/>
+      <c r="AI4" s="353"/>
+      <c r="AJ4" s="353"/>
+      <c r="AK4" s="353"/>
       <c r="AL4" s="15"/>
       <c r="AM4" s="15"/>
     </row>
@@ -20886,48 +20845,48 @@
     </row>
     <row r="6" spans="1:39" s="18" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="15"/>
-      <c r="B6" s="332" t="s">
+      <c r="B6" s="354" t="s">
         <v>536</v>
       </c>
-      <c r="C6" s="332"/>
-      <c r="D6" s="332"/>
-      <c r="E6" s="332"/>
-      <c r="F6" s="332"/>
-      <c r="G6" s="332"/>
-      <c r="H6" s="332"/>
-      <c r="I6" s="332"/>
-      <c r="J6" s="332"/>
-      <c r="K6" s="332"/>
-      <c r="L6" s="332"/>
+      <c r="C6" s="354"/>
+      <c r="D6" s="354"/>
+      <c r="E6" s="354"/>
+      <c r="F6" s="354"/>
+      <c r="G6" s="354"/>
+      <c r="H6" s="354"/>
+      <c r="I6" s="354"/>
+      <c r="J6" s="354"/>
+      <c r="K6" s="354"/>
+      <c r="L6" s="354"/>
       <c r="M6" s="172"/>
-      <c r="N6" s="331"/>
-      <c r="O6" s="331"/>
-      <c r="P6" s="331"/>
-      <c r="Q6" s="331"/>
-      <c r="R6" s="331"/>
+      <c r="N6" s="353"/>
+      <c r="O6" s="353"/>
+      <c r="P6" s="353"/>
+      <c r="Q6" s="353"/>
+      <c r="R6" s="353"/>
       <c r="S6" s="28"/>
-      <c r="T6" s="333" t="s">
+      <c r="T6" s="355" t="s">
         <v>537</v>
       </c>
-      <c r="U6" s="334"/>
-      <c r="V6" s="334"/>
-      <c r="W6" s="334"/>
-      <c r="X6" s="334"/>
-      <c r="Y6" s="335"/>
+      <c r="U6" s="356"/>
+      <c r="V6" s="356"/>
+      <c r="W6" s="356"/>
+      <c r="X6" s="356"/>
+      <c r="Y6" s="357"/>
       <c r="Z6" s="23"/>
       <c r="AA6" s="28"/>
-      <c r="AB6" s="333" t="s">
+      <c r="AB6" s="355" t="s">
         <v>538</v>
       </c>
-      <c r="AC6" s="334"/>
-      <c r="AD6" s="334"/>
-      <c r="AE6" s="334"/>
-      <c r="AF6" s="334"/>
-      <c r="AG6" s="335"/>
+      <c r="AC6" s="356"/>
+      <c r="AD6" s="356"/>
+      <c r="AE6" s="356"/>
+      <c r="AF6" s="356"/>
+      <c r="AG6" s="357"/>
       <c r="AH6" s="23"/>
-      <c r="AI6" s="336"/>
-      <c r="AJ6" s="336"/>
-      <c r="AK6" s="336"/>
+      <c r="AI6" s="358"/>
+      <c r="AJ6" s="358"/>
+      <c r="AK6" s="358"/>
       <c r="AL6" s="15"/>
       <c r="AM6" s="15"/>
     </row>
@@ -21126,24 +21085,24 @@
         <v>5</v>
       </c>
       <c r="S10" s="187"/>
-      <c r="T10" s="324" t="s">
+      <c r="T10" s="359" t="s">
         <v>548</v>
       </c>
-      <c r="U10" s="325"/>
-      <c r="V10" s="325"/>
-      <c r="W10" s="325"/>
-      <c r="X10" s="325"/>
-      <c r="Y10" s="326"/>
+      <c r="U10" s="360"/>
+      <c r="V10" s="360"/>
+      <c r="W10" s="360"/>
+      <c r="X10" s="360"/>
+      <c r="Y10" s="361"/>
       <c r="Z10" s="265"/>
       <c r="AA10" s="187"/>
-      <c r="AB10" s="324" t="s">
+      <c r="AB10" s="359" t="s">
         <v>548</v>
       </c>
-      <c r="AC10" s="325"/>
-      <c r="AD10" s="325"/>
-      <c r="AE10" s="325"/>
-      <c r="AF10" s="325"/>
-      <c r="AG10" s="326"/>
+      <c r="AC10" s="360"/>
+      <c r="AD10" s="360"/>
+      <c r="AE10" s="360"/>
+      <c r="AF10" s="360"/>
+      <c r="AG10" s="361"/>
       <c r="AH10" s="184"/>
       <c r="AI10" s="264" t="s">
         <v>560</v>
@@ -21191,24 +21150,24 @@
         <v>4</v>
       </c>
       <c r="S11" s="187"/>
-      <c r="T11" s="327" t="s">
+      <c r="T11" s="362" t="s">
         <v>549</v>
       </c>
-      <c r="U11" s="328"/>
-      <c r="V11" s="328"/>
-      <c r="W11" s="328"/>
-      <c r="X11" s="328"/>
-      <c r="Y11" s="329"/>
+      <c r="U11" s="363"/>
+      <c r="V11" s="363"/>
+      <c r="W11" s="363"/>
+      <c r="X11" s="363"/>
+      <c r="Y11" s="364"/>
       <c r="Z11" s="265"/>
       <c r="AA11" s="187"/>
-      <c r="AB11" s="321" t="s">
+      <c r="AB11" s="365" t="s">
         <v>553</v>
       </c>
-      <c r="AC11" s="322"/>
-      <c r="AD11" s="322"/>
-      <c r="AE11" s="322"/>
-      <c r="AF11" s="322"/>
-      <c r="AG11" s="323"/>
+      <c r="AC11" s="366"/>
+      <c r="AD11" s="366"/>
+      <c r="AE11" s="366"/>
+      <c r="AF11" s="366"/>
+      <c r="AG11" s="367"/>
       <c r="AH11" s="184"/>
       <c r="AI11" s="267" t="s">
         <v>567</v>
@@ -21256,24 +21215,24 @@
         <v>2</v>
       </c>
       <c r="S12" s="187"/>
-      <c r="T12" s="318" t="s">
+      <c r="T12" s="368" t="s">
         <v>552</v>
       </c>
-      <c r="U12" s="319"/>
-      <c r="V12" s="319"/>
-      <c r="W12" s="319"/>
-      <c r="X12" s="319"/>
-      <c r="Y12" s="320"/>
+      <c r="U12" s="369"/>
+      <c r="V12" s="369"/>
+      <c r="W12" s="369"/>
+      <c r="X12" s="369"/>
+      <c r="Y12" s="370"/>
       <c r="Z12" s="265"/>
       <c r="AA12" s="187"/>
-      <c r="AB12" s="321" t="s">
+      <c r="AB12" s="365" t="s">
         <v>572</v>
       </c>
-      <c r="AC12" s="322"/>
-      <c r="AD12" s="322"/>
-      <c r="AE12" s="322"/>
-      <c r="AF12" s="322"/>
-      <c r="AG12" s="323"/>
+      <c r="AC12" s="366"/>
+      <c r="AD12" s="366"/>
+      <c r="AE12" s="366"/>
+      <c r="AF12" s="366"/>
+      <c r="AG12" s="367"/>
       <c r="AH12" s="184"/>
       <c r="AI12" s="267" t="s">
         <v>573</v>
@@ -21321,24 +21280,24 @@
         <v>1</v>
       </c>
       <c r="S13" s="187"/>
-      <c r="T13" s="315" t="s">
+      <c r="T13" s="371" t="s">
         <v>549</v>
       </c>
-      <c r="U13" s="316"/>
-      <c r="V13" s="316"/>
-      <c r="W13" s="316"/>
-      <c r="X13" s="316"/>
-      <c r="Y13" s="317"/>
+      <c r="U13" s="372"/>
+      <c r="V13" s="372"/>
+      <c r="W13" s="372"/>
+      <c r="X13" s="372"/>
+      <c r="Y13" s="373"/>
       <c r="Z13" s="265"/>
       <c r="AA13" s="187"/>
-      <c r="AB13" s="318" t="s">
+      <c r="AB13" s="368" t="s">
         <v>552</v>
       </c>
-      <c r="AC13" s="319"/>
-      <c r="AD13" s="319"/>
-      <c r="AE13" s="319"/>
-      <c r="AF13" s="319"/>
-      <c r="AG13" s="320"/>
+      <c r="AC13" s="369"/>
+      <c r="AD13" s="369"/>
+      <c r="AE13" s="369"/>
+      <c r="AF13" s="369"/>
+      <c r="AG13" s="370"/>
       <c r="AH13" s="184"/>
       <c r="AI13" s="267" t="s">
         <v>580</v>
@@ -21386,24 +21345,24 @@
         <v>2</v>
       </c>
       <c r="S14" s="187"/>
-      <c r="T14" s="321" t="s">
+      <c r="T14" s="365" t="s">
         <v>553</v>
       </c>
-      <c r="U14" s="322"/>
-      <c r="V14" s="322"/>
-      <c r="W14" s="322"/>
-      <c r="X14" s="322"/>
-      <c r="Y14" s="323"/>
+      <c r="U14" s="366"/>
+      <c r="V14" s="366"/>
+      <c r="W14" s="366"/>
+      <c r="X14" s="366"/>
+      <c r="Y14" s="367"/>
       <c r="Z14" s="265"/>
       <c r="AA14" s="187"/>
-      <c r="AB14" s="321" t="s">
+      <c r="AB14" s="365" t="s">
         <v>553</v>
       </c>
-      <c r="AC14" s="322"/>
-      <c r="AD14" s="322"/>
-      <c r="AE14" s="322"/>
-      <c r="AF14" s="322"/>
-      <c r="AG14" s="323"/>
+      <c r="AC14" s="366"/>
+      <c r="AD14" s="366"/>
+      <c r="AE14" s="366"/>
+      <c r="AF14" s="366"/>
+      <c r="AG14" s="367"/>
       <c r="AH14" s="184"/>
       <c r="AI14" s="267" t="s">
         <v>580</v>
@@ -21433,20 +21392,20 @@
       <c r="Q15" s="184"/>
       <c r="R15" s="185"/>
       <c r="S15" s="27"/>
-      <c r="T15" s="312"/>
-      <c r="U15" s="313"/>
-      <c r="V15" s="313"/>
-      <c r="W15" s="313"/>
-      <c r="X15" s="313"/>
-      <c r="Y15" s="314"/>
+      <c r="T15" s="374"/>
+      <c r="U15" s="375"/>
+      <c r="V15" s="375"/>
+      <c r="W15" s="375"/>
+      <c r="X15" s="375"/>
+      <c r="Y15" s="376"/>
       <c r="Z15" s="184"/>
       <c r="AA15" s="27"/>
-      <c r="AB15" s="312"/>
-      <c r="AC15" s="313"/>
-      <c r="AD15" s="313"/>
-      <c r="AE15" s="313"/>
-      <c r="AF15" s="313"/>
-      <c r="AG15" s="314"/>
+      <c r="AB15" s="374"/>
+      <c r="AC15" s="375"/>
+      <c r="AD15" s="375"/>
+      <c r="AE15" s="375"/>
+      <c r="AF15" s="375"/>
+      <c r="AG15" s="376"/>
       <c r="AH15" s="184"/>
       <c r="AI15" s="185"/>
       <c r="AJ15" s="184"/>
@@ -21474,20 +21433,20 @@
       <c r="Q16" s="184"/>
       <c r="R16" s="185"/>
       <c r="S16" s="27"/>
-      <c r="T16" s="312"/>
-      <c r="U16" s="313"/>
-      <c r="V16" s="313"/>
-      <c r="W16" s="313"/>
-      <c r="X16" s="313"/>
-      <c r="Y16" s="314"/>
+      <c r="T16" s="374"/>
+      <c r="U16" s="375"/>
+      <c r="V16" s="375"/>
+      <c r="W16" s="375"/>
+      <c r="X16" s="375"/>
+      <c r="Y16" s="376"/>
       <c r="Z16" s="184"/>
       <c r="AA16" s="27"/>
-      <c r="AB16" s="312"/>
-      <c r="AC16" s="313"/>
-      <c r="AD16" s="313"/>
-      <c r="AE16" s="313"/>
-      <c r="AF16" s="313"/>
-      <c r="AG16" s="314"/>
+      <c r="AB16" s="374"/>
+      <c r="AC16" s="375"/>
+      <c r="AD16" s="375"/>
+      <c r="AE16" s="375"/>
+      <c r="AF16" s="375"/>
+      <c r="AG16" s="376"/>
       <c r="AH16" s="184"/>
       <c r="AI16" s="185"/>
       <c r="AJ16" s="184"/>
@@ -21515,20 +21474,20 @@
       <c r="Q17" s="184"/>
       <c r="R17" s="185"/>
       <c r="S17" s="27"/>
-      <c r="T17" s="312"/>
-      <c r="U17" s="313"/>
-      <c r="V17" s="313"/>
-      <c r="W17" s="313"/>
-      <c r="X17" s="313"/>
-      <c r="Y17" s="314"/>
+      <c r="T17" s="374"/>
+      <c r="U17" s="375"/>
+      <c r="V17" s="375"/>
+      <c r="W17" s="375"/>
+      <c r="X17" s="375"/>
+      <c r="Y17" s="376"/>
       <c r="Z17" s="184"/>
       <c r="AA17" s="27"/>
-      <c r="AB17" s="312"/>
-      <c r="AC17" s="313"/>
-      <c r="AD17" s="313"/>
-      <c r="AE17" s="313"/>
-      <c r="AF17" s="313"/>
-      <c r="AG17" s="314"/>
+      <c r="AB17" s="374"/>
+      <c r="AC17" s="375"/>
+      <c r="AD17" s="375"/>
+      <c r="AE17" s="375"/>
+      <c r="AF17" s="375"/>
+      <c r="AG17" s="376"/>
       <c r="AH17" s="184"/>
       <c r="AI17" s="185"/>
       <c r="AJ17" s="184"/>
@@ -21556,20 +21515,20 @@
       <c r="Q18" s="184"/>
       <c r="R18" s="185"/>
       <c r="S18" s="27"/>
-      <c r="T18" s="312"/>
-      <c r="U18" s="313"/>
-      <c r="V18" s="313"/>
-      <c r="W18" s="313"/>
-      <c r="X18" s="313"/>
-      <c r="Y18" s="314"/>
+      <c r="T18" s="374"/>
+      <c r="U18" s="375"/>
+      <c r="V18" s="375"/>
+      <c r="W18" s="375"/>
+      <c r="X18" s="375"/>
+      <c r="Y18" s="376"/>
       <c r="Z18" s="184"/>
       <c r="AA18" s="27"/>
-      <c r="AB18" s="312"/>
-      <c r="AC18" s="313"/>
-      <c r="AD18" s="313"/>
-      <c r="AE18" s="313"/>
-      <c r="AF18" s="313"/>
-      <c r="AG18" s="314"/>
+      <c r="AB18" s="374"/>
+      <c r="AC18" s="375"/>
+      <c r="AD18" s="375"/>
+      <c r="AE18" s="375"/>
+      <c r="AF18" s="375"/>
+      <c r="AG18" s="376"/>
       <c r="AH18" s="184"/>
       <c r="AI18" s="185"/>
       <c r="AJ18" s="184"/>
@@ -21597,20 +21556,20 @@
       <c r="Q19" s="184"/>
       <c r="R19" s="185"/>
       <c r="S19" s="27"/>
-      <c r="T19" s="312"/>
-      <c r="U19" s="313"/>
-      <c r="V19" s="313"/>
-      <c r="W19" s="313"/>
-      <c r="X19" s="313"/>
-      <c r="Y19" s="314"/>
+      <c r="T19" s="374"/>
+      <c r="U19" s="375"/>
+      <c r="V19" s="375"/>
+      <c r="W19" s="375"/>
+      <c r="X19" s="375"/>
+      <c r="Y19" s="376"/>
       <c r="Z19" s="184"/>
       <c r="AA19" s="27"/>
-      <c r="AB19" s="312"/>
-      <c r="AC19" s="313"/>
-      <c r="AD19" s="313"/>
-      <c r="AE19" s="313"/>
-      <c r="AF19" s="313"/>
-      <c r="AG19" s="314"/>
+      <c r="AB19" s="374"/>
+      <c r="AC19" s="375"/>
+      <c r="AD19" s="375"/>
+      <c r="AE19" s="375"/>
+      <c r="AF19" s="375"/>
+      <c r="AG19" s="376"/>
       <c r="AH19" s="184"/>
       <c r="AI19" s="185"/>
       <c r="AJ19" s="184"/>
@@ -21638,20 +21597,20 @@
       <c r="Q20" s="197"/>
       <c r="R20" s="185"/>
       <c r="S20" s="27"/>
-      <c r="T20" s="312"/>
-      <c r="U20" s="313"/>
-      <c r="V20" s="313"/>
-      <c r="W20" s="313"/>
-      <c r="X20" s="313"/>
-      <c r="Y20" s="314"/>
+      <c r="T20" s="374"/>
+      <c r="U20" s="375"/>
+      <c r="V20" s="375"/>
+      <c r="W20" s="375"/>
+      <c r="X20" s="375"/>
+      <c r="Y20" s="376"/>
       <c r="Z20" s="197"/>
       <c r="AA20" s="27"/>
-      <c r="AB20" s="312"/>
-      <c r="AC20" s="313"/>
-      <c r="AD20" s="313"/>
-      <c r="AE20" s="313"/>
-      <c r="AF20" s="313"/>
-      <c r="AG20" s="314"/>
+      <c r="AB20" s="374"/>
+      <c r="AC20" s="375"/>
+      <c r="AD20" s="375"/>
+      <c r="AE20" s="375"/>
+      <c r="AF20" s="375"/>
+      <c r="AG20" s="376"/>
       <c r="AH20" s="197"/>
       <c r="AI20" s="185"/>
       <c r="AJ20" s="197"/>
@@ -21679,20 +21638,20 @@
       <c r="Q21" s="197"/>
       <c r="R21" s="185"/>
       <c r="S21" s="27"/>
-      <c r="T21" s="312"/>
-      <c r="U21" s="313"/>
-      <c r="V21" s="313"/>
-      <c r="W21" s="313"/>
-      <c r="X21" s="313"/>
-      <c r="Y21" s="314"/>
+      <c r="T21" s="374"/>
+      <c r="U21" s="375"/>
+      <c r="V21" s="375"/>
+      <c r="W21" s="375"/>
+      <c r="X21" s="375"/>
+      <c r="Y21" s="376"/>
       <c r="Z21" s="197"/>
       <c r="AA21" s="27"/>
-      <c r="AB21" s="312"/>
-      <c r="AC21" s="313"/>
-      <c r="AD21" s="313"/>
-      <c r="AE21" s="313"/>
-      <c r="AF21" s="313"/>
-      <c r="AG21" s="314"/>
+      <c r="AB21" s="374"/>
+      <c r="AC21" s="375"/>
+      <c r="AD21" s="375"/>
+      <c r="AE21" s="375"/>
+      <c r="AF21" s="375"/>
+      <c r="AG21" s="376"/>
       <c r="AH21" s="197"/>
       <c r="AI21" s="185"/>
       <c r="AJ21" s="197"/>
@@ -21720,20 +21679,20 @@
       <c r="Q22" s="271"/>
       <c r="R22" s="273"/>
       <c r="S22" s="27"/>
-      <c r="T22" s="312"/>
-      <c r="U22" s="313"/>
-      <c r="V22" s="313"/>
-      <c r="W22" s="313"/>
-      <c r="X22" s="313"/>
-      <c r="Y22" s="314"/>
+      <c r="T22" s="374"/>
+      <c r="U22" s="375"/>
+      <c r="V22" s="375"/>
+      <c r="W22" s="375"/>
+      <c r="X22" s="375"/>
+      <c r="Y22" s="376"/>
       <c r="Z22" s="271"/>
       <c r="AA22" s="27"/>
-      <c r="AB22" s="312"/>
-      <c r="AC22" s="313"/>
-      <c r="AD22" s="313"/>
-      <c r="AE22" s="313"/>
-      <c r="AF22" s="313"/>
-      <c r="AG22" s="314"/>
+      <c r="AB22" s="374"/>
+      <c r="AC22" s="375"/>
+      <c r="AD22" s="375"/>
+      <c r="AE22" s="375"/>
+      <c r="AF22" s="375"/>
+      <c r="AG22" s="376"/>
       <c r="AH22" s="271"/>
       <c r="AI22" s="273"/>
       <c r="AJ22" s="271"/>
@@ -22507,6 +22466,32 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="T22:Y22"/>
+    <mergeCell ref="AB22:AG22"/>
+    <mergeCell ref="T19:Y19"/>
+    <mergeCell ref="AB19:AG19"/>
+    <mergeCell ref="T20:Y20"/>
+    <mergeCell ref="AB20:AG20"/>
+    <mergeCell ref="T21:Y21"/>
+    <mergeCell ref="AB21:AG21"/>
+    <mergeCell ref="T16:Y16"/>
+    <mergeCell ref="AB16:AG16"/>
+    <mergeCell ref="T17:Y17"/>
+    <mergeCell ref="AB17:AG17"/>
+    <mergeCell ref="T18:Y18"/>
+    <mergeCell ref="AB18:AG18"/>
+    <mergeCell ref="T13:Y13"/>
+    <mergeCell ref="AB13:AG13"/>
+    <mergeCell ref="T14:Y14"/>
+    <mergeCell ref="AB14:AG14"/>
+    <mergeCell ref="T15:Y15"/>
+    <mergeCell ref="AB15:AG15"/>
+    <mergeCell ref="T10:Y10"/>
+    <mergeCell ref="AB10:AG10"/>
+    <mergeCell ref="T11:Y11"/>
+    <mergeCell ref="AB11:AG11"/>
+    <mergeCell ref="T12:Y12"/>
+    <mergeCell ref="AB12:AG12"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="D2:AG2"/>
     <mergeCell ref="N4:AK4"/>
@@ -22515,32 +22500,6 @@
     <mergeCell ref="T6:Y6"/>
     <mergeCell ref="AB6:AG6"/>
     <mergeCell ref="AI6:AK6"/>
-    <mergeCell ref="T10:Y10"/>
-    <mergeCell ref="AB10:AG10"/>
-    <mergeCell ref="T11:Y11"/>
-    <mergeCell ref="AB11:AG11"/>
-    <mergeCell ref="T12:Y12"/>
-    <mergeCell ref="AB12:AG12"/>
-    <mergeCell ref="T13:Y13"/>
-    <mergeCell ref="AB13:AG13"/>
-    <mergeCell ref="T14:Y14"/>
-    <mergeCell ref="AB14:AG14"/>
-    <mergeCell ref="T15:Y15"/>
-    <mergeCell ref="AB15:AG15"/>
-    <mergeCell ref="T16:Y16"/>
-    <mergeCell ref="AB16:AG16"/>
-    <mergeCell ref="T17:Y17"/>
-    <mergeCell ref="AB17:AG17"/>
-    <mergeCell ref="T18:Y18"/>
-    <mergeCell ref="AB18:AG18"/>
-    <mergeCell ref="T22:Y22"/>
-    <mergeCell ref="AB22:AG22"/>
-    <mergeCell ref="T19:Y19"/>
-    <mergeCell ref="AB19:AG19"/>
-    <mergeCell ref="T20:Y20"/>
-    <mergeCell ref="AB20:AG20"/>
-    <mergeCell ref="T21:Y21"/>
-    <mergeCell ref="AB21:AG21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Table of Contents'!A1" display="Back to Table of Contents" xr:uid="{8FCD273A-8833-4017-9E40-1953A3C0BE64}"/>
@@ -22600,14 +22559,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" ht="32.4" customHeight="1" x14ac:dyDescent="1.3">
-      <c r="A1" s="297" t="s">
+      <c r="A1" s="337" t="s">
         <v>677</v>
       </c>
-      <c r="B1" s="297"/>
-      <c r="C1" s="297"/>
-      <c r="D1" s="297"/>
-      <c r="E1" s="297"/>
-      <c r="F1" s="297"/>
+      <c r="B1" s="337"/>
+      <c r="C1" s="337"/>
+      <c r="D1" s="337"/>
+      <c r="E1" s="337"/>
+      <c r="F1" s="337"/>
       <c r="H1" s="1"/>
       <c r="K1" s="1"/>
       <c r="N1" s="1"/>
@@ -22626,42 +22585,42 @@
     </row>
     <row r="2" spans="1:46" s="18" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="15"/>
-      <c r="B2" s="346" t="s">
+      <c r="B2" s="377" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="346"/>
-      <c r="D2" s="346"/>
-      <c r="E2" s="346"/>
-      <c r="F2" s="346"/>
-      <c r="G2" s="346"/>
-      <c r="H2" s="346"/>
-      <c r="I2" s="346"/>
-      <c r="J2" s="346"/>
-      <c r="K2" s="346"/>
-      <c r="L2" s="346"/>
-      <c r="M2" s="346"/>
-      <c r="N2" s="346"/>
-      <c r="O2" s="346"/>
-      <c r="P2" s="346"/>
-      <c r="Q2" s="346"/>
-      <c r="R2" s="346"/>
-      <c r="S2" s="346"/>
-      <c r="T2" s="346"/>
-      <c r="U2" s="346"/>
-      <c r="V2" s="346"/>
-      <c r="W2" s="346"/>
-      <c r="X2" s="346"/>
-      <c r="Y2" s="346"/>
-      <c r="Z2" s="346"/>
-      <c r="AA2" s="346"/>
-      <c r="AB2" s="346"/>
-      <c r="AC2" s="346"/>
-      <c r="AD2" s="346"/>
-      <c r="AE2" s="346"/>
-      <c r="AF2" s="346"/>
-      <c r="AG2" s="346"/>
-      <c r="AH2" s="346"/>
-      <c r="AI2" s="346"/>
+      <c r="C2" s="377"/>
+      <c r="D2" s="377"/>
+      <c r="E2" s="377"/>
+      <c r="F2" s="377"/>
+      <c r="G2" s="377"/>
+      <c r="H2" s="377"/>
+      <c r="I2" s="377"/>
+      <c r="J2" s="377"/>
+      <c r="K2" s="377"/>
+      <c r="L2" s="377"/>
+      <c r="M2" s="377"/>
+      <c r="N2" s="377"/>
+      <c r="O2" s="377"/>
+      <c r="P2" s="377"/>
+      <c r="Q2" s="377"/>
+      <c r="R2" s="377"/>
+      <c r="S2" s="377"/>
+      <c r="T2" s="377"/>
+      <c r="U2" s="377"/>
+      <c r="V2" s="377"/>
+      <c r="W2" s="377"/>
+      <c r="X2" s="377"/>
+      <c r="Y2" s="377"/>
+      <c r="Z2" s="377"/>
+      <c r="AA2" s="377"/>
+      <c r="AB2" s="377"/>
+      <c r="AC2" s="377"/>
+      <c r="AD2" s="377"/>
+      <c r="AE2" s="377"/>
+      <c r="AF2" s="377"/>
+      <c r="AG2" s="377"/>
+      <c r="AH2" s="377"/>
+      <c r="AI2" s="377"/>
       <c r="AJ2" s="17"/>
       <c r="AK2" s="17"/>
       <c r="AL2" s="15"/>
@@ -22676,40 +22635,40 @@
     </row>
     <row r="3" spans="1:46" s="18" customFormat="1" ht="7.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="15"/>
-      <c r="B3" s="346"/>
-      <c r="C3" s="346"/>
-      <c r="D3" s="346"/>
-      <c r="E3" s="346"/>
-      <c r="F3" s="346"/>
-      <c r="G3" s="346"/>
-      <c r="H3" s="346"/>
-      <c r="I3" s="346"/>
-      <c r="J3" s="346"/>
-      <c r="K3" s="346"/>
-      <c r="L3" s="346"/>
-      <c r="M3" s="346"/>
-      <c r="N3" s="346"/>
-      <c r="O3" s="346"/>
-      <c r="P3" s="346"/>
-      <c r="Q3" s="346"/>
-      <c r="R3" s="346"/>
-      <c r="S3" s="346"/>
-      <c r="T3" s="346"/>
-      <c r="U3" s="346"/>
-      <c r="V3" s="346"/>
-      <c r="W3" s="346"/>
-      <c r="X3" s="346"/>
-      <c r="Y3" s="346"/>
-      <c r="Z3" s="346"/>
-      <c r="AA3" s="346"/>
-      <c r="AB3" s="346"/>
-      <c r="AC3" s="346"/>
-      <c r="AD3" s="346"/>
-      <c r="AE3" s="346"/>
-      <c r="AF3" s="346"/>
-      <c r="AG3" s="346"/>
-      <c r="AH3" s="346"/>
-      <c r="AI3" s="346"/>
+      <c r="B3" s="377"/>
+      <c r="C3" s="377"/>
+      <c r="D3" s="377"/>
+      <c r="E3" s="377"/>
+      <c r="F3" s="377"/>
+      <c r="G3" s="377"/>
+      <c r="H3" s="377"/>
+      <c r="I3" s="377"/>
+      <c r="J3" s="377"/>
+      <c r="K3" s="377"/>
+      <c r="L3" s="377"/>
+      <c r="M3" s="377"/>
+      <c r="N3" s="377"/>
+      <c r="O3" s="377"/>
+      <c r="P3" s="377"/>
+      <c r="Q3" s="377"/>
+      <c r="R3" s="377"/>
+      <c r="S3" s="377"/>
+      <c r="T3" s="377"/>
+      <c r="U3" s="377"/>
+      <c r="V3" s="377"/>
+      <c r="W3" s="377"/>
+      <c r="X3" s="377"/>
+      <c r="Y3" s="377"/>
+      <c r="Z3" s="377"/>
+      <c r="AA3" s="377"/>
+      <c r="AB3" s="377"/>
+      <c r="AC3" s="377"/>
+      <c r="AD3" s="377"/>
+      <c r="AE3" s="377"/>
+      <c r="AF3" s="377"/>
+      <c r="AG3" s="377"/>
+      <c r="AH3" s="377"/>
+      <c r="AI3" s="377"/>
       <c r="AJ3" s="17"/>
       <c r="AK3" s="16"/>
       <c r="AL3" s="15"/>
@@ -22771,46 +22730,46 @@
     </row>
     <row r="5" spans="1:46" s="18" customFormat="1" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="15"/>
-      <c r="B5" s="347" t="s">
+      <c r="B5" s="378" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="347"/>
-      <c r="D5" s="347"/>
-      <c r="E5" s="347"/>
-      <c r="F5" s="347"/>
-      <c r="G5" s="347"/>
-      <c r="H5" s="347"/>
-      <c r="I5" s="347"/>
-      <c r="J5" s="347"/>
-      <c r="K5" s="347"/>
-      <c r="L5" s="347"/>
-      <c r="M5" s="347"/>
-      <c r="N5" s="347"/>
-      <c r="O5" s="347"/>
-      <c r="P5" s="347"/>
-      <c r="Q5" s="347"/>
+      <c r="C5" s="378"/>
+      <c r="D5" s="378"/>
+      <c r="E5" s="378"/>
+      <c r="F5" s="378"/>
+      <c r="G5" s="378"/>
+      <c r="H5" s="378"/>
+      <c r="I5" s="378"/>
+      <c r="J5" s="378"/>
+      <c r="K5" s="378"/>
+      <c r="L5" s="378"/>
+      <c r="M5" s="378"/>
+      <c r="N5" s="378"/>
+      <c r="O5" s="378"/>
+      <c r="P5" s="378"/>
+      <c r="Q5" s="378"/>
       <c r="R5" s="20"/>
-      <c r="S5" s="348" t="s">
+      <c r="S5" s="379" t="s">
         <v>39</v>
       </c>
-      <c r="T5" s="348"/>
-      <c r="U5" s="348"/>
-      <c r="V5" s="348"/>
-      <c r="W5" s="348"/>
-      <c r="X5" s="348"/>
-      <c r="Y5" s="348"/>
-      <c r="Z5" s="348"/>
-      <c r="AA5" s="348"/>
-      <c r="AB5" s="348"/>
-      <c r="AC5" s="348"/>
-      <c r="AD5" s="348"/>
-      <c r="AE5" s="348"/>
-      <c r="AF5" s="348"/>
-      <c r="AG5" s="348"/>
-      <c r="AH5" s="348"/>
-      <c r="AI5" s="348"/>
-      <c r="AJ5" s="348"/>
-      <c r="AK5" s="348"/>
+      <c r="T5" s="379"/>
+      <c r="U5" s="379"/>
+      <c r="V5" s="379"/>
+      <c r="W5" s="379"/>
+      <c r="X5" s="379"/>
+      <c r="Y5" s="379"/>
+      <c r="Z5" s="379"/>
+      <c r="AA5" s="379"/>
+      <c r="AB5" s="379"/>
+      <c r="AC5" s="379"/>
+      <c r="AD5" s="379"/>
+      <c r="AE5" s="379"/>
+      <c r="AF5" s="379"/>
+      <c r="AG5" s="379"/>
+      <c r="AH5" s="379"/>
+      <c r="AI5" s="379"/>
+      <c r="AJ5" s="379"/>
+      <c r="AK5" s="379"/>
       <c r="AL5" s="15"/>
       <c r="AM5" s="15"/>
       <c r="AN5" s="15"/>
@@ -22867,27 +22826,27 @@
       <c r="G7" s="23"/>
       <c r="H7" s="23"/>
       <c r="I7" s="23"/>
-      <c r="J7" s="349" t="s">
+      <c r="J7" s="380" t="s">
         <v>40</v>
       </c>
       <c r="K7" s="24" t="s">
         <v>41</v>
       </c>
       <c r="L7" s="23"/>
-      <c r="M7" s="350" t="s">
+      <c r="M7" s="381" t="s">
         <v>42</v>
       </c>
-      <c r="N7" s="350"/>
+      <c r="N7" s="381"/>
       <c r="O7" s="26"/>
-      <c r="P7" s="350" t="s">
+      <c r="P7" s="381" t="s">
         <v>43</v>
       </c>
-      <c r="Q7" s="350"/>
+      <c r="Q7" s="381"/>
       <c r="R7" s="23"/>
-      <c r="S7" s="351" t="s">
+      <c r="S7" s="382" t="s">
         <v>44</v>
       </c>
-      <c r="T7" s="352"/>
+      <c r="T7" s="383"/>
       <c r="U7" s="27"/>
       <c r="V7" s="25" t="s">
         <v>45</v>
@@ -22914,7 +22873,7 @@
       <c r="G8" s="23"/>
       <c r="H8" s="23"/>
       <c r="I8" s="23"/>
-      <c r="J8" s="349"/>
+      <c r="J8" s="380"/>
       <c r="K8" s="24" t="s">
         <v>46</v>
       </c>
@@ -22965,7 +22924,7 @@
       <c r="G9" s="23"/>
       <c r="H9" s="23"/>
       <c r="I9" s="23"/>
-      <c r="J9" s="349"/>
+      <c r="J9" s="380"/>
       <c r="K9" s="24" t="s">
         <v>34</v>
       </c>
@@ -23016,7 +22975,7 @@
       <c r="G10" s="23"/>
       <c r="H10" s="23"/>
       <c r="I10" s="23"/>
-      <c r="J10" s="349"/>
+      <c r="J10" s="380"/>
       <c r="K10" s="39" t="s">
         <v>54</v>
       </c>
@@ -23067,7 +23026,7 @@
       <c r="G11" s="23"/>
       <c r="H11" s="23"/>
       <c r="I11" s="23"/>
-      <c r="J11" s="349"/>
+      <c r="J11" s="380"/>
       <c r="K11" s="41" t="s">
         <v>58</v>
       </c>
@@ -23110,7 +23069,7 @@
       <c r="G12" s="23"/>
       <c r="H12" s="23"/>
       <c r="I12" s="23"/>
-      <c r="J12" s="349"/>
+      <c r="J12" s="380"/>
       <c r="K12" s="45" t="s">
         <v>60</v>
       </c>
@@ -23236,25 +23195,25 @@
         <v>66</v>
       </c>
       <c r="I15" s="59"/>
-      <c r="J15" s="343" t="s">
+      <c r="J15" s="384" t="s">
         <v>67</v>
       </c>
-      <c r="K15" s="343"/>
+      <c r="K15" s="384"/>
       <c r="L15" s="59"/>
-      <c r="M15" s="343" t="s">
+      <c r="M15" s="384" t="s">
         <v>68</v>
       </c>
-      <c r="N15" s="344"/>
+      <c r="N15" s="385"/>
       <c r="O15" s="59"/>
-      <c r="P15" s="343" t="s">
+      <c r="P15" s="384" t="s">
         <v>69</v>
       </c>
-      <c r="Q15" s="343"/>
+      <c r="Q15" s="384"/>
       <c r="R15" s="59"/>
-      <c r="S15" s="345" t="s">
+      <c r="S15" s="386" t="s">
         <v>70</v>
       </c>
-      <c r="T15" s="345"/>
+      <c r="T15" s="386"/>
       <c r="U15" s="60"/>
       <c r="V15" s="61" t="s">
         <v>71</v>
@@ -23354,20 +23313,20 @@
         <v>82</v>
       </c>
       <c r="I17" s="72"/>
-      <c r="J17" s="340" t="s">
+      <c r="J17" s="387" t="s">
         <v>83</v>
       </c>
-      <c r="K17" s="340"/>
+      <c r="K17" s="387"/>
       <c r="L17" s="72"/>
-      <c r="M17" s="340">
+      <c r="M17" s="387">
         <v>3</v>
       </c>
-      <c r="N17" s="340"/>
+      <c r="N17" s="387"/>
       <c r="O17" s="74"/>
-      <c r="P17" s="340">
+      <c r="P17" s="387">
         <v>4</v>
       </c>
-      <c r="Q17" s="340"/>
+      <c r="Q17" s="387"/>
       <c r="R17" s="75"/>
       <c r="S17" s="76">
         <f>IF(M17="","",M17*P17)</f>
@@ -23439,20 +23398,20 @@
         <v>90</v>
       </c>
       <c r="I18" s="72"/>
-      <c r="J18" s="340" t="s">
+      <c r="J18" s="387" t="s">
         <v>83</v>
       </c>
-      <c r="K18" s="340"/>
+      <c r="K18" s="387"/>
       <c r="L18" s="72"/>
-      <c r="M18" s="340">
+      <c r="M18" s="387">
         <v>3</v>
       </c>
-      <c r="N18" s="340"/>
+      <c r="N18" s="387"/>
       <c r="O18" s="74"/>
-      <c r="P18" s="340">
+      <c r="P18" s="387">
         <v>3</v>
       </c>
-      <c r="Q18" s="340"/>
+      <c r="Q18" s="387"/>
       <c r="R18" s="72"/>
       <c r="S18" s="76">
         <f t="shared" ref="S18:S38" si="0">IF(M18="","",M18*P18)</f>
@@ -23524,20 +23483,20 @@
         <v>97</v>
       </c>
       <c r="I19" s="72"/>
-      <c r="J19" s="340" t="s">
+      <c r="J19" s="387" t="s">
         <v>83</v>
       </c>
-      <c r="K19" s="340"/>
+      <c r="K19" s="387"/>
       <c r="L19" s="72"/>
-      <c r="M19" s="340">
+      <c r="M19" s="387">
         <v>2</v>
       </c>
-      <c r="N19" s="340"/>
+      <c r="N19" s="387"/>
       <c r="O19" s="74"/>
-      <c r="P19" s="340">
+      <c r="P19" s="387">
         <v>3</v>
       </c>
-      <c r="Q19" s="340"/>
+      <c r="Q19" s="387"/>
       <c r="R19" s="72"/>
       <c r="S19" s="76">
         <f t="shared" si="0"/>
@@ -23609,20 +23568,20 @@
         <v>105</v>
       </c>
       <c r="I20" s="72"/>
-      <c r="J20" s="340" t="s">
+      <c r="J20" s="387" t="s">
         <v>83</v>
       </c>
-      <c r="K20" s="340"/>
+      <c r="K20" s="387"/>
       <c r="L20" s="72"/>
-      <c r="M20" s="340">
+      <c r="M20" s="387">
         <v>1</v>
       </c>
-      <c r="N20" s="340"/>
+      <c r="N20" s="387"/>
       <c r="O20" s="74"/>
-      <c r="P20" s="340">
+      <c r="P20" s="387">
         <v>5</v>
       </c>
-      <c r="Q20" s="340"/>
+      <c r="Q20" s="387"/>
       <c r="R20" s="72"/>
       <c r="S20" s="76">
         <f t="shared" si="0"/>
@@ -23694,20 +23653,20 @@
         <v>113</v>
       </c>
       <c r="I21" s="72"/>
-      <c r="J21" s="342" t="s">
+      <c r="J21" s="388" t="s">
         <v>83</v>
       </c>
-      <c r="K21" s="342"/>
+      <c r="K21" s="388"/>
       <c r="L21" s="72"/>
-      <c r="M21" s="340">
+      <c r="M21" s="387">
         <v>2</v>
       </c>
-      <c r="N21" s="340"/>
+      <c r="N21" s="387"/>
       <c r="O21" s="74"/>
-      <c r="P21" s="340">
+      <c r="P21" s="387">
         <v>3</v>
       </c>
-      <c r="Q21" s="340"/>
+      <c r="Q21" s="387"/>
       <c r="R21" s="72"/>
       <c r="S21" s="76">
         <f t="shared" si="0"/>
@@ -23779,20 +23738,20 @@
         <v>120</v>
       </c>
       <c r="I22" s="72"/>
-      <c r="J22" s="340" t="s">
+      <c r="J22" s="387" t="s">
         <v>83</v>
       </c>
-      <c r="K22" s="340"/>
+      <c r="K22" s="387"/>
       <c r="L22" s="72"/>
-      <c r="M22" s="340">
+      <c r="M22" s="387">
         <v>3</v>
       </c>
-      <c r="N22" s="340"/>
+      <c r="N22" s="387"/>
       <c r="O22" s="74"/>
-      <c r="P22" s="340">
+      <c r="P22" s="387">
         <v>4</v>
       </c>
-      <c r="Q22" s="340"/>
+      <c r="Q22" s="387"/>
       <c r="R22" s="72"/>
       <c r="S22" s="76">
         <f t="shared" si="0"/>
@@ -23864,20 +23823,20 @@
         <v>127</v>
       </c>
       <c r="I23" s="72"/>
-      <c r="J23" s="341" t="s">
+      <c r="J23" s="389" t="s">
         <v>83</v>
       </c>
-      <c r="K23" s="341"/>
+      <c r="K23" s="389"/>
       <c r="L23" s="90"/>
-      <c r="M23" s="340">
+      <c r="M23" s="387">
         <v>3</v>
       </c>
-      <c r="N23" s="340"/>
+      <c r="N23" s="387"/>
       <c r="O23" s="74"/>
-      <c r="P23" s="340">
+      <c r="P23" s="387">
         <v>3</v>
       </c>
-      <c r="Q23" s="340"/>
+      <c r="Q23" s="387"/>
       <c r="R23" s="90"/>
       <c r="S23" s="76">
         <f t="shared" si="0"/>
@@ -23949,20 +23908,20 @@
         <v>133</v>
       </c>
       <c r="I24" s="72"/>
-      <c r="J24" s="339" t="s">
+      <c r="J24" s="390" t="s">
         <v>83</v>
       </c>
-      <c r="K24" s="339"/>
+      <c r="K24" s="390"/>
       <c r="L24" s="91"/>
-      <c r="M24" s="340">
+      <c r="M24" s="387">
         <v>4</v>
       </c>
-      <c r="N24" s="340"/>
+      <c r="N24" s="387"/>
       <c r="O24" s="74"/>
-      <c r="P24" s="340">
+      <c r="P24" s="387">
         <v>3</v>
       </c>
-      <c r="Q24" s="340"/>
+      <c r="Q24" s="387"/>
       <c r="R24" s="91"/>
       <c r="S24" s="76">
         <f t="shared" si="0"/>
@@ -24034,20 +23993,20 @@
         <v>140</v>
       </c>
       <c r="I25" s="72"/>
-      <c r="J25" s="339" t="s">
+      <c r="J25" s="390" t="s">
         <v>83</v>
       </c>
-      <c r="K25" s="339"/>
+      <c r="K25" s="390"/>
       <c r="L25" s="91"/>
-      <c r="M25" s="340">
+      <c r="M25" s="387">
         <v>2</v>
       </c>
-      <c r="N25" s="340"/>
+      <c r="N25" s="387"/>
       <c r="O25" s="74"/>
-      <c r="P25" s="340">
+      <c r="P25" s="387">
         <v>2</v>
       </c>
-      <c r="Q25" s="340"/>
+      <c r="Q25" s="387"/>
       <c r="R25" s="92"/>
       <c r="S25" s="76">
         <f t="shared" si="0"/>
@@ -24119,20 +24078,20 @@
         <v>147</v>
       </c>
       <c r="I26" s="72"/>
-      <c r="J26" s="339" t="s">
+      <c r="J26" s="390" t="s">
         <v>83</v>
       </c>
-      <c r="K26" s="339"/>
+      <c r="K26" s="390"/>
       <c r="L26" s="72"/>
-      <c r="M26" s="340">
+      <c r="M26" s="387">
         <v>3</v>
       </c>
-      <c r="N26" s="340"/>
+      <c r="N26" s="387"/>
       <c r="O26" s="74"/>
-      <c r="P26" s="340">
+      <c r="P26" s="387">
         <v>4</v>
       </c>
-      <c r="Q26" s="340"/>
+      <c r="Q26" s="387"/>
       <c r="R26" s="93"/>
       <c r="S26" s="76">
         <f t="shared" si="0"/>
@@ -24202,20 +24161,20 @@
         <v>153</v>
       </c>
       <c r="I27" s="72"/>
-      <c r="J27" s="339" t="s">
+      <c r="J27" s="390" t="s">
         <v>83</v>
       </c>
-      <c r="K27" s="339"/>
+      <c r="K27" s="390"/>
       <c r="L27" s="72"/>
-      <c r="M27" s="340">
+      <c r="M27" s="387">
         <v>2</v>
       </c>
-      <c r="N27" s="340"/>
+      <c r="N27" s="387"/>
       <c r="O27" s="74"/>
-      <c r="P27" s="340">
+      <c r="P27" s="387">
         <v>4</v>
       </c>
-      <c r="Q27" s="340"/>
+      <c r="Q27" s="387"/>
       <c r="R27" s="93"/>
       <c r="S27" s="76">
         <f t="shared" si="0"/>
@@ -24285,20 +24244,20 @@
         <v>159</v>
       </c>
       <c r="I28" s="72"/>
-      <c r="J28" s="339" t="s">
+      <c r="J28" s="390" t="s">
         <v>83</v>
       </c>
-      <c r="K28" s="339"/>
+      <c r="K28" s="390"/>
       <c r="L28" s="72"/>
-      <c r="M28" s="340">
+      <c r="M28" s="387">
         <v>3</v>
       </c>
-      <c r="N28" s="340"/>
+      <c r="N28" s="387"/>
       <c r="O28" s="74"/>
-      <c r="P28" s="340">
+      <c r="P28" s="387">
         <v>5</v>
       </c>
-      <c r="Q28" s="340"/>
+      <c r="Q28" s="387"/>
       <c r="R28" s="93"/>
       <c r="S28" s="76">
         <f t="shared" si="0"/>
@@ -24368,20 +24327,20 @@
         <v>165</v>
       </c>
       <c r="I29" s="72"/>
-      <c r="J29" s="339" t="s">
+      <c r="J29" s="390" t="s">
         <v>83</v>
       </c>
-      <c r="K29" s="339"/>
+      <c r="K29" s="390"/>
       <c r="L29" s="72"/>
-      <c r="M29" s="340">
+      <c r="M29" s="387">
         <v>3</v>
       </c>
-      <c r="N29" s="340"/>
+      <c r="N29" s="387"/>
       <c r="O29" s="74"/>
-      <c r="P29" s="340">
+      <c r="P29" s="387">
         <v>3</v>
       </c>
-      <c r="Q29" s="340"/>
+      <c r="Q29" s="387"/>
       <c r="R29" s="93"/>
       <c r="S29" s="76">
         <f t="shared" si="0"/>
@@ -24443,14 +24402,14 @@
       <c r="G30" s="72"/>
       <c r="H30" s="72"/>
       <c r="I30" s="72"/>
-      <c r="J30" s="337"/>
-      <c r="K30" s="337"/>
+      <c r="J30" s="391"/>
+      <c r="K30" s="391"/>
       <c r="L30" s="72"/>
-      <c r="M30" s="338"/>
-      <c r="N30" s="338"/>
+      <c r="M30" s="392"/>
+      <c r="N30" s="392"/>
       <c r="O30" s="78"/>
-      <c r="P30" s="338"/>
-      <c r="Q30" s="338"/>
+      <c r="P30" s="392"/>
+      <c r="Q30" s="392"/>
       <c r="R30" s="93"/>
       <c r="S30" s="98" t="str">
         <f t="shared" si="0"/>
@@ -24495,14 +24454,14 @@
       <c r="G31" s="72"/>
       <c r="H31" s="72"/>
       <c r="I31" s="72"/>
-      <c r="J31" s="337"/>
-      <c r="K31" s="337"/>
+      <c r="J31" s="391"/>
+      <c r="K31" s="391"/>
       <c r="L31" s="72"/>
-      <c r="M31" s="338"/>
-      <c r="N31" s="338"/>
+      <c r="M31" s="392"/>
+      <c r="N31" s="392"/>
       <c r="O31" s="78"/>
-      <c r="P31" s="338"/>
-      <c r="Q31" s="338"/>
+      <c r="P31" s="392"/>
+      <c r="Q31" s="392"/>
       <c r="R31" s="93"/>
       <c r="S31" s="98" t="str">
         <f t="shared" si="0"/>
@@ -24547,14 +24506,14 @@
       <c r="G32" s="72"/>
       <c r="H32" s="72"/>
       <c r="I32" s="72"/>
-      <c r="J32" s="337"/>
-      <c r="K32" s="337"/>
+      <c r="J32" s="391"/>
+      <c r="K32" s="391"/>
       <c r="L32" s="72"/>
-      <c r="M32" s="338"/>
-      <c r="N32" s="338"/>
+      <c r="M32" s="392"/>
+      <c r="N32" s="392"/>
       <c r="O32" s="78"/>
-      <c r="P32" s="338"/>
-      <c r="Q32" s="338"/>
+      <c r="P32" s="392"/>
+      <c r="Q32" s="392"/>
       <c r="R32" s="93"/>
       <c r="S32" s="98" t="str">
         <f t="shared" si="0"/>
@@ -24599,14 +24558,14 @@
       <c r="G33" s="72"/>
       <c r="H33" s="72"/>
       <c r="I33" s="72"/>
-      <c r="J33" s="337"/>
-      <c r="K33" s="337"/>
+      <c r="J33" s="391"/>
+      <c r="K33" s="391"/>
       <c r="L33" s="72"/>
-      <c r="M33" s="338"/>
-      <c r="N33" s="338"/>
+      <c r="M33" s="392"/>
+      <c r="N33" s="392"/>
       <c r="O33" s="78"/>
-      <c r="P33" s="338"/>
-      <c r="Q33" s="338"/>
+      <c r="P33" s="392"/>
+      <c r="Q33" s="392"/>
       <c r="R33" s="93"/>
       <c r="S33" s="98" t="str">
         <f t="shared" si="0"/>
@@ -24651,14 +24610,14 @@
       <c r="G34" s="72"/>
       <c r="H34" s="72"/>
       <c r="I34" s="72"/>
-      <c r="J34" s="337"/>
-      <c r="K34" s="337"/>
+      <c r="J34" s="391"/>
+      <c r="K34" s="391"/>
       <c r="L34" s="72"/>
-      <c r="M34" s="338"/>
-      <c r="N34" s="338"/>
+      <c r="M34" s="392"/>
+      <c r="N34" s="392"/>
       <c r="O34" s="78"/>
-      <c r="P34" s="338"/>
-      <c r="Q34" s="338"/>
+      <c r="P34" s="392"/>
+      <c r="Q34" s="392"/>
       <c r="R34" s="93"/>
       <c r="S34" s="98" t="str">
         <f t="shared" si="0"/>
@@ -24703,14 +24662,14 @@
       <c r="G35" s="72"/>
       <c r="H35" s="72"/>
       <c r="I35" s="72"/>
-      <c r="J35" s="337"/>
-      <c r="K35" s="337"/>
+      <c r="J35" s="391"/>
+      <c r="K35" s="391"/>
       <c r="L35" s="72"/>
-      <c r="M35" s="338"/>
-      <c r="N35" s="338"/>
+      <c r="M35" s="392"/>
+      <c r="N35" s="392"/>
       <c r="O35" s="78"/>
-      <c r="P35" s="338"/>
-      <c r="Q35" s="338"/>
+      <c r="P35" s="392"/>
+      <c r="Q35" s="392"/>
       <c r="R35" s="93"/>
       <c r="S35" s="98" t="str">
         <f t="shared" si="0"/>
@@ -24755,14 +24714,14 @@
       <c r="G36" s="72"/>
       <c r="H36" s="72"/>
       <c r="I36" s="72"/>
-      <c r="J36" s="337"/>
-      <c r="K36" s="337"/>
+      <c r="J36" s="391"/>
+      <c r="K36" s="391"/>
       <c r="L36" s="72"/>
-      <c r="M36" s="338"/>
-      <c r="N36" s="338"/>
+      <c r="M36" s="392"/>
+      <c r="N36" s="392"/>
       <c r="O36" s="78"/>
-      <c r="P36" s="338"/>
-      <c r="Q36" s="338"/>
+      <c r="P36" s="392"/>
+      <c r="Q36" s="392"/>
       <c r="R36" s="93"/>
       <c r="S36" s="98" t="str">
         <f t="shared" si="0"/>
@@ -24807,14 +24766,14 @@
       <c r="G37" s="72"/>
       <c r="H37" s="72"/>
       <c r="I37" s="72"/>
-      <c r="J37" s="337"/>
-      <c r="K37" s="337"/>
+      <c r="J37" s="391"/>
+      <c r="K37" s="391"/>
       <c r="L37" s="72"/>
-      <c r="M37" s="338"/>
-      <c r="N37" s="338"/>
+      <c r="M37" s="392"/>
+      <c r="N37" s="392"/>
       <c r="O37" s="78"/>
-      <c r="P37" s="338"/>
-      <c r="Q37" s="338"/>
+      <c r="P37" s="392"/>
+      <c r="Q37" s="392"/>
       <c r="R37" s="93"/>
       <c r="S37" s="98" t="str">
         <f t="shared" si="0"/>
@@ -24859,14 +24818,14 @@
       <c r="G38" s="72"/>
       <c r="H38" s="72"/>
       <c r="I38" s="72"/>
-      <c r="J38" s="337"/>
-      <c r="K38" s="337"/>
+      <c r="J38" s="391"/>
+      <c r="K38" s="391"/>
       <c r="L38" s="72"/>
-      <c r="M38" s="338"/>
-      <c r="N38" s="338"/>
+      <c r="M38" s="392"/>
+      <c r="N38" s="392"/>
       <c r="O38" s="78"/>
-      <c r="P38" s="338"/>
-      <c r="Q38" s="338"/>
+      <c r="P38" s="392"/>
+      <c r="Q38" s="392"/>
       <c r="R38" s="93"/>
       <c r="S38" s="98" t="str">
         <f t="shared" si="0"/>
@@ -25222,75 +25181,6 @@
     </row>
   </sheetData>
   <mergeCells count="78">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B2:AI3"/>
-    <mergeCell ref="B5:Q5"/>
-    <mergeCell ref="S5:AK5"/>
-    <mergeCell ref="J7:J12"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="P35:Q35"/>
     <mergeCell ref="J38:K38"/>
     <mergeCell ref="M38:N38"/>
     <mergeCell ref="P38:Q38"/>
@@ -25300,6 +25190,75 @@
     <mergeCell ref="J37:K37"/>
     <mergeCell ref="M37:N37"/>
     <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B2:AI3"/>
+    <mergeCell ref="B5:Q5"/>
+    <mergeCell ref="S5:AK5"/>
+    <mergeCell ref="J7:J12"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="S7:T7"/>
   </mergeCells>
   <conditionalFormatting sqref="T17:T38">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
@@ -25362,14 +25321,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="28.8" customHeight="1" x14ac:dyDescent="1.3">
-      <c r="A1" s="297" t="s">
+      <c r="A1" s="337" t="s">
         <v>677</v>
       </c>
-      <c r="B1" s="297"/>
-      <c r="C1" s="297"/>
-      <c r="D1" s="297"/>
-      <c r="E1" s="297"/>
-      <c r="F1" s="297"/>
+      <c r="B1" s="337"/>
+      <c r="C1" s="337"/>
+      <c r="D1" s="337"/>
+      <c r="E1" s="337"/>
+      <c r="F1" s="337"/>
       <c r="H1" s="1"/>
       <c r="J1" s="1"/>
       <c r="N1" s="1"/>
@@ -25389,30 +25348,30 @@
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="15"/>
-      <c r="B2" s="354" t="s">
+      <c r="B2" s="396" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="354"/>
-      <c r="D2" s="354"/>
-      <c r="E2" s="354"/>
-      <c r="F2" s="354"/>
-      <c r="G2" s="354"/>
-      <c r="H2" s="354"/>
-      <c r="I2" s="354"/>
-      <c r="J2" s="354"/>
-      <c r="K2" s="354"/>
-      <c r="L2" s="354"/>
-      <c r="M2" s="354"/>
-      <c r="N2" s="354"/>
-      <c r="O2" s="354"/>
-      <c r="P2" s="354"/>
-      <c r="Q2" s="354"/>
-      <c r="R2" s="354"/>
-      <c r="S2" s="354"/>
-      <c r="T2" s="354"/>
-      <c r="U2" s="354"/>
-      <c r="V2" s="354"/>
-      <c r="W2" s="354"/>
+      <c r="C2" s="396"/>
+      <c r="D2" s="396"/>
+      <c r="E2" s="396"/>
+      <c r="F2" s="396"/>
+      <c r="G2" s="396"/>
+      <c r="H2" s="396"/>
+      <c r="I2" s="396"/>
+      <c r="J2" s="396"/>
+      <c r="K2" s="396"/>
+      <c r="L2" s="396"/>
+      <c r="M2" s="396"/>
+      <c r="N2" s="396"/>
+      <c r="O2" s="396"/>
+      <c r="P2" s="396"/>
+      <c r="Q2" s="396"/>
+      <c r="R2" s="396"/>
+      <c r="S2" s="396"/>
+      <c r="T2" s="396"/>
+      <c r="U2" s="396"/>
+      <c r="V2" s="396"/>
+      <c r="W2" s="396"/>
       <c r="X2" s="19"/>
       <c r="Y2" s="19"/>
       <c r="Z2" s="19"/>
@@ -25492,40 +25451,40 @@
     </row>
     <row r="5" spans="1:34" s="18" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="15"/>
-      <c r="B5" s="355" t="s">
+      <c r="B5" s="397" t="s">
         <v>436</v>
       </c>
-      <c r="C5" s="355"/>
-      <c r="D5" s="355"/>
-      <c r="E5" s="355"/>
-      <c r="F5" s="355"/>
-      <c r="G5" s="355"/>
-      <c r="H5" s="355"/>
-      <c r="I5" s="355"/>
-      <c r="J5" s="355"/>
-      <c r="K5" s="355"/>
+      <c r="C5" s="397"/>
+      <c r="D5" s="397"/>
+      <c r="E5" s="397"/>
+      <c r="F5" s="397"/>
+      <c r="G5" s="397"/>
+      <c r="H5" s="397"/>
+      <c r="I5" s="397"/>
+      <c r="J5" s="397"/>
+      <c r="K5" s="397"/>
       <c r="L5" s="172"/>
       <c r="M5" s="28"/>
-      <c r="N5" s="356" t="s">
+      <c r="N5" s="398" t="s">
         <v>437</v>
       </c>
-      <c r="O5" s="357"/>
-      <c r="P5" s="357"/>
+      <c r="O5" s="399"/>
+      <c r="P5" s="399"/>
       <c r="Q5" s="59"/>
-      <c r="R5" s="358"/>
-      <c r="S5" s="358"/>
-      <c r="T5" s="358"/>
-      <c r="U5" s="358"/>
-      <c r="V5" s="358"/>
-      <c r="W5" s="358"/>
-      <c r="X5" s="358"/>
-      <c r="Y5" s="358"/>
-      <c r="Z5" s="358"/>
-      <c r="AA5" s="358"/>
-      <c r="AB5" s="358"/>
-      <c r="AC5" s="358"/>
-      <c r="AD5" s="358"/>
-      <c r="AE5" s="358"/>
+      <c r="R5" s="400"/>
+      <c r="S5" s="400"/>
+      <c r="T5" s="400"/>
+      <c r="U5" s="400"/>
+      <c r="V5" s="400"/>
+      <c r="W5" s="400"/>
+      <c r="X5" s="400"/>
+      <c r="Y5" s="400"/>
+      <c r="Z5" s="400"/>
+      <c r="AA5" s="400"/>
+      <c r="AB5" s="400"/>
+      <c r="AC5" s="400"/>
+      <c r="AD5" s="400"/>
+      <c r="AE5" s="400"/>
       <c r="AF5" s="15"/>
       <c r="AG5" s="15"/>
     </row>
@@ -25675,11 +25634,11 @@
       <c r="K9" s="186"/>
       <c r="L9" s="184"/>
       <c r="M9" s="187"/>
-      <c r="N9" s="353" t="s">
+      <c r="N9" s="395" t="s">
         <v>48</v>
       </c>
-      <c r="O9" s="353"/>
-      <c r="P9" s="353"/>
+      <c r="O9" s="395"/>
+      <c r="P9" s="395"/>
       <c r="Q9" s="188"/>
       <c r="R9" s="189" t="s">
         <v>449</v>
@@ -25736,11 +25695,11 @@
       <c r="K10" s="184"/>
       <c r="L10" s="184"/>
       <c r="M10" s="27"/>
-      <c r="N10" s="353" t="s">
+      <c r="N10" s="395" t="s">
         <v>51</v>
       </c>
-      <c r="O10" s="353"/>
-      <c r="P10" s="353"/>
+      <c r="O10" s="395"/>
+      <c r="P10" s="395"/>
       <c r="Q10" s="27"/>
       <c r="R10" s="189" t="s">
         <v>449</v>
@@ -25797,11 +25756,11 @@
       <c r="K11" s="184"/>
       <c r="L11" s="184"/>
       <c r="M11" s="27"/>
-      <c r="N11" s="353" t="s">
+      <c r="N11" s="395" t="s">
         <v>48</v>
       </c>
-      <c r="O11" s="353"/>
-      <c r="P11" s="353"/>
+      <c r="O11" s="395"/>
+      <c r="P11" s="395"/>
       <c r="Q11" s="27"/>
       <c r="R11" s="189" t="s">
         <v>449</v>
@@ -25858,11 +25817,11 @@
       <c r="K12" s="184"/>
       <c r="L12" s="184"/>
       <c r="M12" s="27"/>
-      <c r="N12" s="353" t="s">
+      <c r="N12" s="395" t="s">
         <v>48</v>
       </c>
-      <c r="O12" s="353"/>
-      <c r="P12" s="353"/>
+      <c r="O12" s="395"/>
+      <c r="P12" s="395"/>
       <c r="Q12" s="27"/>
       <c r="R12" s="189" t="s">
         <v>46</v>
@@ -25919,11 +25878,11 @@
       <c r="K13" s="184"/>
       <c r="L13" s="184"/>
       <c r="M13" s="27"/>
-      <c r="N13" s="353" t="s">
+      <c r="N13" s="395" t="s">
         <v>55</v>
       </c>
-      <c r="O13" s="353"/>
-      <c r="P13" s="353"/>
+      <c r="O13" s="395"/>
+      <c r="P13" s="395"/>
       <c r="Q13" s="27"/>
       <c r="R13" s="189" t="s">
         <v>60</v>
@@ -25980,11 +25939,11 @@
       <c r="K14" s="184"/>
       <c r="L14" s="184"/>
       <c r="M14" s="27"/>
-      <c r="N14" s="353" t="s">
+      <c r="N14" s="395" t="s">
         <v>55</v>
       </c>
-      <c r="O14" s="353"/>
-      <c r="P14" s="353"/>
+      <c r="O14" s="395"/>
+      <c r="P14" s="395"/>
       <c r="Q14" s="27"/>
       <c r="R14" s="189" t="s">
         <v>474</v>
@@ -26041,11 +26000,11 @@
       <c r="K15" s="197"/>
       <c r="L15" s="197"/>
       <c r="M15" s="27"/>
-      <c r="N15" s="353" t="s">
+      <c r="N15" s="395" t="s">
         <v>51</v>
       </c>
-      <c r="O15" s="353"/>
-      <c r="P15" s="353"/>
+      <c r="O15" s="395"/>
+      <c r="P15" s="395"/>
       <c r="Q15" s="27"/>
       <c r="R15" s="189" t="s">
         <v>480</v>
@@ -26102,11 +26061,11 @@
       <c r="K16" s="200"/>
       <c r="L16" s="200"/>
       <c r="M16" s="27"/>
-      <c r="N16" s="353" t="s">
+      <c r="N16" s="395" t="s">
         <v>48</v>
       </c>
-      <c r="O16" s="353"/>
-      <c r="P16" s="353"/>
+      <c r="O16" s="395"/>
+      <c r="P16" s="395"/>
       <c r="Q16" s="27"/>
       <c r="R16" s="185" t="s">
         <v>46</v>
@@ -26163,11 +26122,11 @@
       <c r="K17" s="202"/>
       <c r="L17" s="202"/>
       <c r="M17" s="27"/>
-      <c r="N17" s="353" t="s">
+      <c r="N17" s="395" t="s">
         <v>51</v>
       </c>
-      <c r="O17" s="353"/>
-      <c r="P17" s="353"/>
+      <c r="O17" s="395"/>
+      <c r="P17" s="395"/>
       <c r="Q17" s="27"/>
       <c r="R17" s="185" t="s">
         <v>492</v>
@@ -26224,11 +26183,11 @@
       <c r="K18" s="203"/>
       <c r="L18" s="203"/>
       <c r="M18" s="203"/>
-      <c r="N18" s="353" t="s">
+      <c r="N18" s="395" t="s">
         <v>48</v>
       </c>
-      <c r="O18" s="353"/>
-      <c r="P18" s="353"/>
+      <c r="O18" s="395"/>
+      <c r="P18" s="395"/>
       <c r="Q18" s="203"/>
       <c r="R18" s="185" t="s">
         <v>474</v>
@@ -26285,11 +26244,11 @@
       <c r="K19" s="203"/>
       <c r="L19" s="203"/>
       <c r="M19" s="203"/>
-      <c r="N19" s="353" t="s">
+      <c r="N19" s="395" t="s">
         <v>48</v>
       </c>
-      <c r="O19" s="353"/>
-      <c r="P19" s="353"/>
+      <c r="O19" s="395"/>
+      <c r="P19" s="395"/>
       <c r="Q19" s="203"/>
       <c r="R19" s="185" t="s">
         <v>504</v>
@@ -26346,11 +26305,11 @@
       <c r="K20" s="203"/>
       <c r="L20" s="203"/>
       <c r="M20" s="203"/>
-      <c r="N20" s="353" t="s">
+      <c r="N20" s="395" t="s">
         <v>51</v>
       </c>
-      <c r="O20" s="353"/>
-      <c r="P20" s="353"/>
+      <c r="O20" s="395"/>
+      <c r="P20" s="395"/>
       <c r="Q20" s="203"/>
       <c r="R20" s="185" t="s">
         <v>511</v>
@@ -26407,11 +26366,11 @@
       <c r="K21" s="203"/>
       <c r="L21" s="203"/>
       <c r="M21" s="203"/>
-      <c r="N21" s="353" t="s">
+      <c r="N21" s="395" t="s">
         <v>48</v>
       </c>
-      <c r="O21" s="353"/>
-      <c r="P21" s="353"/>
+      <c r="O21" s="395"/>
+      <c r="P21" s="395"/>
       <c r="Q21" s="203"/>
       <c r="R21" s="185" t="s">
         <v>46</v>
@@ -26468,11 +26427,11 @@
       <c r="K22" s="203"/>
       <c r="L22" s="203"/>
       <c r="M22" s="203"/>
-      <c r="N22" s="360" t="s">
+      <c r="N22" s="394" t="s">
         <v>51</v>
       </c>
-      <c r="O22" s="360"/>
-      <c r="P22" s="360"/>
+      <c r="O22" s="394"/>
+      <c r="P22" s="394"/>
       <c r="Q22" s="203"/>
       <c r="R22" s="207" t="s">
         <v>524</v>
@@ -26519,9 +26478,9 @@
       <c r="K23" s="203"/>
       <c r="L23" s="203"/>
       <c r="M23" s="203"/>
-      <c r="N23" s="359"/>
-      <c r="O23" s="359"/>
-      <c r="P23" s="359"/>
+      <c r="N23" s="393"/>
+      <c r="O23" s="393"/>
+      <c r="P23" s="393"/>
       <c r="Q23" s="203"/>
       <c r="R23" s="184"/>
       <c r="S23" s="184"/>
@@ -26554,9 +26513,9 @@
       <c r="K24" s="203"/>
       <c r="L24" s="203"/>
       <c r="M24" s="203"/>
-      <c r="N24" s="359"/>
-      <c r="O24" s="359"/>
-      <c r="P24" s="359"/>
+      <c r="N24" s="393"/>
+      <c r="O24" s="393"/>
+      <c r="P24" s="393"/>
       <c r="Q24" s="203"/>
       <c r="R24" s="184"/>
       <c r="S24" s="184"/>
@@ -26589,9 +26548,9 @@
       <c r="K25" s="203"/>
       <c r="L25" s="203"/>
       <c r="M25" s="203"/>
-      <c r="N25" s="359"/>
-      <c r="O25" s="359"/>
-      <c r="P25" s="359"/>
+      <c r="N25" s="393"/>
+      <c r="O25" s="393"/>
+      <c r="P25" s="393"/>
       <c r="Q25" s="203"/>
       <c r="R25" s="184"/>
       <c r="S25" s="184"/>
@@ -26624,9 +26583,9 @@
       <c r="K26" s="203"/>
       <c r="L26" s="203"/>
       <c r="M26" s="203"/>
-      <c r="N26" s="359"/>
-      <c r="O26" s="359"/>
-      <c r="P26" s="359"/>
+      <c r="N26" s="393"/>
+      <c r="O26" s="393"/>
+      <c r="P26" s="393"/>
       <c r="Q26" s="203"/>
       <c r="R26" s="184"/>
       <c r="S26" s="184"/>
@@ -26659,9 +26618,9 @@
       <c r="K27" s="203"/>
       <c r="L27" s="203"/>
       <c r="M27" s="203"/>
-      <c r="N27" s="359"/>
-      <c r="O27" s="359"/>
-      <c r="P27" s="359"/>
+      <c r="N27" s="393"/>
+      <c r="O27" s="393"/>
+      <c r="P27" s="393"/>
       <c r="Q27" s="203"/>
       <c r="R27" s="184"/>
       <c r="S27" s="184"/>
@@ -26694,9 +26653,9 @@
       <c r="K28" s="203"/>
       <c r="L28" s="203"/>
       <c r="M28" s="203"/>
-      <c r="N28" s="359"/>
-      <c r="O28" s="359"/>
-      <c r="P28" s="359"/>
+      <c r="N28" s="393"/>
+      <c r="O28" s="393"/>
+      <c r="P28" s="393"/>
       <c r="Q28" s="203"/>
       <c r="R28" s="184"/>
       <c r="S28" s="184"/>
@@ -26728,9 +26687,9 @@
       <c r="K29" s="203"/>
       <c r="L29" s="203"/>
       <c r="M29" s="203"/>
-      <c r="N29" s="359"/>
-      <c r="O29" s="359"/>
-      <c r="P29" s="359"/>
+      <c r="N29" s="393"/>
+      <c r="O29" s="393"/>
+      <c r="P29" s="393"/>
       <c r="Q29" s="203"/>
       <c r="R29" s="184"/>
       <c r="S29" s="184"/>
@@ -26761,9 +26720,9 @@
       <c r="K30" s="203"/>
       <c r="L30" s="203"/>
       <c r="M30" s="203"/>
-      <c r="N30" s="359"/>
-      <c r="O30" s="359"/>
-      <c r="P30" s="359"/>
+      <c r="N30" s="393"/>
+      <c r="O30" s="393"/>
+      <c r="P30" s="393"/>
       <c r="Q30" s="203"/>
       <c r="R30" s="184"/>
       <c r="S30" s="184"/>
@@ -27050,6 +27009,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="B2:W2"/>
+    <mergeCell ref="B5:K5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="R5:AE5"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="N21:P21"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="N29:P29"/>
     <mergeCell ref="N30:P30"/>
@@ -27066,17 +27036,6 @@
     <mergeCell ref="N14:P14"/>
     <mergeCell ref="N15:P15"/>
     <mergeCell ref="N16:P16"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="B2:W2"/>
-    <mergeCell ref="B5:K5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="R5:AE5"/>
-    <mergeCell ref="N9:P9"/>
   </mergeCells>
   <conditionalFormatting sqref="N9:P30">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
@@ -27129,12 +27088,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="28.8" x14ac:dyDescent="1.1000000000000001">
-      <c r="A1" s="362" t="s">
+      <c r="A1" s="401" t="s">
         <v>677</v>
       </c>
-      <c r="B1" s="362"/>
-      <c r="C1" s="362"/>
-      <c r="D1" s="362"/>
+      <c r="B1" s="401"/>
+      <c r="C1" s="401"/>
+      <c r="D1" s="401"/>
       <c r="E1" s="293"/>
       <c r="F1" s="293"/>
       <c r="H1" s="1"/>
@@ -27153,36 +27112,36 @@
       <c r="F2" s="1"/>
       <c r="H2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="L2" s="363" t="s">
+      <c r="L2" s="402" t="s">
         <v>592</v>
       </c>
-      <c r="M2" s="363"/>
-      <c r="N2" s="363"/>
-      <c r="O2" s="363"/>
-      <c r="P2" s="363"/>
-      <c r="Q2" s="363"/>
+      <c r="M2" s="402"/>
+      <c r="N2" s="402"/>
+      <c r="O2" s="402"/>
+      <c r="P2" s="402"/>
+      <c r="Q2" s="402"/>
       <c r="R2" s="1"/>
     </row>
     <row r="3" spans="1:18" ht="55.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1"/>
-      <c r="B3" s="364" t="s">
+      <c r="B3" s="403" t="s">
         <v>593</v>
       </c>
-      <c r="C3" s="364"/>
-      <c r="D3" s="364"/>
-      <c r="E3" s="364"/>
-      <c r="F3" s="364"/>
-      <c r="G3" s="364"/>
-      <c r="H3" s="364"/>
-      <c r="I3" s="364"/>
-      <c r="J3" s="364"/>
+      <c r="C3" s="403"/>
+      <c r="D3" s="403"/>
+      <c r="E3" s="403"/>
+      <c r="F3" s="403"/>
+      <c r="G3" s="403"/>
+      <c r="H3" s="403"/>
+      <c r="I3" s="403"/>
+      <c r="J3" s="403"/>
       <c r="K3" s="281"/>
-      <c r="L3" s="363"/>
-      <c r="M3" s="363"/>
-      <c r="N3" s="363"/>
-      <c r="O3" s="363"/>
-      <c r="P3" s="363"/>
-      <c r="Q3" s="363"/>
+      <c r="L3" s="402"/>
+      <c r="M3" s="402"/>
+      <c r="N3" s="402"/>
+      <c r="O3" s="402"/>
+      <c r="P3" s="402"/>
+      <c r="Q3" s="402"/>
       <c r="R3" s="1"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -27201,44 +27160,44 @@
     </row>
     <row r="5" spans="1:18" ht="12.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1"/>
-      <c r="B5" s="365" t="s">
+      <c r="B5" s="404" t="s">
         <v>594</v>
       </c>
-      <c r="D5" s="365" t="s">
+      <c r="D5" s="404" t="s">
         <v>595</v>
       </c>
-      <c r="F5" s="365" t="s">
+      <c r="F5" s="404" t="s">
         <v>596</v>
       </c>
-      <c r="H5" s="365" t="s">
+      <c r="H5" s="404" t="s">
         <v>597</v>
       </c>
-      <c r="J5" s="365" t="s">
+      <c r="J5" s="404" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="366" t="s">
+      <c r="L5" s="405" t="s">
         <v>75</v>
       </c>
-      <c r="M5" s="345"/>
-      <c r="N5" s="345"/>
-      <c r="O5" s="345"/>
+      <c r="M5" s="386"/>
+      <c r="N5" s="386"/>
+      <c r="O5" s="386"/>
       <c r="P5" s="282"/>
-      <c r="Q5" s="367" t="s">
+      <c r="Q5" s="406" t="s">
         <v>598</v>
       </c>
       <c r="R5" s="1"/>
     </row>
     <row r="6" spans="1:18" ht="57.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1"/>
-      <c r="B6" s="345"/>
+      <c r="B6" s="386"/>
       <c r="C6" s="282"/>
-      <c r="D6" s="345"/>
+      <c r="D6" s="386"/>
       <c r="E6" s="282"/>
-      <c r="F6" s="345"/>
+      <c r="F6" s="386"/>
       <c r="G6" s="282"/>
-      <c r="H6" s="345"/>
+      <c r="H6" s="386"/>
       <c r="I6" s="282"/>
-      <c r="J6" s="345"/>
+      <c r="J6" s="386"/>
       <c r="K6" s="282"/>
       <c r="L6" s="283" t="s">
         <v>599</v>
@@ -27252,7 +27211,7 @@
       <c r="O6" s="283" t="s">
         <v>602</v>
       </c>
-      <c r="Q6" s="367"/>
+      <c r="Q6" s="406"/>
       <c r="R6" s="1"/>
     </row>
     <row r="7" spans="1:18" s="1" customFormat="1" ht="5.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -27293,12 +27252,12 @@
         <v>320</v>
       </c>
       <c r="K8" s="286"/>
-      <c r="L8" s="361" t="s">
+      <c r="L8" s="407" t="s">
         <v>601</v>
       </c>
-      <c r="M8" s="361"/>
-      <c r="N8" s="361"/>
-      <c r="O8" s="361"/>
+      <c r="M8" s="407"/>
+      <c r="N8" s="407"/>
+      <c r="O8" s="407"/>
       <c r="Q8" s="287">
         <v>100</v>
       </c>
@@ -27321,12 +27280,12 @@
       <c r="J9" s="285" t="s">
         <v>322</v>
       </c>
-      <c r="L9" s="361" t="s">
+      <c r="L9" s="407" t="s">
         <v>601</v>
       </c>
-      <c r="M9" s="361"/>
-      <c r="N9" s="361"/>
-      <c r="O9" s="361"/>
+      <c r="M9" s="407"/>
+      <c r="N9" s="407"/>
+      <c r="O9" s="407"/>
       <c r="Q9" s="287">
         <v>100</v>
       </c>
@@ -27349,12 +27308,12 @@
       <c r="J10" s="285" t="s">
         <v>324</v>
       </c>
-      <c r="L10" s="361" t="s">
+      <c r="L10" s="407" t="s">
         <v>601</v>
       </c>
-      <c r="M10" s="361"/>
-      <c r="N10" s="361"/>
-      <c r="O10" s="361"/>
+      <c r="M10" s="407"/>
+      <c r="N10" s="407"/>
+      <c r="O10" s="407"/>
       <c r="Q10" s="287">
         <v>66</v>
       </c>
@@ -27377,12 +27336,12 @@
       <c r="J11" s="285" t="s">
         <v>615</v>
       </c>
-      <c r="L11" s="361" t="s">
+      <c r="L11" s="407" t="s">
         <v>601</v>
       </c>
-      <c r="M11" s="361"/>
-      <c r="N11" s="361"/>
-      <c r="O11" s="361"/>
+      <c r="M11" s="407"/>
+      <c r="N11" s="407"/>
+      <c r="O11" s="407"/>
       <c r="Q11" s="287">
         <v>100</v>
       </c>
@@ -27405,12 +27364,12 @@
       <c r="J12" s="285" t="s">
         <v>326</v>
       </c>
-      <c r="L12" s="361" t="s">
+      <c r="L12" s="407" t="s">
         <v>601</v>
       </c>
-      <c r="M12" s="361"/>
-      <c r="N12" s="361"/>
-      <c r="O12" s="361"/>
+      <c r="M12" s="407"/>
+      <c r="N12" s="407"/>
+      <c r="O12" s="407"/>
       <c r="Q12" s="287">
         <v>100</v>
       </c>
@@ -27433,12 +27392,12 @@
       <c r="J13" s="285" t="s">
         <v>328</v>
       </c>
-      <c r="L13" s="361" t="s">
+      <c r="L13" s="407" t="s">
         <v>601</v>
       </c>
-      <c r="M13" s="361"/>
-      <c r="N13" s="361"/>
-      <c r="O13" s="361"/>
+      <c r="M13" s="407"/>
+      <c r="N13" s="407"/>
+      <c r="O13" s="407"/>
       <c r="Q13" s="287">
         <v>100</v>
       </c>
@@ -27461,12 +27420,12 @@
       <c r="J14" s="285" t="s">
         <v>342</v>
       </c>
-      <c r="L14" s="361" t="s">
+      <c r="L14" s="407" t="s">
         <v>601</v>
       </c>
-      <c r="M14" s="361"/>
-      <c r="N14" s="361"/>
-      <c r="O14" s="361"/>
+      <c r="M14" s="407"/>
+      <c r="N14" s="407"/>
+      <c r="O14" s="407"/>
       <c r="Q14" s="287">
         <v>100</v>
       </c>
@@ -27489,12 +27448,12 @@
       <c r="J15" s="285" t="s">
         <v>294</v>
       </c>
-      <c r="L15" s="361" t="s">
+      <c r="L15" s="407" t="s">
         <v>601</v>
       </c>
-      <c r="M15" s="361"/>
-      <c r="N15" s="361"/>
-      <c r="O15" s="361"/>
+      <c r="M15" s="407"/>
+      <c r="N15" s="407"/>
+      <c r="O15" s="407"/>
       <c r="Q15" s="287">
         <v>100</v>
       </c>
@@ -27517,12 +27476,12 @@
       <c r="J16" s="285" t="s">
         <v>300</v>
       </c>
-      <c r="L16" s="361" t="s">
+      <c r="L16" s="407" t="s">
         <v>601</v>
       </c>
-      <c r="M16" s="361"/>
-      <c r="N16" s="361"/>
-      <c r="O16" s="361"/>
+      <c r="M16" s="407"/>
+      <c r="N16" s="407"/>
+      <c r="O16" s="407"/>
       <c r="Q16" s="287">
         <v>100</v>
       </c>
@@ -27545,12 +27504,12 @@
       <c r="J17" s="285" t="s">
         <v>304</v>
       </c>
-      <c r="L17" s="361" t="s">
+      <c r="L17" s="407" t="s">
         <v>601</v>
       </c>
-      <c r="M17" s="361"/>
-      <c r="N17" s="361"/>
-      <c r="O17" s="361"/>
+      <c r="M17" s="407"/>
+      <c r="N17" s="407"/>
+      <c r="O17" s="407"/>
       <c r="Q17" s="287">
         <v>100</v>
       </c>
@@ -27573,12 +27532,12 @@
       <c r="J18" s="285" t="s">
         <v>382</v>
       </c>
-      <c r="L18" s="361" t="s">
+      <c r="L18" s="407" t="s">
         <v>601</v>
       </c>
-      <c r="M18" s="361"/>
-      <c r="N18" s="361"/>
-      <c r="O18" s="361"/>
+      <c r="M18" s="407"/>
+      <c r="N18" s="407"/>
+      <c r="O18" s="407"/>
       <c r="Q18" s="287">
         <v>100</v>
       </c>
@@ -27601,12 +27560,12 @@
       <c r="J19" s="285" t="s">
         <v>640</v>
       </c>
-      <c r="L19" s="361" t="s">
+      <c r="L19" s="407" t="s">
         <v>601</v>
       </c>
-      <c r="M19" s="361"/>
-      <c r="N19" s="361"/>
-      <c r="O19" s="361"/>
+      <c r="M19" s="407"/>
+      <c r="N19" s="407"/>
+      <c r="O19" s="407"/>
       <c r="Q19" s="287">
         <v>100</v>
       </c>
@@ -27629,12 +27588,12 @@
       <c r="J20" s="285" t="s">
         <v>644</v>
       </c>
-      <c r="L20" s="361" t="s">
+      <c r="L20" s="407" t="s">
         <v>601</v>
       </c>
-      <c r="M20" s="361"/>
-      <c r="N20" s="361"/>
-      <c r="O20" s="361"/>
+      <c r="M20" s="407"/>
+      <c r="N20" s="407"/>
+      <c r="O20" s="407"/>
       <c r="Q20" s="287">
         <v>100</v>
       </c>
@@ -27657,12 +27616,12 @@
       <c r="J21" s="285" t="s">
         <v>398</v>
       </c>
-      <c r="L21" s="361" t="s">
+      <c r="L21" s="407" t="s">
         <v>601</v>
       </c>
-      <c r="M21" s="361"/>
-      <c r="N21" s="361"/>
-      <c r="O21" s="361"/>
+      <c r="M21" s="407"/>
+      <c r="N21" s="407"/>
+      <c r="O21" s="407"/>
       <c r="Q21" s="287">
         <v>100</v>
       </c>
@@ -27685,12 +27644,12 @@
       <c r="J22" s="285" t="s">
         <v>651</v>
       </c>
-      <c r="L22" s="361" t="s">
+      <c r="L22" s="407" t="s">
         <v>601</v>
       </c>
-      <c r="M22" s="361"/>
-      <c r="N22" s="361"/>
-      <c r="O22" s="361"/>
+      <c r="M22" s="407"/>
+      <c r="N22" s="407"/>
+      <c r="O22" s="407"/>
       <c r="Q22" s="287">
         <v>100</v>
       </c>
@@ -27713,12 +27672,12 @@
       <c r="J23" s="285" t="s">
         <v>655</v>
       </c>
-      <c r="L23" s="361" t="s">
+      <c r="L23" s="407" t="s">
         <v>601</v>
       </c>
-      <c r="M23" s="361"/>
-      <c r="N23" s="361"/>
-      <c r="O23" s="361"/>
+      <c r="M23" s="407"/>
+      <c r="N23" s="407"/>
+      <c r="O23" s="407"/>
       <c r="Q23" s="287">
         <v>100</v>
       </c>
@@ -27741,12 +27700,12 @@
       <c r="J24" s="285" t="s">
         <v>659</v>
       </c>
-      <c r="L24" s="361" t="s">
+      <c r="L24" s="407" t="s">
         <v>601</v>
       </c>
-      <c r="M24" s="361"/>
-      <c r="N24" s="361"/>
-      <c r="O24" s="361"/>
+      <c r="M24" s="407"/>
+      <c r="N24" s="407"/>
+      <c r="O24" s="407"/>
       <c r="Q24" s="287">
         <v>100</v>
       </c>
@@ -27769,12 +27728,12 @@
       <c r="J25" s="285" t="s">
         <v>264</v>
       </c>
-      <c r="L25" s="361" t="s">
+      <c r="L25" s="407" t="s">
         <v>601</v>
       </c>
-      <c r="M25" s="361"/>
-      <c r="N25" s="361"/>
-      <c r="O25" s="361"/>
+      <c r="M25" s="407"/>
+      <c r="N25" s="407"/>
+      <c r="O25" s="407"/>
       <c r="Q25" s="287">
         <v>100</v>
       </c>
@@ -27797,12 +27756,12 @@
       <c r="J26" s="285" t="s">
         <v>276</v>
       </c>
-      <c r="L26" s="361" t="s">
+      <c r="L26" s="407" t="s">
         <v>601</v>
       </c>
-      <c r="M26" s="361"/>
-      <c r="N26" s="361"/>
-      <c r="O26" s="361"/>
+      <c r="M26" s="407"/>
+      <c r="N26" s="407"/>
+      <c r="O26" s="407"/>
       <c r="Q26" s="287">
         <v>100</v>
       </c>
@@ -27825,12 +27784,12 @@
       <c r="J27" s="285" t="s">
         <v>669</v>
       </c>
-      <c r="L27" s="361" t="s">
+      <c r="L27" s="407" t="s">
         <v>601</v>
       </c>
-      <c r="M27" s="361"/>
-      <c r="N27" s="361"/>
-      <c r="O27" s="361"/>
+      <c r="M27" s="407"/>
+      <c r="N27" s="407"/>
+      <c r="O27" s="407"/>
       <c r="Q27" s="287">
         <v>100</v>
       </c>
@@ -27851,12 +27810,12 @@
         <v>672</v>
       </c>
       <c r="J28" s="285"/>
-      <c r="L28" s="361" t="s">
+      <c r="L28" s="407" t="s">
         <v>601</v>
       </c>
-      <c r="M28" s="361"/>
-      <c r="N28" s="361"/>
-      <c r="O28" s="361"/>
+      <c r="M28" s="407"/>
+      <c r="N28" s="407"/>
+      <c r="O28" s="407"/>
       <c r="Q28" s="287">
         <v>100</v>
       </c>
@@ -27976,16 +27935,15 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="L2:Q3"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="L26:O26"/>
+    <mergeCell ref="L27:O27"/>
+    <mergeCell ref="L28:O28"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="L25:O25"/>
     <mergeCell ref="L19:O19"/>
     <mergeCell ref="L8:O8"/>
     <mergeCell ref="L9:O9"/>
@@ -27998,15 +27956,16 @@
     <mergeCell ref="L16:O16"/>
     <mergeCell ref="L17:O17"/>
     <mergeCell ref="L18:O18"/>
-    <mergeCell ref="L26:O26"/>
-    <mergeCell ref="L27:O27"/>
-    <mergeCell ref="L28:O28"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="L23:O23"/>
-    <mergeCell ref="L24:O24"/>
-    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="L2:Q3"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="Q5:Q6"/>
   </mergeCells>
   <conditionalFormatting sqref="Q8:Q28">
     <cfRule type="dataBar" priority="1">
